--- a/docs/invariant/translations.xlsx
+++ b/docs/invariant/translations.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="976">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Learn8 your way ("Learn it your way") is a widely applicable study tool. Study languages, memorize names and faces, practice mental arithmetic, improve your math skills, rote learn topography or train your short term memory for any random subject.
 How does Learn8 work?
 - Create your own learn items - optionally with hints and feedback - or import items that other people have shared with you.
-- Start a (daily) learn flow for a set of items by selecting the tags that you do or do not want to study today.
+- Start a (daily) learning session for a set of items by selecting the tags that you do or do not want to study today.
 - Share your items with friends, colleagues or students easily via WhatsApp, Mail or via your website.
 - You can have multiple accounts on one device.
 - You can synchronize your learning progress between multiple devices.
@@ -80,7 +80,7 @@
     <t xml:space="preserve">Learn8 your way ("Learn it your way") is a widely applicable study tool. Study languages, memorise names and faces, practise mental arithmetics, improve your maths skills, rote learn topography or train your short term memory for any random subject.
 How does Learn8 work?
 - Create your own learn items - optionally with hints and feedback - or import items that other people have shared with you.
-- Start a (daily) learn flow for a set of items by selecting the tags that you do or do not want to study today.
+- Start a (daily) learning session for a set of items by selecting the tags that you do or do not want to study today.
 - Share your items with friends, colleagues or students easily via WhatsApp, Mail or via your website.
 - You can have multiple accounts on one device.
 - You can synchronise your learning progress between multiple devices.
@@ -762,7 +762,7 @@
 Other L8_KEYBOARD-options for mobile devices: EMAIL, TELEPHONE.
 The line
 L8_KEYBOARD = LATEX
-works on all devices. It uses the default keyboard, but the mathematical formulas that correspond to what you've just typed are shown instantly. When LaTeX-answers are checked during a learn flow, whitespace is ignored. This means for example that "x  +  1" is considered the same as "x+1".</t>
+works on all devices. It uses the default keyboard, but the mathematical formulas that correspond to what you've just typed are shown instantly. When LaTeX-answers are checked during a learning session, whitespace is ignored. This means for example that "x  +  1" is considered the same as "x+1".</t>
   </si>
   <si>
     <t xml:space="preserve">This resx file is not complete. It only contains the entries that require deviation form the default en-US:
@@ -1579,7 +1579,7 @@
     <t xml:space="preserve">ProgressIndicatorLabel_This_learn_flow</t>
   </si>
   <si>
-    <t xml:space="preserve">This learn flow</t>
+    <t xml:space="preserve">This learning session</t>
   </si>
   <si>
     <t xml:space="preserve">Deze leersessie</t>
@@ -1681,7 +1681,7 @@
     <t xml:space="preserve">Start_a_learn_flow</t>
   </si>
   <si>
-    <t xml:space="preserve">Start a learn flow</t>
+    <t xml:space="preserve">Start a learning session</t>
   </si>
   <si>
     <t xml:space="preserve">Start een leersessie</t>
@@ -1702,7 +1702,7 @@
     <t xml:space="preserve">Resume_learn_flow</t>
   </si>
   <si>
-    <t xml:space="preserve">Resume learn flow</t>
+    <t xml:space="preserve">Resume learning session</t>
   </si>
   <si>
     <t xml:space="preserve">Leersessie hervatten</t>
@@ -1711,7 +1711,7 @@
     <t xml:space="preserve">Start_a_new_learn_flow</t>
   </si>
   <si>
-    <t xml:space="preserve">Start a new learn flow</t>
+    <t xml:space="preserve">Start a new learning session</t>
   </si>
   <si>
     <t xml:space="preserve">Start een nieuwe leersessie</t>
@@ -2307,7 +2307,7 @@
     <t xml:space="preserve">Info_Goal_CorrectAnswersPerLearnFlow</t>
   </si>
   <si>
-    <t xml:space="preserve">The (daily) learn flow is completed when you have provided a certain number of correct answers during that learn flow.</t>
+    <t xml:space="preserve">The (daily) learning session is completed when you have provided a certain number of correct answers during that learning session.</t>
   </si>
   <si>
     <t xml:space="preserve">De (dagelijkse) leersessie is voltooid zodra je een bepaald (totaal) aantal correcte antwoorden hebt gegeven tijdens die leersessie.</t>
@@ -2316,7 +2316,7 @@
     <t xml:space="preserve">Info_LearnInGroupsOf</t>
   </si>
   <si>
-    <t xml:space="preserve">During a learn flow, new items are introduced to you in small groups. If too many items turn out to be hard, they are also presented in smaller groups. What size should such a group be?</t>
+    <t xml:space="preserve">During a learning session, new items are introduced to you in small groups. If too many items turn out to be hard, they are also presented in smaller groups. What size should such a group be?</t>
   </si>
   <si>
     <t xml:space="preserve">Tijdens een leersessie worden nieuwe items aan je voorgelegd in kleine groepjes. Ook als er te veel items moeilijk blijken te zijn, oefen je de items in kleine groepjes. Hoe groot mag zo'n groepje zijn?</t>
@@ -2325,11 +2325,11 @@
     <t xml:space="preserve">Info_NewOrUnfinishedItemsPerLearnFlow</t>
   </si>
   <si>
-    <t xml:space="preserve">A new learn flow will consist of
-- the hard* items of the previous learn flow
+    <t xml:space="preserve">A new learning session will consist of
+- the hard* items of the previous learning session
 - new items (if it fits)
 - mastered items for rehearsal
-How many new + hard items would you like to study per (daily) learn flow?
+How many new + hard items would you like to study per (daily) learning session?
 * An item is considered to be 'hard' if its score is 20% below the learning goal.</t>
   </si>
   <si>
@@ -2355,7 +2355,7 @@
     <t xml:space="preserve">Info_WarmingUpItems</t>
   </si>
   <si>
-    <t xml:space="preserve">Each learn flow starts with the rehearsal of items, without asking any item twice. How many items would you like to rehearse during this 'warming up'?</t>
+    <t xml:space="preserve">Each learning session starts with the rehearsal of items, without asking any item twice. How many items would you like to rehearse during this 'warming up'?</t>
   </si>
   <si>
     <t xml:space="preserve">Elke leersessie start met het herhalen van items, zonder enig item twee keer voor te leggen. Hoeveel items zou je voorgelegd willen krijgen tijdens deze 'warming up'?</t>
@@ -2442,15 +2442,6 @@
     <t xml:space="preserve">Synchroniseer nu</t>
   </si>
   <si>
-    <t xml:space="preserve">tbLocalSyncFolder_prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local sync folder:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lokale synchronisatiemap:</t>
-  </si>
-  <si>
     <t xml:space="preserve">The_symbols_you_would_like_to_consider_equal</t>
   </si>
   <si>
@@ -2490,7 +2481,7 @@
     <t xml:space="preserve">Validation_LearnInGroupsOf_Xmin_Xmax</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum is {0} and cannot be greater than ('new or unfinished items per learn flow') {1}.</t>
+    <t xml:space="preserve">Minimum is {0} and cannot be greater than ('new or unfinished items per learning session') {1}.</t>
   </si>
   <si>
     <t xml:space="preserve">Minimaal {0} en maximaal ('nieuwe of moeilijke items per leersessie') {1}.</t>
@@ -3047,7 +3038,7 @@
     <t xml:space="preserve">Over</t>
   </si>
   <si>
-    <t xml:space="preserve">App</t>
+    <t xml:space="preserve">Get_the_app</t>
   </si>
   <si>
     <t xml:space="preserve">Get the app</t>
@@ -3059,10 +3050,10 @@
     <t xml:space="preserve">AvailableFor</t>
   </si>
   <si>
-    <t xml:space="preserve">The app is currently only available for Windows 10 and Android. If you'd like this app to be available for iPhone too, let it know via the 'Development' section!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De app is op dit moment alleen verkrijgbaar voor Windows 10 en Android. Als je deze app ook voor iPhone zou willen hebben, laat het weten via de 'Ontwikkeling' sectie!</t>
+    <t xml:space="preserve">The app is available for Windows 10 and Android. If you'd like this app to be available for iPhone too, let it know via the 'Development' section!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De app is verkrijgbaar voor Windows 10 en Android. Als je deze app ook voor iPhone zou willen hebben, laat het weten via de 'Ontwikkeling' sectie!</t>
   </si>
   <si>
     <t xml:space="preserve">Coming_soon_</t>
@@ -3080,24 +3071,91 @@
     <t xml:space="preserve">Ontwikkeling</t>
   </si>
   <si>
-    <t xml:space="preserve">Development_Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn8 your way is still in development. If your would like to contribute, for example by translating the app to your language, please send a message to learn8yourway@gmail.com.
-Feedback and feature requests are welcome too!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn8 your way is nog in ontwikkeling. Als je een bijdrage zou willen leveren, bijvoorbeeld door de app te vertalen naar jouw taal, laat het weten via learn8yourway@gmail.com.
-Feedback en ideeën voor nieuwe functies zijn ook welkom!</t>
+    <t xml:space="preserve">Development_Introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn8 your way is still in development. There are several ways you can help!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn8 your way is in ontwikkeling. Als je wil meehelpen, dan kan dat!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step1__Download_currently_available_translations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Download currently available translations. Choose one of the files:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stap 1: Download de vertalingen die op dit moment beschikbaar zijn. Kies een van de bestanden:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LanguageList_PageTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of language codes for translators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lijst met taalcodes voor vertalers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step2__Look_up_your_language_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 2: Look up your language code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stap 2: Zoek jouw taalcode op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please_send_an_e-mail_to_X_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please send an e-mail to {0}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuur een e-mail naar {0}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request_a_new_feature__report_a_bug_or_give_other_feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request a new feature, report a bug or give other feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stel een uitbreiding voor (een "feature request"), meld een fout of geef andere feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step3__Send_the_updated_file_to_X_or_upload_it_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 3: Send the file with your modifications and/or additions to {0} or upload it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stap 3: Verstuur het bestand met jouw aanpassingen en/of toevoegingen naar {0} of upload het.</t>
   </si>
   <si>
     <t xml:space="preserve">Share_items_that_you_have_created_or_download_items_that_others_have_shared_</t>
   </si>
   <si>
-    <t xml:space="preserve">Share items that you have created or download items that others have shared.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deel items die jij hebt gemaakt of download items die anderen hebben gedeeld.</t>
+    <t xml:space="preserve">Share Learn8 items that you have created or download items that others have shared.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deel Learn8 items die jij hebt gemaakt of download items die anderen hebben gedeeld.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translate_the_app_to_another_language_or_correct_language_mistakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translate the app to your language or correct language mistakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertaal de app naar je eigen taal of corrigeer taalfouten</t>
   </si>
 </sst>
 </file>
@@ -3201,7 +3259,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I328"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
@@ -7757,7 +7815,7 @@
         <v>757</v>
       </c>
       <c r="I262" s="0" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7768,10 +7826,10 @@
         <v>642</v>
       </c>
       <c r="C263" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E263" s="0" t="s">
         <v>759</v>
-      </c>
-      <c r="E263" s="0" t="s">
-        <v>760</v>
       </c>
       <c r="I263" s="0" t="s">
         <v>760</v>
@@ -7850,16 +7908,16 @@
         <v>8</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>642</v>
+        <v>773</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="I268" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7867,7 +7925,7 @@
         <v>8</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>777</v>
@@ -7884,7 +7942,7 @@
         <v>8</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>780</v>
@@ -7901,7 +7959,7 @@
         <v>8</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>783</v>
@@ -7918,7 +7976,7 @@
         <v>8</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>786</v>
@@ -7935,7 +7993,7 @@
         <v>8</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>789</v>
@@ -7952,7 +8010,7 @@
         <v>8</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>792</v>
@@ -7969,7 +8027,7 @@
         <v>8</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>795</v>
@@ -7986,7 +8044,7 @@
         <v>8</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>798</v>
@@ -8003,7 +8061,7 @@
         <v>8</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>801</v>
@@ -8020,7 +8078,7 @@
         <v>8</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>804</v>
@@ -8037,7 +8095,7 @@
         <v>8</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>807</v>
@@ -8054,7 +8112,7 @@
         <v>8</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>810</v>
@@ -8071,7 +8129,7 @@
         <v>8</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>813</v>
@@ -8088,7 +8146,7 @@
         <v>8</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>816</v>
@@ -8105,7 +8163,7 @@
         <v>8</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>819</v>
@@ -8122,7 +8180,7 @@
         <v>8</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>822</v>
@@ -8139,7 +8197,7 @@
         <v>8</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>825</v>
@@ -8156,7 +8214,7 @@
         <v>8</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>828</v>
@@ -8173,7 +8231,7 @@
         <v>8</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>831</v>
@@ -8190,7 +8248,7 @@
         <v>8</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>834</v>
@@ -8207,7 +8265,7 @@
         <v>8</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>837</v>
@@ -8224,7 +8282,7 @@
         <v>8</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>840</v>
@@ -8241,16 +8299,16 @@
         <v>8</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>776</v>
+        <v>843</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="I291" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8258,7 +8316,7 @@
         <v>8</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>847</v>
@@ -8275,16 +8333,16 @@
         <v>8</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>850</v>
       </c>
       <c r="E293" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="I293" s="0" t="s">
         <v>851</v>
-      </c>
-      <c r="I293" s="0" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8292,10 +8350,10 @@
         <v>8</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E294" s="0" t="s">
         <v>853</v>
@@ -8309,7 +8367,7 @@
         <v>8</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>855</v>
@@ -8326,7 +8384,7 @@
         <v>8</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>858</v>
@@ -8343,7 +8401,7 @@
         <v>8</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>861</v>
@@ -8360,7 +8418,7 @@
         <v>8</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>864</v>
@@ -8377,7 +8435,7 @@
         <v>8</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>867</v>
@@ -8394,7 +8452,7 @@
         <v>8</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>870</v>
@@ -8411,7 +8469,7 @@
         <v>8</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>873</v>
@@ -8428,7 +8486,7 @@
         <v>8</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>876</v>
@@ -8440,37 +8498,37 @@
         <v>878</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="E303" s="0" t="s">
+      <c r="E303" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="I303" s="0" t="s">
+      <c r="I303" s="2" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="E304" s="2" t="s">
+      <c r="E304" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="I304" s="2" t="s">
+      <c r="I304" s="0" t="s">
         <v>884</v>
       </c>
     </row>
@@ -8479,7 +8537,7 @@
         <v>8</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>885</v>
@@ -8496,7 +8554,7 @@
         <v>8</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>888</v>
@@ -8505,7 +8563,7 @@
         <v>889</v>
       </c>
       <c r="I306" s="0" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8513,16 +8571,16 @@
         <v>8</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C307" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E307" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="E307" s="0" t="s">
+      <c r="I307" s="0" t="s">
         <v>892</v>
-      </c>
-      <c r="I307" s="0" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8530,7 +8588,7 @@
         <v>8</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>893</v>
@@ -8547,7 +8605,7 @@
         <v>8</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>896</v>
@@ -8564,7 +8622,7 @@
         <v>8</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>899</v>
@@ -8581,7 +8639,7 @@
         <v>8</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>902</v>
@@ -8598,7 +8656,7 @@
         <v>8</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>905</v>
@@ -8615,7 +8673,7 @@
         <v>8</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>908</v>
@@ -8632,7 +8690,7 @@
         <v>8</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>911</v>
@@ -8649,7 +8707,7 @@
         <v>8</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>914</v>
@@ -8666,7 +8724,7 @@
         <v>8</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>917</v>
@@ -8683,7 +8741,7 @@
         <v>8</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>920</v>
@@ -8700,7 +8758,7 @@
         <v>8</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>923</v>
@@ -8717,7 +8775,7 @@
         <v>8</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>926</v>
@@ -8734,7 +8792,7 @@
         <v>8</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>929</v>
@@ -8748,30 +8806,30 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>8</v>
+        <v>932</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>846</v>
+        <v>933</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="I321" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>937</v>
       </c>
       <c r="E322" s="0" t="s">
         <v>937</v>
@@ -8782,10 +8840,10 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>939</v>
@@ -8799,10 +8857,10 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>942</v>
@@ -8816,30 +8874,30 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>945</v>
       </c>
       <c r="E325" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="I325" s="0" t="s">
         <v>946</v>
-      </c>
-      <c r="I325" s="0" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E326" s="0" t="s">
         <v>948</v>
@@ -8848,38 +8906,174 @@
         <v>949</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="E327" s="2" t="s">
+      <c r="E327" s="0" t="s">
         <v>951</v>
       </c>
-      <c r="I327" s="2" t="s">
+      <c r="I327" s="0" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C328" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E328" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I328" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="E328" s="0" t="s">
+      <c r="E329" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="I328" s="0" t="s">
+      <c r="I329" s="0" t="s">
         <v>955</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="E330" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="I330" s="0" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="E331" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="I331" s="0" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E332" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="I332" s="0" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="E333" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="I333" s="0" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E334" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="I334" s="0" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="E335" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="I335" s="0" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E336" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="I336" s="0" t="s">
+        <v>975</v>
       </c>
     </row>
   </sheetData>

--- a/docs/invariant/translations.xlsx
+++ b/docs/invariant/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="982">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -3113,15 +3113,6 @@
     <t xml:space="preserve">Stap 2: Zoek jouw taalcode op</t>
   </si>
   <si>
-    <t xml:space="preserve">Please_send_an_e-mail_to_X_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please send an e-mail to {0}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuur een e-mail naar {0}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Request_a_new_feature__report_a_bug_or_give_other_feedback</t>
   </si>
   <si>
@@ -3131,15 +3122,6 @@
     <t xml:space="preserve">Stel een uitbreiding voor (een "feature request"), meld een fout of geef andere feedback</t>
   </si>
   <si>
-    <t xml:space="preserve">Step3__Send_the_updated_file_to_X_or_upload_it_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 3: Send the file with your modifications and/or additions to {0} or upload it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stap 3: Verstuur het bestand met jouw aanpassingen en/of toevoegingen naar {0} of upload het.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Share_items_that_you_have_created_or_download_items_that_others_have_shared_</t>
   </si>
   <si>
@@ -3156,6 +3138,42 @@
   </si>
   <si>
     <t xml:space="preserve">Vertaal de app naar je eigen taal of corrigeer taalfouten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step3__Send_the_updated_file_to_X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 3: Send the file with your modifications and/or additions to {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stap 3: Verstuur het bestand met jouw aanpassingen en/of toevoegingen naar {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact_form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contactformulier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use_the_contact_form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use the contact form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gebruik het contactformulier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send_an_e-mail_to_X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send an e-mail to {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuur een e-mail naar {0}</t>
   </si>
 </sst>
 </file>
@@ -3170,6 +3188,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3259,7 +3278,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I336"/>
+  <dimension ref="A1:I338"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
@@ -9076,6 +9095,40 @@
         <v>975</v>
       </c>
     </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="E337" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="I337" s="0" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E338" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="I338" s="0" t="s">
+        <v>981</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/docs/invariant/translations.xlsx
+++ b/docs/invariant/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="976">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -3113,6 +3113,15 @@
     <t xml:space="preserve">Stap 2: Zoek jouw taalcode op</t>
   </si>
   <si>
+    <t xml:space="preserve">Please_send_an_e-mail_to_X_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please send an e-mail to {0}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuur een e-mail naar {0}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Request_a_new_feature__report_a_bug_or_give_other_feedback</t>
   </si>
   <si>
@@ -3122,6 +3131,15 @@
     <t xml:space="preserve">Stel een uitbreiding voor (een "feature request"), meld een fout of geef andere feedback</t>
   </si>
   <si>
+    <t xml:space="preserve">Step3__Send_the_updated_file_to_X_or_upload_it_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 3: Send the file with your modifications and/or additions to {0} or upload it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stap 3: Verstuur het bestand met jouw aanpassingen en/of toevoegingen naar {0} of upload het.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Share_items_that_you_have_created_or_download_items_that_others_have_shared_</t>
   </si>
   <si>
@@ -3138,42 +3156,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vertaal de app naar je eigen taal of corrigeer taalfouten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step3__Send_the_updated_file_to_X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 3: Send the file with your modifications and/or additions to {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stap 3: Verstuur het bestand met jouw aanpassingen en/of toevoegingen naar {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact_form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contactformulier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use_the_contact_form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use the contact form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gebruik het contactformulier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send_an_e-mail_to_X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send an e-mail to {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuur een e-mail naar {0}</t>
   </si>
 </sst>
 </file>
@@ -3188,7 +3170,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3278,7 +3259,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I338"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
@@ -9095,40 +9076,6 @@
         <v>975</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="E337" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="I337" s="0" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="E338" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="I338" s="0" t="s">
-        <v>981</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/docs/invariant/translations.xlsx
+++ b/docs/invariant/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="985">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -3113,13 +3113,13 @@
     <t xml:space="preserve">Stap 2: Zoek jouw taalcode op</t>
   </si>
   <si>
-    <t xml:space="preserve">Please_send_an_e-mail_to_X_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please send an e-mail to {0}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuur een e-mail naar {0}.</t>
+    <t xml:space="preserve">Send_an_e-mail_to_X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send an e-mail to {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuur een e-mail naar {0}</t>
   </si>
   <si>
     <t xml:space="preserve">Request_a_new_feature__report_a_bug_or_give_other_feedback</t>
@@ -3131,13 +3131,13 @@
     <t xml:space="preserve">Stel een uitbreiding voor (een "feature request"), meld een fout of geef andere feedback</t>
   </si>
   <si>
-    <t xml:space="preserve">Step3__Send_the_updated_file_to_X_or_upload_it_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 3: Send the file with your modifications and/or additions to {0} or upload it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stap 3: Verstuur het bestand met jouw aanpassingen en/of toevoegingen naar {0} of upload het.</t>
+    <t xml:space="preserve">Step3__Send_the_updated_file_to_X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 3: Send the file with your modifications and/or additions to {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stap 3: Verstuur het bestand met jouw aanpassingen en/of toevoegingen naar {0}</t>
   </si>
   <si>
     <t xml:space="preserve">Share_items_that_you_have_created_or_download_items_that_others_have_shared_</t>
@@ -3156,6 +3156,33 @@
   </si>
   <si>
     <t xml:space="preserve">Vertaal de app naar je eigen taal of corrigeer taalfouten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use_the_contact_form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use the contact form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gebruik het contactformulier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact_form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contactformulier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verversen</t>
   </si>
 </sst>
 </file>
@@ -3170,6 +3197,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3259,7 +3287,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I336"/>
+  <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
@@ -9076,6 +9104,71 @@
         <v>975</v>
       </c>
     </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="E337" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="I337" s="0" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E338" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="I338" s="0" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E339" s="0" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E340" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="I340" s="0" t="s">
+        <v>984</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/docs/invariant/translations.xlsx
+++ b/docs/invariant/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1001">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -478,6 +478,18 @@
     <t xml:space="preserve">Doorgaan</t>
   </si>
   <si>
+    <t xml:space="preserve">Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voorbeeld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over</t>
+  </si>
+  <si>
     <t xml:space="preserve">_LanguageResources\Installation</t>
   </si>
   <si>
@@ -809,49 +821,17 @@
     <t xml:space="preserve">Meerdere hints dienen gescheiden te worden door "[L8]&gt;".</t>
   </si>
   <si>
-    <t xml:space="preserve">Info_JavaScript</t>
+    <t xml:space="preserve">Info_JavaScript_part1</t>
   </si>
   <si>
     <t xml:space="preserve">Use JavaScript to create dynamic items. The last line of the script should have the following structure:
 [['replace', by], ['and this', bySomethingElse]]
-It is used to replace text in the Memory task, Question, Hints, Correct answers and/or Feedback.
-===== Example
-== Question
-begin latex
-$$ x_1 \times x_2 $$
-end latex
-== Correct answers
-y_1
-L8_KeyBoard = Numeric
-== JavaScript replacements
-function getRandomInt(min, max) {
-  return Math.floor(Math.random() * (max - min)) + min;
-}
-var x_1 = getRandomInt(2,19);
-var x_2 = getRandomInt(11,99);
-var y_1 = x_1 * x_2;
-[['x_1', x_1], ['x_2', x_2], ['y_1', y_1]]</t>
+It is used to replace text in the Memory task, Question, Hints, Correct answers and/or Feedback.</t>
   </si>
   <si>
     <t xml:space="preserve">Gebruik JavaScript om dynamische items te maken. De laatste regel van het script dient deze structuur te hebben:
 [['vervang', door], ['en dit', doorIetsAnders]]
-Het wordt gebruikt om stukjes text te vervangen in de Geheugentaak, Vraag, Hints, Correcte antwoorden en/of Feedback.
-===== Voorbeeld
-== Vraag
-begin latex
-$$ x_1 \times x_2 $$
-end latex
-== Correcte antwoorden
-y_1
-L8_KeyBoard = Numeric
-== JavaScript vervangingen
-function getRandomInt(min, max) {
-  return Math.floor(Math.random() * (max - min)) + min;
-}
-var x_1 = getRandomInt(2,19);
-var x_2 = getRandomInt(11,99);
-var y_1 = x_1 * x_2;
-[['x_1', x_1], ['x_2', x_2], ['y_1', y_1]]</t>
+Het wordt gebruikt om stukjes text te vervangen in de Geheugentaak, Vraag, Hints, Correcte antwoorden en/of Feedback.</t>
   </si>
   <si>
     <t xml:space="preserve">Info_Question</t>
@@ -919,10 +899,10 @@
     <t xml:space="preserve">Info_Import_downloaded_sharepackage</t>
   </si>
   <si>
-    <t xml:space="preserve">Other people have shared Learn8 items and you might want to import one of those existing packages. If clicking on a downloaded Learn8 file anywhere on your device does not start the import, then you can start importing it here.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andere mensen hebben Learn8 items gedeeld en die wil je misschien importeren. Als het klikken op je zo'n gedeeld Learn8-bestand (dat je al hebt gedownload) niet het importeren start, dan kun je die hier starten met importeren.</t>
+    <t xml:space="preserve">Other people have shared Learn8 items as a ".learn8" file and you might want to import one of those files. If clicking on a downloaded Learn8 file anywhere on your device does not start the import, then you can start importing it here. (Note: if you dislike the imported package, you can always remove it easily.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andere mensen hebben Learn8-items gedeeld via een ".learn8" bestand en die wil je misschien importeren. Klikken op zo'n bestand vanaf een willekeurige locatie op dit apparaat zou de app moeten openen en het importeren moeten starten. Je kunt zo'n gedownload bestand echter ook hier importeren. (Opmerking: als het pakketje niet bevalt, dan kan je het ook makkelijk weer verwijderen.)</t>
   </si>
   <si>
     <t xml:space="preserve">Add_a_tag_to</t>
@@ -1226,6 +1206,15 @@
   </si>
   <si>
     <t xml:space="preserve">Welk correct antwoord krijgt dit item?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create_a_new_item_via_a_copy_of_this_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a new item via a copy of this item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maak een nieuw item via een kopie van dit item</t>
   </si>
   <si>
     <t xml:space="preserve">_LanguageResources\LaTeXCheatSheet</t>
@@ -2547,6 +2536,18 @@
     <t xml:space="preserve">Dropbox token verversen</t>
   </si>
   <si>
+    <t xml:space="preserve">CurrentCultureCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en-US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en-GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nl-NL</t>
+  </si>
+  <si>
     <t xml:space="preserve">_LanguageResources\Tags</t>
   </si>
   <si>
@@ -2909,13 +2910,13 @@
     <t xml:space="preserve">Van naam</t>
   </si>
   <si>
-    <t xml:space="preserve">To_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naar de naam</t>
+    <t xml:space="preserve">New_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nieuwe naam</t>
   </si>
   <si>
     <t xml:space="preserve">InfoChangeUsernameOnMultipleDevices</t>
@@ -3026,18 +3027,42 @@
     <t xml:space="preserve">Gebruikersnaam gewijzigd naar '{0}'.</t>
   </si>
   <si>
+    <t xml:space="preserve">_LanguageResources\WebsiteReferencesFromApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development_Introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn8 your way is still in development. There are several ways you can help!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn8 your way is steeds in ontwikkeling. Als je wil meehelpen, dan kan dat!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share_items_that_you_have_created_or_download_items_that_others_have_shared_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share Learn8 items that you have created or download items that others have shared.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deel Learn8 items die jij hebt gemaakt of download items die anderen hebben gedeeld.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit_Xwebsite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezoek {0}</t>
+  </si>
+  <si>
     <t xml:space="preserve">learn8yourway.com</t>
   </si>
   <si>
     <t xml:space="preserve">_lang\Website</t>
   </si>
   <si>
-    <t xml:space="preserve">About</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over</t>
-  </si>
-  <si>
     <t xml:space="preserve">Get_the_app</t>
   </si>
   <si>
@@ -3071,15 +3096,6 @@
     <t xml:space="preserve">Ontwikkeling</t>
   </si>
   <si>
-    <t xml:space="preserve">Development_Introduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn8 your way is still in development. There are several ways you can help!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn8 your way is in ontwikkeling. Als je wil meehelpen, dan kan dat!</t>
-  </si>
-  <si>
     <t xml:space="preserve">Step1__Download_currently_available_translations</t>
   </si>
   <si>
@@ -3140,15 +3156,6 @@
     <t xml:space="preserve">Stap 3: Verstuur het bestand met jouw aanpassingen en/of toevoegingen naar {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Share_items_that_you_have_created_or_download_items_that_others_have_shared_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share Learn8 items that you have created or download items that others have shared.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deel Learn8 items die jij hebt gemaakt of download items die anderen hebben gedeeld.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Translate_the_app_to_another_language_or_correct_language_mistakes</t>
   </si>
   <si>
@@ -3183,6 +3190,15 @@
   </si>
   <si>
     <t xml:space="preserve">Verversen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shared_with_you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shared with you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gedeeld met jou</t>
   </si>
 </sst>
 </file>
@@ -3287,7 +3303,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I340"/>
+  <dimension ref="A1:I345"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
@@ -4159,16 +4175,16 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="E49" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="I49" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,33 +4192,33 @@
         <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I50" s="0" t="s">
+      <c r="E51" s="0" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="I51" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4210,33 +4226,33 @@
         <v>8</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="I52" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="I52" s="0" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="I53" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4244,16 +4260,16 @@
         <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="I54" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4261,16 +4277,16 @@
         <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="I55" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4278,16 +4294,16 @@
         <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I56" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4295,16 +4311,16 @@
         <v>8</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="I57" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4312,16 +4328,16 @@
         <v>8</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="I58" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4329,16 +4345,16 @@
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4346,16 +4362,16 @@
         <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4363,16 +4379,16 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4380,10 +4396,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>175</v>
@@ -4397,16 +4413,16 @@
         <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4414,16 +4430,16 @@
         <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="I64" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,16 +4447,16 @@
         <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="I65" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,16 +4464,16 @@
         <v>8</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="I66" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4465,16 +4481,16 @@
         <v>8</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="I67" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4482,16 +4498,16 @@
         <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="I68" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4499,16 +4515,16 @@
         <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="I69" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4516,16 +4532,16 @@
         <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="I70" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4533,16 +4549,16 @@
         <v>8</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="I71" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,16 +4566,16 @@
         <v>8</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="I72" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4567,33 +4583,33 @@
         <v>8</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="I73" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="E73" s="0" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I73" s="0" t="s">
+      <c r="E74" s="0" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="I74" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4601,204 +4617,204 @@
         <v>8</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="I75" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E75" s="0" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="E76" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="I76" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I75" s="0" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="E77" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="F77" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="I76" s="0" t="s">
+      <c r="G77" s="0" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="I77" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="E77" s="2" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="E78" s="0" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="I78" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E78" s="2" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I78" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" s="1" t="s">
+    <row r="80" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="G80" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E80" s="0" t="s">
+    </row>
+    <row r="81" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I80" s="0" t="s">
+      <c r="E81" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="I81" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E81" s="2" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="E82" s="0" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="I82" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E82" s="2" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="E83" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I82" s="2" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="E84" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F84" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="I84" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E84" s="0" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I84" s="0" t="s">
+      <c r="E85" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="I85" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4806,16 +4822,16 @@
         <v>8</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="I86" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4823,16 +4839,16 @@
         <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="I87" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4840,16 +4856,16 @@
         <v>8</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="I88" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4857,16 +4873,16 @@
         <v>8</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="I89" s="0" t="s">
         <v>260</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="I89" s="0" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4874,33 +4890,33 @@
         <v>8</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="I90" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E90" s="0" t="s">
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="I90" s="0" t="s">
+      <c r="E91" s="0" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="I91" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4908,33 +4924,33 @@
         <v>8</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="I92" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="E92" s="0" t="s">
+    </row>
+    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="I92" s="0" t="s">
+      <c r="E93" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="I93" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4942,16 +4958,16 @@
         <v>8</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="I94" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4959,7 +4975,7 @@
         <v>8</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>276</v>
@@ -4976,16 +4992,16 @@
         <v>8</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>279</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4993,16 +5009,16 @@
         <v>8</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="I97" s="0" t="s">
         <v>282</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,16 +5026,16 @@
         <v>8</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="I98" s="0" t="s">
         <v>285</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="I98" s="0" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5027,16 +5043,16 @@
         <v>8</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="I99" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="E99" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I99" s="0" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5044,16 +5060,16 @@
         <v>8</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="I100" s="0" t="s">
         <v>291</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="I100" s="0" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5061,16 +5077,16 @@
         <v>8</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="I101" s="0" t="s">
         <v>294</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="I101" s="0" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5078,16 +5094,16 @@
         <v>8</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="I102" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="I102" s="0" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,16 +5111,16 @@
         <v>8</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="I103" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="I103" s="0" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,16 +5128,16 @@
         <v>8</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="I104" s="0" t="s">
         <v>303</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="I104" s="0" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5129,16 +5145,16 @@
         <v>8</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="I105" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5146,16 +5162,16 @@
         <v>8</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="I106" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I106" s="0" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5163,16 +5179,16 @@
         <v>8</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E107" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="I107" s="0" t="s">
         <v>312</v>
-      </c>
-      <c r="I107" s="0" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5180,84 +5196,84 @@
         <v>8</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="I108" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="E108" s="0" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I108" s="0" t="s">
+      <c r="E109" s="0" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="I109" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="E109" s="2" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="E110" s="0" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="I110" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="E110" s="2" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="I111" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E111" s="0" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="I111" s="0" t="s">
+      <c r="E112" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="I112" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="I112" s="0" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5265,16 +5281,16 @@
         <v>8</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I113" s="0" t="s">
         <v>329</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="I113" s="0" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5282,39 +5298,33 @@
         <v>8</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I114" s="0" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="F115" s="0" t="s">
+      <c r="I115" s="0" t="s">
         <v>335</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5322,33 +5332,39 @@
         <v>8</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="F117" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="I116" s="0" t="s">
+      <c r="G117" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="I117" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="I117" s="0" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5356,16 +5372,16 @@
         <v>8</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="I118" s="0" t="s">
         <v>344</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5373,16 +5389,16 @@
         <v>8</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5390,16 +5406,16 @@
         <v>8</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5407,16 +5423,16 @@
         <v>8</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E121" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="I121" s="0" t="s">
         <v>354</v>
-      </c>
-      <c r="I121" s="0" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5424,16 +5440,16 @@
         <v>8</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E122" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="E122" s="0" t="s">
+      <c r="I122" s="0" t="s">
         <v>357</v>
-      </c>
-      <c r="I122" s="0" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5441,16 +5457,16 @@
         <v>8</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="I123" s="0" t="s">
         <v>359</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="I123" s="0" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5458,10 +5474,10 @@
         <v>8</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E124" s="0" t="s">
         <v>361</v>
@@ -5475,16 +5491,16 @@
         <v>8</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>363</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5492,16 +5508,16 @@
         <v>8</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5509,16 +5525,16 @@
         <v>8</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5526,16 +5542,16 @@
         <v>8</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5543,16 +5559,16 @@
         <v>8</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>372</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5560,16 +5576,16 @@
         <v>8</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E130" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="E130" s="0" t="s">
+      <c r="I130" s="0" t="s">
         <v>375</v>
-      </c>
-      <c r="I130" s="0" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5577,16 +5593,16 @@
         <v>8</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="I131" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="E131" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="I131" s="0" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5594,16 +5610,16 @@
         <v>8</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="I132" s="0" t="s">
         <v>380</v>
-      </c>
-      <c r="E132" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="I132" s="0" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5611,10 +5627,10 @@
         <v>8</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>382</v>
@@ -5628,7 +5644,7 @@
         <v>8</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>384</v>
@@ -5645,16 +5661,16 @@
         <v>8</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E135" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="I135" s="0" t="s">
         <v>388</v>
-      </c>
-      <c r="I135" s="0" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5662,16 +5678,16 @@
         <v>8</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="I136" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="E136" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="I136" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,16 +5695,16 @@
         <v>8</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="I137" s="0" t="s">
         <v>393</v>
-      </c>
-      <c r="E137" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="I137" s="0" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,10 +5712,10 @@
         <v>8</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E138" s="0" t="s">
         <v>395</v>
@@ -5713,7 +5729,7 @@
         <v>8</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>397</v>
@@ -5730,16 +5746,16 @@
         <v>8</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>400</v>
       </c>
       <c r="E140" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="I140" s="0" t="s">
         <v>401</v>
-      </c>
-      <c r="I140" s="0" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5747,16 +5763,16 @@
         <v>8</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="I141" s="0" t="s">
         <v>403</v>
-      </c>
-      <c r="E141" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="I141" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5764,16 +5780,16 @@
         <v>8</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="I142" s="0" t="s">
         <v>406</v>
-      </c>
-      <c r="E142" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="I142" s="0" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5781,16 +5797,16 @@
         <v>8</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E143" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="I143" s="0" t="s">
         <v>409</v>
-      </c>
-      <c r="I143" s="0" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5798,16 +5814,16 @@
         <v>8</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E144" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="E144" s="0" t="s">
+      <c r="I144" s="0" t="s">
         <v>412</v>
-      </c>
-      <c r="I144" s="0" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5815,16 +5831,16 @@
         <v>8</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="I145" s="0" t="s">
         <v>414</v>
-      </c>
-      <c r="E145" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="I145" s="0" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5832,13 +5848,13 @@
         <v>8</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I146" s="0" t="s">
         <v>417</v>
@@ -5849,16 +5865,16 @@
         <v>8</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>418</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5866,16 +5882,16 @@
         <v>8</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5883,13 +5899,13 @@
         <v>8</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I149" s="0" t="s">
         <v>424</v>
@@ -5900,7 +5916,7 @@
         <v>8</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>425</v>
@@ -5917,16 +5933,16 @@
         <v>8</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>426</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5934,16 +5950,16 @@
         <v>8</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5951,13 +5967,13 @@
         <v>8</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I153" s="0" t="s">
         <v>432</v>
@@ -5968,16 +5984,16 @@
         <v>8</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>433</v>
       </c>
       <c r="E154" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="I154" s="0" t="s">
         <v>434</v>
-      </c>
-      <c r="I154" s="0" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5985,16 +6001,16 @@
         <v>8</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="I155" s="0" t="s">
         <v>436</v>
-      </c>
-      <c r="E155" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="I155" s="0" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6002,16 +6018,16 @@
         <v>8</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="I156" s="0" t="s">
         <v>439</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E156" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="I156" s="0" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6019,16 +6035,16 @@
         <v>8</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6036,16 +6052,16 @@
         <v>8</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>45</v>
+        <v>444</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>45</v>
+        <v>445</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6053,7 +6069,7 @@
         <v>8</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>447</v>
@@ -6062,7 +6078,7 @@
         <v>448</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6070,16 +6086,16 @@
         <v>8</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6087,16 +6103,16 @@
         <v>8</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>453</v>
+        <v>45</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>454</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6104,16 +6120,16 @@
         <v>8</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E162" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="E162" s="0" t="s">
-        <v>456</v>
-      </c>
       <c r="I162" s="0" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6121,16 +6137,16 @@
         <v>8</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="I163" s="0" t="s">
         <v>458</v>
-      </c>
-      <c r="E163" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="I163" s="0" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6138,16 +6154,16 @@
         <v>8</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E164" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="E164" s="0" t="s">
+      <c r="I164" s="0" t="s">
         <v>461</v>
-      </c>
-      <c r="I164" s="0" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6155,10 +6171,10 @@
         <v>8</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E165" s="0" t="s">
         <v>463</v>
@@ -6172,7 +6188,7 @@
         <v>8</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>465</v>
@@ -6181,7 +6197,7 @@
         <v>466</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6189,16 +6205,16 @@
         <v>8</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E167" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="E167" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="I167" s="0" t="s">
-        <v>128</v>
+        <v>469</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6206,10 +6222,10 @@
         <v>8</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E168" s="0" t="s">
         <v>470</v>
@@ -6223,7 +6239,7 @@
         <v>8</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>472</v>
@@ -6240,16 +6256,16 @@
         <v>8</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>475</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>475</v>
+        <v>127</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>475</v>
+        <v>128</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,7 +6273,7 @@
         <v>8</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>476</v>
@@ -6274,7 +6290,7 @@
         <v>8</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>479</v>
@@ -6291,16 +6307,16 @@
         <v>8</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="E173" s="0" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6308,16 +6324,16 @@
         <v>8</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6325,16 +6341,16 @@
         <v>8</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6342,16 +6358,16 @@
         <v>8</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="I176" s="0" t="s">
         <v>492</v>
-      </c>
-      <c r="E176" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="I176" s="0" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6359,16 +6375,16 @@
         <v>8</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C177" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E177" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="E177" s="0" t="s">
+      <c r="I177" s="0" t="s">
         <v>495</v>
-      </c>
-      <c r="I177" s="0" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6376,16 +6392,16 @@
         <v>8</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E178" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="E178" s="0" t="s">
+      <c r="I178" s="0" t="s">
         <v>498</v>
-      </c>
-      <c r="I178" s="0" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6393,13 +6409,13 @@
         <v>8</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I179" s="0" t="s">
         <v>500</v>
@@ -6410,7 +6426,7 @@
         <v>8</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>501</v>
@@ -6427,7 +6443,7 @@
         <v>8</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>504</v>
@@ -6444,16 +6460,16 @@
         <v>8</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="E182" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6461,16 +6477,16 @@
         <v>8</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6478,16 +6494,16 @@
         <v>8</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6495,16 +6511,16 @@
         <v>8</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="I185" s="0" t="s">
         <v>517</v>
-      </c>
-      <c r="E185" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="I185" s="0" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6512,16 +6528,16 @@
         <v>8</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="I186" s="0" t="s">
         <v>520</v>
-      </c>
-      <c r="E186" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="I186" s="0" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6529,16 +6545,16 @@
         <v>8</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C187" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="I187" s="0" t="s">
         <v>523</v>
-      </c>
-      <c r="E187" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="I187" s="0" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6546,16 +6562,16 @@
         <v>8</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C188" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="I188" s="0" t="s">
         <v>526</v>
-      </c>
-      <c r="E188" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="I188" s="0" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,16 +6579,16 @@
         <v>8</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C189" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="I189" s="0" t="s">
         <v>529</v>
-      </c>
-      <c r="E189" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="I189" s="0" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6580,16 +6596,16 @@
         <v>8</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C190" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="I190" s="0" t="s">
         <v>532</v>
-      </c>
-      <c r="E190" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="I190" s="0" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6597,16 +6613,16 @@
         <v>8</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C191" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="I191" s="0" t="s">
         <v>535</v>
-      </c>
-      <c r="E191" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="I191" s="0" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6614,16 +6630,16 @@
         <v>8</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="I192" s="0" t="s">
         <v>538</v>
-      </c>
-      <c r="E192" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="I192" s="0" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6631,16 +6647,16 @@
         <v>8</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="I193" s="0" t="s">
         <v>541</v>
-      </c>
-      <c r="E193" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="I193" s="0" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6648,16 +6664,16 @@
         <v>8</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C194" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="I194" s="0" t="s">
         <v>544</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="I194" s="0" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6665,16 +6681,16 @@
         <v>8</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C195" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="I195" s="0" t="s">
         <v>547</v>
-      </c>
-      <c r="E195" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="I195" s="0" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6682,16 +6698,16 @@
         <v>8</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="I196" s="0" t="s">
         <v>550</v>
-      </c>
-      <c r="E196" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="I196" s="0" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6699,16 +6715,16 @@
         <v>8</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C197" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="I197" s="0" t="s">
         <v>553</v>
-      </c>
-      <c r="E197" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="I197" s="0" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6716,16 +6732,16 @@
         <v>8</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="I198" s="0" t="s">
         <v>556</v>
-      </c>
-      <c r="E198" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="I198" s="0" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6733,33 +6749,33 @@
         <v>8</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C199" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="I199" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="E199" s="0" t="s">
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I199" s="0" t="s">
+      <c r="E200" s="0" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="200" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C200" s="1" t="s">
+      <c r="I200" s="0" t="s">
         <v>562</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="I200" s="2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6767,16 +6783,16 @@
         <v>8</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C201" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="I201" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="E201" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="I201" s="0" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6784,33 +6800,33 @@
         <v>8</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C202" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="I202" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="E202" s="0" t="s">
+    </row>
+    <row r="203" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="I202" s="0" t="s">
+      <c r="E203" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C203" s="1" t="s">
+      <c r="I203" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="E203" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="I203" s="0" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6818,16 +6834,16 @@
         <v>8</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C204" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="I204" s="0" t="s">
         <v>574</v>
-      </c>
-      <c r="E204" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="I204" s="0" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6835,16 +6851,16 @@
         <v>8</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C205" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="I205" s="0" t="s">
         <v>577</v>
-      </c>
-      <c r="E205" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="I205" s="0" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6852,16 +6868,16 @@
         <v>8</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C206" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="I206" s="0" t="s">
         <v>580</v>
-      </c>
-      <c r="E206" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="I206" s="0" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6869,16 +6885,16 @@
         <v>8</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C207" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="I207" s="0" t="s">
         <v>583</v>
-      </c>
-      <c r="E207" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="I207" s="0" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6886,16 +6902,16 @@
         <v>8</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C208" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="I208" s="0" t="s">
         <v>586</v>
-      </c>
-      <c r="E208" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="I208" s="0" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6903,16 +6919,16 @@
         <v>8</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C209" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="I209" s="0" t="s">
         <v>589</v>
-      </c>
-      <c r="E209" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="I209" s="0" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6920,16 +6936,16 @@
         <v>8</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>101</v>
+        <v>590</v>
       </c>
       <c r="E210" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="I210" s="0" t="s">
         <v>592</v>
-      </c>
-      <c r="I210" s="0" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6937,10 +6953,10 @@
         <v>8</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E211" s="0" t="s">
         <v>594</v>
@@ -6954,7 +6970,7 @@
         <v>8</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>596</v>
@@ -6971,16 +6987,16 @@
         <v>8</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C213" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E213" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="E213" s="0" t="s">
+      <c r="I213" s="0" t="s">
         <v>600</v>
-      </c>
-      <c r="I213" s="0" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6988,16 +7004,16 @@
         <v>8</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C214" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="I214" s="0" t="s">
         <v>602</v>
-      </c>
-      <c r="E214" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="I214" s="0" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7005,16 +7021,16 @@
         <v>8</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C215" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="I215" s="0" t="s">
         <v>605</v>
-      </c>
-      <c r="E215" s="0" t="s">
-        <v>606</v>
-      </c>
-      <c r="I215" s="0" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7022,16 +7038,16 @@
         <v>8</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="I216" s="0" t="s">
         <v>608</v>
-      </c>
-      <c r="E216" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="I216" s="0" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7039,33 +7055,33 @@
         <v>8</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C217" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="I217" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="E217" s="0" t="s">
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="I217" s="0" t="s">
+      <c r="E218" s="0" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="218" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C218" s="1" t="s">
+      <c r="I218" s="0" t="s">
         <v>614</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="I218" s="2" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7073,16 +7089,16 @@
         <v>8</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C219" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="I219" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="E219" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="I219" s="0" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7090,33 +7106,33 @@
         <v>8</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C220" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="I220" s="0" t="s">
         <v>620</v>
       </c>
-      <c r="E220" s="0" t="s">
+    </row>
+    <row r="221" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="I220" s="0" t="s">
+      <c r="E221" s="2" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C221" s="1" t="s">
+      <c r="I221" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="E221" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="I221" s="0" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7124,16 +7140,16 @@
         <v>8</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="I222" s="0" t="s">
         <v>626</v>
-      </c>
-      <c r="E222" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="I222" s="0" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7141,16 +7157,16 @@
         <v>8</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C223" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="I223" s="0" t="s">
         <v>629</v>
-      </c>
-      <c r="E223" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="I223" s="0" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,16 +7174,16 @@
         <v>8</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C224" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="I224" s="0" t="s">
         <v>632</v>
-      </c>
-      <c r="E224" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="I224" s="0" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,16 +7191,16 @@
         <v>8</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C225" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="I225" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="E225" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="I225" s="0" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7192,19 +7208,16 @@
         <v>8</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C226" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E226" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="I226" s="0" t="s">
         <v>638</v>
-      </c>
-      <c r="E226" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="G226" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="I226" s="0" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7212,16 +7225,16 @@
         <v>8</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>642</v>
+        <v>514</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7229,16 +7242,16 @@
         <v>8</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="E228" s="0" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7246,16 +7259,19 @@
         <v>8</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>642</v>
+        <v>514</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>650</v>
+        <v>646</v>
+      </c>
+      <c r="G229" s="0" t="s">
+        <v>647</v>
       </c>
       <c r="I229" s="0" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7263,16 +7279,16 @@
         <v>8</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="I230" s="0" t="s">
         <v>652</v>
-      </c>
-      <c r="E230" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="I230" s="0" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7280,16 +7296,16 @@
         <v>8</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C231" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="I231" s="0" t="s">
         <v>655</v>
-      </c>
-      <c r="E231" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="I231" s="0" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7297,22 +7313,16 @@
         <v>8</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="I232" s="0" t="s">
         <v>658</v>
-      </c>
-      <c r="E232" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="F232" s="0" t="s">
-        <v>660</v>
-      </c>
-      <c r="G232" s="0" t="s">
-        <v>661</v>
-      </c>
-      <c r="I232" s="0" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7320,22 +7330,16 @@
         <v>8</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="F233" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="G233" s="0" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I233" s="0" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7343,16 +7347,16 @@
         <v>8</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7360,22 +7364,22 @@
         <v>8</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7383,16 +7387,22 @@
         <v>8</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>676</v>
+        <v>670</v>
+      </c>
+      <c r="F236" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="G236" s="0" t="s">
+        <v>672</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7400,16 +7410,16 @@
         <v>8</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7417,22 +7427,22 @@
         <v>8</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="F238" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="G238" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="I238" s="0" t="s">
         <v>681</v>
-      </c>
-      <c r="E238" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="F238" s="0" t="s">
-        <v>683</v>
-      </c>
-      <c r="G238" s="0" t="s">
-        <v>684</v>
-      </c>
-      <c r="I238" s="0" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7440,19 +7450,16 @@
         <v>8</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="G239" s="0" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7460,33 +7467,39 @@
         <v>8</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C240" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="I240" s="0" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="F241" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="E240" s="0" t="s">
+      <c r="G241" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="I240" s="0" t="s">
+      <c r="I241" s="0" t="s">
         <v>692</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="I241" s="2" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7494,16 +7507,19 @@
         <v>8</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C242" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="G242" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="I242" s="0" t="s">
         <v>696</v>
-      </c>
-      <c r="E242" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="I242" s="0" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7511,50 +7527,50 @@
         <v>8</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C243" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="I243" s="0" t="s">
         <v>699</v>
       </c>
-      <c r="E243" s="0" t="s">
+    </row>
+    <row r="244" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="I243" s="0" t="s">
+      <c r="E244" s="2" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="244" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C244" s="1" t="s">
+      <c r="I244" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="E244" s="2" t="s">
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="I244" s="2" t="s">
+      <c r="E245" s="0" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="245" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C245" s="1" t="s">
+      <c r="I245" s="0" t="s">
         <v>705</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="I245" s="2" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7562,50 +7578,50 @@
         <v>8</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C246" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="I246" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="E246" s="0" t="s">
+    </row>
+    <row r="247" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="I246" s="0" t="s">
+      <c r="E247" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C247" s="1" t="s">
+      <c r="I247" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="E247" s="0" t="s">
+    </row>
+    <row r="248" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="I247" s="0" t="s">
+      <c r="E248" s="2" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C248" s="1" t="s">
+      <c r="I248" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="E248" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="I248" s="0" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7613,16 +7629,16 @@
         <v>8</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C249" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="I249" s="0" t="s">
         <v>717</v>
-      </c>
-      <c r="E249" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="I249" s="0" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7630,16 +7646,16 @@
         <v>8</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C250" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="I250" s="0" t="s">
         <v>720</v>
-      </c>
-      <c r="E250" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="I250" s="0" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7647,16 +7663,16 @@
         <v>8</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C251" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="I251" s="0" t="s">
         <v>723</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="I251" s="0" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7664,16 +7680,16 @@
         <v>8</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C252" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="I252" s="0" t="s">
         <v>726</v>
-      </c>
-      <c r="E252" s="0" t="s">
-        <v>727</v>
-      </c>
-      <c r="I252" s="0" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7681,16 +7697,16 @@
         <v>8</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C253" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="I253" s="0" t="s">
         <v>729</v>
-      </c>
-      <c r="E253" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="I253" s="0" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7698,16 +7714,16 @@
         <v>8</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C254" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E254" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="I254" s="0" t="s">
         <v>732</v>
-      </c>
-      <c r="E254" s="0" t="s">
-        <v>733</v>
-      </c>
-      <c r="I254" s="0" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7715,16 +7731,16 @@
         <v>8</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C255" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E255" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="I255" s="0" t="s">
         <v>735</v>
-      </c>
-      <c r="E255" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="I255" s="0" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7732,16 +7748,16 @@
         <v>8</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C256" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E256" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="I256" s="0" t="s">
         <v>738</v>
-      </c>
-      <c r="E256" s="0" t="s">
-        <v>739</v>
-      </c>
-      <c r="I256" s="0" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7749,16 +7765,16 @@
         <v>8</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C257" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="I257" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="E257" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="I257" s="0" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7766,16 +7782,16 @@
         <v>8</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C258" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E258" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="I258" s="0" t="s">
         <v>744</v>
-      </c>
-      <c r="E258" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="I258" s="0" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7783,16 +7799,16 @@
         <v>8</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C259" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E259" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="I259" s="0" t="s">
         <v>747</v>
-      </c>
-      <c r="E259" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="I259" s="0" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7800,16 +7816,16 @@
         <v>8</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C260" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="I260" s="0" t="s">
         <v>750</v>
-      </c>
-      <c r="E260" s="0" t="s">
-        <v>751</v>
-      </c>
-      <c r="I260" s="0" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7817,16 +7833,16 @@
         <v>8</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C261" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E261" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="I261" s="0" t="s">
         <v>753</v>
-      </c>
-      <c r="E261" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="I261" s="0" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7834,16 +7850,16 @@
         <v>8</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C262" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="I262" s="0" t="s">
         <v>756</v>
-      </c>
-      <c r="E262" s="0" t="s">
-        <v>757</v>
-      </c>
-      <c r="I262" s="0" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7851,16 +7867,16 @@
         <v>8</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C263" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E263" s="0" t="s">
         <v>758</v>
       </c>
-      <c r="E263" s="0" t="s">
+      <c r="I263" s="0" t="s">
         <v>759</v>
-      </c>
-      <c r="I263" s="0" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7868,16 +7884,16 @@
         <v>8</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C264" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E264" s="0" t="s">
         <v>761</v>
       </c>
-      <c r="E264" s="0" t="s">
+      <c r="I264" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="I264" s="0" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7885,16 +7901,16 @@
         <v>8</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C265" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E265" s="0" t="s">
         <v>764</v>
       </c>
-      <c r="E265" s="0" t="s">
-        <v>765</v>
-      </c>
       <c r="I265" s="0" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7902,16 +7918,16 @@
         <v>8</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C266" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E266" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="I266" s="0" t="s">
         <v>767</v>
-      </c>
-      <c r="E266" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="I266" s="0" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7919,16 +7935,16 @@
         <v>8</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C267" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E267" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="I267" s="0" t="s">
         <v>770</v>
-      </c>
-      <c r="E267" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="I267" s="0" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7936,16 +7952,16 @@
         <v>8</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E268" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="I268" s="0" t="s">
         <v>773</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="E268" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="I268" s="0" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7953,16 +7969,16 @@
         <v>8</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>773</v>
+        <v>649</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="I269" s="0" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7970,16 +7986,16 @@
         <v>8</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>773</v>
+        <v>649</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="I270" s="0" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7987,16 +8003,16 @@
         <v>8</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>773</v>
+        <v>649</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>783</v>
+        <v>153</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>784</v>
+        <v>153</v>
       </c>
       <c r="I271" s="0" t="s">
-        <v>785</v>
+        <v>154</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8004,16 +8020,19 @@
         <v>8</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>773</v>
+        <v>649</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>787</v>
+        <v>781</v>
+      </c>
+      <c r="G272" s="0" t="s">
+        <v>782</v>
       </c>
       <c r="I272" s="0" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8021,16 +8040,16 @@
         <v>8</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="I273" s="0" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8038,16 +8057,16 @@
         <v>8</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="I274" s="0" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8055,16 +8074,16 @@
         <v>8</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="I275" s="0" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8072,16 +8091,16 @@
         <v>8</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="I276" s="0" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8089,16 +8108,16 @@
         <v>8</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I277" s="0" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8106,16 +8125,16 @@
         <v>8</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="I278" s="0" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8123,16 +8142,16 @@
         <v>8</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I279" s="0" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8140,16 +8159,16 @@
         <v>8</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I280" s="0" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8157,16 +8176,16 @@
         <v>8</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="I281" s="0" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8174,16 +8193,16 @@
         <v>8</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I282" s="0" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8191,16 +8210,16 @@
         <v>8</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="I283" s="0" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8208,16 +8227,16 @@
         <v>8</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="I284" s="0" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8225,16 +8244,16 @@
         <v>8</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="I285" s="0" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8242,16 +8261,16 @@
         <v>8</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="E286" s="0" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="I286" s="0" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8259,16 +8278,16 @@
         <v>8</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="I287" s="0" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8276,16 +8295,16 @@
         <v>8</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="I288" s="0" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8293,16 +8312,16 @@
         <v>8</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I289" s="0" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8310,16 +8329,16 @@
         <v>8</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="I290" s="0" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8327,16 +8346,16 @@
         <v>8</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>843</v>
+        <v>784</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="I291" s="0" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8344,16 +8363,16 @@
         <v>8</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E292" s="0" t="s">
         <v>843</v>
       </c>
-      <c r="C292" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="E292" s="0" t="s">
-        <v>848</v>
-      </c>
       <c r="I292" s="0" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8361,16 +8380,16 @@
         <v>8</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>843</v>
+        <v>784</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="I293" s="0" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8378,16 +8397,16 @@
         <v>8</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>843</v>
+        <v>784</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="I294" s="0" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8395,16 +8414,16 @@
         <v>8</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>843</v>
+        <v>784</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I295" s="0" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8412,16 +8431,16 @@
         <v>8</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="I296" s="0" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8429,16 +8448,16 @@
         <v>8</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="I297" s="0" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8446,16 +8465,16 @@
         <v>8</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="I298" s="0" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8463,16 +8482,16 @@
         <v>8</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="I299" s="0" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8480,16 +8499,16 @@
         <v>8</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="I300" s="0" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8497,16 +8516,16 @@
         <v>8</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I301" s="0" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8514,33 +8533,33 @@
         <v>8</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C302" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="E302" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="I302" s="0" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="E303" s="0" t="s">
         <v>876</v>
       </c>
-      <c r="E302" s="0" t="s">
+      <c r="I303" s="0" t="s">
         <v>877</v>
-      </c>
-      <c r="I302" s="0" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="I303" s="2" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8548,16 +8567,16 @@
         <v>8</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="I304" s="0" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8565,16 +8584,16 @@
         <v>8</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I305" s="0" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8582,16 +8601,16 @@
         <v>8</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="I306" s="0" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8599,33 +8618,33 @@
         <v>8</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C307" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="I307" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="E307" s="0" t="s">
+      <c r="E308" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="I307" s="0" t="s">
+      <c r="I308" s="2" t="s">
         <v>892</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="E308" s="0" t="s">
-        <v>894</v>
-      </c>
-      <c r="I308" s="0" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8633,16 +8652,16 @@
         <v>8</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="I309" s="0" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8650,16 +8669,16 @@
         <v>8</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I310" s="0" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8667,16 +8686,16 @@
         <v>8</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="I311" s="0" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8684,16 +8703,16 @@
         <v>8</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I312" s="0" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8701,16 +8720,16 @@
         <v>8</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="I313" s="0" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8718,16 +8737,16 @@
         <v>8</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="I314" s="0" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8735,16 +8754,16 @@
         <v>8</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="I315" s="0" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8752,16 +8771,16 @@
         <v>8</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="I316" s="0" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8769,16 +8788,16 @@
         <v>8</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="I317" s="0" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8786,16 +8805,16 @@
         <v>8</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="I318" s="0" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8803,16 +8822,16 @@
         <v>8</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="I319" s="0" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8820,353 +8839,435 @@
         <v>8</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="I320" s="0" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>932</v>
+        <v>8</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>933</v>
+        <v>854</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="I321" s="0" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="E322" s="0" t="s">
         <v>932</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="I322" s="0" t="s">
         <v>933</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="E322" s="0" t="s">
-        <v>937</v>
-      </c>
-      <c r="I322" s="0" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>932</v>
+        <v>8</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>933</v>
+        <v>854</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="I323" s="0" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>932</v>
+        <v>8</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>933</v>
+        <v>854</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="I324" s="0" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>932</v>
+        <v>8</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>933</v>
+        <v>854</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="E325" s="0" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="I325" s="0" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>932</v>
+        <v>8</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E326" s="0" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="I326" s="0" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>932</v>
+        <v>8</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E327" s="0" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="I327" s="0" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>932</v>
+        <v>8</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>149</v>
+        <v>950</v>
       </c>
       <c r="E328" s="0" t="s">
-        <v>149</v>
+        <v>951</v>
       </c>
       <c r="I328" s="0" t="s">
-        <v>150</v>
+        <v>952</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E329" s="0" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="I329" s="0" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E330" s="0" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="I330" s="0" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="I331" s="0" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="I332" s="0" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="I333" s="0" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="E334" s="0" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="I334" s="0" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>971</v>
-      </c>
-      <c r="I335" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E336" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="I336" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E337" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I337" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E338" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="I338" s="0" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E339" s="0" t="s">
-        <v>982</v>
+        <v>984</v>
+      </c>
+      <c r="I339" s="0" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="E340" s="0" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="I340" s="0" t="s">
-        <v>984</v>
+        <v>988</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E341" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="I341" s="0" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="E342" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="I342" s="0" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E343" s="0" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E344" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="I344" s="0" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E345" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="I345" s="0" t="s">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/docs/invariant/translations.xlsx
+++ b/docs/invariant/translations.xlsx
@@ -1871,29 +1871,6 @@
     <t xml:space="preserve">Item verwijderd.</t>
   </si>
   <si>
-    <t xml:space="preserve">JavaScriptConfirmationExplanation_XacceptAll_XtheScript_XdoNotAccept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn8 items can use JavaScript (this is a programming language). This makes it possible to create an item that generates a different question each time it's asked (for example, for arithmetic or math).
-However, if you do not understand the JavaScript that is used, you should probably not import items that use it.
-An exception to this rule in case of students: if you received this share package directly from your school teacher, you might probably just choose '{0}'.
-One item uses the following JavaScript and you can answer whether you accept it not:
-====== The JavaScript starts here ======
-{1}
-======== ... and ends here ======== 
-If you click '{2}', the item will not be imported.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn8 items kunnen JavaScript gebruiken (dat is een programmeertaal). Daardoor wordt het mogelijk om items te maken dat telkens een nieuwe vraag genereert (bijvoorbeeld voor rekenen of wiskunde).
-Items die JavaScript gebruiken kan je misschien beter niet importeren als je de JavaScript ervan niet begrijpt.
-Een uitzondering op deze regel in het geval van leerlingen: als je dit gedeelde Learn8-bestand direct van je leraar hebt gekregen, dan kun je waarschijnlijk gewoon kiezen voor '{0}'.
-Een item gebruikt de volgende JavaScript en jij kan bepalen of je het accepteert of niet:
-====== De JavaScript begint hier ======
-{1}
-======== ... en eindigt hier ========
-Als je op '{2}' klikt, dan zal het item niet geïmporteerd worden.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Learn8_does_not_have_permission_to_read_the_file</t>
   </si>
   <si>
@@ -1937,15 +1914,6 @@
   </si>
   <si>
     <t xml:space="preserve">Geen samenvatting beschikbaar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only_accept_it_if_you_understand_it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only accept it if you understand it!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alleen accepteren als je het begrijpt!</t>
   </si>
   <si>
     <t xml:space="preserve">Please_dont_close_the_app</t>
@@ -3192,13 +3160,31 @@
     <t xml:space="preserve">Verversen</t>
   </si>
   <si>
-    <t xml:space="preserve">Shared_with_you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shared with you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gedeeld met jou</t>
+    <t xml:space="preserve">Shared_in_the_current_website_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shared in the current website language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gedeeld in de huidige websitetaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharing_a_package_or_other_website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share a Learn8 package or share a link to another website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een Learn8 pakketje of een link naar een andere website delen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharing_Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may have created a package that is useful for others or you know about another website for sharing learn8 files. Nice!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je hebt misschien een pakketje gemaakt dat handig is voor anderen of je kent een website waar Learn8 pakketjes worden gedeeld. Gaaf!</t>
   </si>
 </sst>
 </file>
@@ -6812,7 +6798,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>8</v>
       </c>
@@ -6822,10 +6808,10 @@
       <c r="C203" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="E203" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="I203" s="2" t="s">
+      <c r="I203" s="0" t="s">
         <v>571</v>
       </c>
     </row>
@@ -6956,13 +6942,13 @@
         <v>514</v>
       </c>
       <c r="C211" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E211" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="E211" s="0" t="s">
+      <c r="I211" s="0" t="s">
         <v>594</v>
-      </c>
-      <c r="I211" s="0" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6973,13 +6959,13 @@
         <v>514</v>
       </c>
       <c r="C212" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="I212" s="0" t="s">
         <v>596</v>
-      </c>
-      <c r="E212" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="I212" s="0" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6990,13 +6976,13 @@
         <v>514</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>101</v>
+        <v>597</v>
       </c>
       <c r="E213" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="I213" s="0" t="s">
         <v>599</v>
-      </c>
-      <c r="I213" s="0" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7007,7 +6993,7 @@
         <v>514</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E214" s="0" t="s">
         <v>601</v>
@@ -7084,7 +7070,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
         <v>8</v>
       </c>
@@ -7094,10 +7080,10 @@
       <c r="C219" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E219" s="0" t="s">
+      <c r="E219" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="I219" s="0" t="s">
+      <c r="I219" s="2" t="s">
         <v>617</v>
       </c>
     </row>
@@ -7118,7 +7104,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
         <v>8</v>
       </c>
@@ -7128,10 +7114,10 @@
       <c r="C221" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="E221" s="2" t="s">
+      <c r="E221" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="I221" s="2" t="s">
+      <c r="I221" s="0" t="s">
         <v>623</v>
       </c>
     </row>
@@ -7233,8 +7219,11 @@
       <c r="E227" s="0" t="s">
         <v>640</v>
       </c>
+      <c r="G227" s="0" t="s">
+        <v>641</v>
+      </c>
       <c r="I227" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7242,16 +7231,16 @@
         <v>8</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>514</v>
+        <v>643</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7259,19 +7248,16 @@
         <v>8</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>514</v>
+        <v>643</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="G229" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="I229" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7279,7 +7265,7 @@
         <v>8</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>650</v>
@@ -7296,7 +7282,7 @@
         <v>8</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>653</v>
@@ -7313,7 +7299,7 @@
         <v>8</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>656</v>
@@ -7330,7 +7316,7 @@
         <v>8</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>659</v>
@@ -7338,8 +7324,14 @@
       <c r="E233" s="0" t="s">
         <v>660</v>
       </c>
+      <c r="F233" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="G233" s="0" t="s">
+        <v>662</v>
+      </c>
       <c r="I233" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7347,16 +7339,22 @@
         <v>8</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
+      </c>
+      <c r="F234" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="G234" s="0" t="s">
+        <v>666</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7364,22 +7362,16 @@
         <v>8</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="F235" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="G235" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7387,22 +7379,22 @@
         <v>8</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7410,16 +7402,16 @@
         <v>8</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7427,18 +7419,12 @@
         <v>8</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="F238" s="0" t="s">
-        <v>679</v>
-      </c>
-      <c r="G238" s="0" t="s">
         <v>680</v>
       </c>
       <c r="I238" s="0" t="s">
@@ -7450,7 +7436,7 @@
         <v>8</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>682</v>
@@ -7458,8 +7444,14 @@
       <c r="E239" s="0" t="s">
         <v>683</v>
       </c>
+      <c r="F239" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="G239" s="0" t="s">
+        <v>685</v>
+      </c>
       <c r="I239" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7467,16 +7459,19 @@
         <v>8</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
+      </c>
+      <c r="G240" s="0" t="s">
+        <v>689</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7484,41 +7479,32 @@
         <v>8</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="F241" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="G241" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E242" s="0" t="s">
         <v>694</v>
       </c>
-      <c r="G242" s="0" t="s">
+      <c r="E242" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="I242" s="0" t="s">
+      <c r="I242" s="2" t="s">
         <v>696</v>
       </c>
     </row>
@@ -7527,7 +7513,7 @@
         <v>8</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>697</v>
@@ -7539,88 +7525,88 @@
         <v>699</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="E244" s="2" t="s">
+      <c r="E244" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="I244" s="2" t="s">
+      <c r="I244" s="0" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="E245" s="0" t="s">
+      <c r="E245" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="I245" s="0" t="s">
+      <c r="I245" s="2" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E246" s="0" t="s">
+      <c r="E246" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="I246" s="0" t="s">
+      <c r="I246" s="2" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="E247" s="2" t="s">
+      <c r="E247" s="0" t="s">
         <v>710</v>
       </c>
-      <c r="I247" s="2" t="s">
+      <c r="I247" s="0" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="E248" s="2" t="s">
+      <c r="E248" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="I248" s="2" t="s">
+      <c r="I248" s="0" t="s">
         <v>714</v>
       </c>
     </row>
@@ -7629,7 +7615,7 @@
         <v>8</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>715</v>
@@ -7646,7 +7632,7 @@
         <v>8</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>718</v>
@@ -7663,7 +7649,7 @@
         <v>8</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>721</v>
@@ -7680,7 +7666,7 @@
         <v>8</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>724</v>
@@ -7697,7 +7683,7 @@
         <v>8</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>727</v>
@@ -7714,7 +7700,7 @@
         <v>8</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>730</v>
@@ -7731,7 +7717,7 @@
         <v>8</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>733</v>
@@ -7748,7 +7734,7 @@
         <v>8</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>736</v>
@@ -7765,7 +7751,7 @@
         <v>8</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>739</v>
@@ -7782,7 +7768,7 @@
         <v>8</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>742</v>
@@ -7799,7 +7785,7 @@
         <v>8</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>745</v>
@@ -7816,7 +7802,7 @@
         <v>8</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>748</v>
@@ -7833,7 +7819,7 @@
         <v>8</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>751</v>
@@ -7850,7 +7836,7 @@
         <v>8</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>754</v>
@@ -7867,7 +7853,7 @@
         <v>8</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>757</v>
@@ -7876,7 +7862,7 @@
         <v>758</v>
       </c>
       <c r="I263" s="0" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7884,16 +7870,16 @@
         <v>8</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C264" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E264" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="E264" s="0" t="s">
+      <c r="I264" s="0" t="s">
         <v>761</v>
-      </c>
-      <c r="I264" s="0" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7901,13 +7887,13 @@
         <v>8</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C265" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E265" s="0" t="s">
         <v>763</v>
-      </c>
-      <c r="E265" s="0" t="s">
-        <v>764</v>
       </c>
       <c r="I265" s="0" t="s">
         <v>764</v>
@@ -7918,7 +7904,7 @@
         <v>8</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>765</v>
@@ -7935,7 +7921,7 @@
         <v>8</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>768</v>
@@ -7952,7 +7938,7 @@
         <v>8</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>771</v>
@@ -7969,16 +7955,16 @@
         <v>8</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>774</v>
+        <v>153</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>775</v>
+        <v>153</v>
       </c>
       <c r="I269" s="0" t="s">
-        <v>776</v>
+        <v>154</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7986,16 +7972,19 @@
         <v>8</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C270" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E270" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="G270" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="I270" s="0" t="s">
         <v>777</v>
-      </c>
-      <c r="E270" s="0" t="s">
-        <v>778</v>
-      </c>
-      <c r="I270" s="0" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8003,16 +7992,16 @@
         <v>8</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>649</v>
+        <v>778</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>153</v>
+        <v>779</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>153</v>
+        <v>780</v>
       </c>
       <c r="I271" s="0" t="s">
-        <v>154</v>
+        <v>781</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8020,19 +8009,16 @@
         <v>8</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>649</v>
+        <v>778</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="G272" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I272" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8040,7 +8026,7 @@
         <v>8</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>785</v>
@@ -8057,7 +8043,7 @@
         <v>8</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>788</v>
@@ -8074,7 +8060,7 @@
         <v>8</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>791</v>
@@ -8091,7 +8077,7 @@
         <v>8</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>794</v>
@@ -8108,7 +8094,7 @@
         <v>8</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>797</v>
@@ -8125,7 +8111,7 @@
         <v>8</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>800</v>
@@ -8142,7 +8128,7 @@
         <v>8</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>803</v>
@@ -8159,7 +8145,7 @@
         <v>8</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>806</v>
@@ -8176,7 +8162,7 @@
         <v>8</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>809</v>
@@ -8193,7 +8179,7 @@
         <v>8</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>812</v>
@@ -8210,7 +8196,7 @@
         <v>8</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>815</v>
@@ -8227,7 +8213,7 @@
         <v>8</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>818</v>
@@ -8244,7 +8230,7 @@
         <v>8</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>821</v>
@@ -8261,7 +8247,7 @@
         <v>8</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>824</v>
@@ -8278,7 +8264,7 @@
         <v>8</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>827</v>
@@ -8295,7 +8281,7 @@
         <v>8</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>830</v>
@@ -8312,7 +8298,7 @@
         <v>8</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>833</v>
@@ -8329,7 +8315,7 @@
         <v>8</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>836</v>
@@ -8346,7 +8332,7 @@
         <v>8</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>839</v>
@@ -8363,7 +8349,7 @@
         <v>8</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>842</v>
@@ -8380,7 +8366,7 @@
         <v>8</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>845</v>
@@ -8397,16 +8383,16 @@
         <v>8</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>784</v>
+        <v>848</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="I294" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8414,16 +8400,16 @@
         <v>8</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>784</v>
+        <v>848</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="I295" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8431,16 +8417,16 @@
         <v>8</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>855</v>
       </c>
       <c r="E296" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="I296" s="0" t="s">
         <v>856</v>
-      </c>
-      <c r="I296" s="0" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8448,16 +8434,16 @@
         <v>8</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C297" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="E297" s="0" t="s">
         <v>858</v>
       </c>
-      <c r="E297" s="0" t="s">
+      <c r="I297" s="0" t="s">
         <v>859</v>
-      </c>
-      <c r="I297" s="0" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8465,10 +8451,10 @@
         <v>8</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E298" s="0" t="s">
         <v>861</v>
@@ -8482,7 +8468,7 @@
         <v>8</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>863</v>
@@ -8499,7 +8485,7 @@
         <v>8</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>866</v>
@@ -8516,7 +8502,7 @@
         <v>8</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>869</v>
@@ -8533,7 +8519,7 @@
         <v>8</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>872</v>
@@ -8550,7 +8536,7 @@
         <v>8</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>875</v>
@@ -8567,7 +8553,7 @@
         <v>8</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>878</v>
@@ -8584,7 +8570,7 @@
         <v>8</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>881</v>
@@ -8596,20 +8582,20 @@
         <v>883</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="E306" s="0" t="s">
+      <c r="E306" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="I306" s="0" t="s">
+      <c r="I306" s="2" t="s">
         <v>886</v>
       </c>
     </row>
@@ -8618,7 +8604,7 @@
         <v>8</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>887</v>
@@ -8630,20 +8616,20 @@
         <v>889</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="E308" s="2" t="s">
+      <c r="E308" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="I308" s="2" t="s">
+      <c r="I308" s="0" t="s">
         <v>892</v>
       </c>
     </row>
@@ -8652,7 +8638,7 @@
         <v>8</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>893</v>
@@ -8661,7 +8647,7 @@
         <v>894</v>
       </c>
       <c r="I309" s="0" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8669,16 +8655,16 @@
         <v>8</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C310" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E310" s="0" t="s">
         <v>896</v>
       </c>
-      <c r="E310" s="0" t="s">
+      <c r="I310" s="0" t="s">
         <v>897</v>
-      </c>
-      <c r="I310" s="0" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8686,16 +8672,16 @@
         <v>8</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C311" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E311" s="0" t="s">
         <v>899</v>
       </c>
-      <c r="E311" s="0" t="s">
+      <c r="I311" s="0" t="s">
         <v>900</v>
-      </c>
-      <c r="I311" s="0" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8703,7 +8689,7 @@
         <v>8</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>901</v>
@@ -8720,7 +8706,7 @@
         <v>8</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>904</v>
@@ -8737,7 +8723,7 @@
         <v>8</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>907</v>
@@ -8754,7 +8740,7 @@
         <v>8</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>910</v>
@@ -8771,7 +8757,7 @@
         <v>8</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>913</v>
@@ -8788,7 +8774,7 @@
         <v>8</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>916</v>
@@ -8805,7 +8791,7 @@
         <v>8</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>919</v>
@@ -8822,7 +8808,7 @@
         <v>8</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>922</v>
@@ -8839,7 +8825,7 @@
         <v>8</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>925</v>
@@ -8856,7 +8842,7 @@
         <v>8</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>928</v>
@@ -8873,7 +8859,7 @@
         <v>8</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>931</v>
@@ -8890,7 +8876,7 @@
         <v>8</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>934</v>
@@ -8907,16 +8893,16 @@
         <v>8</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>854</v>
+        <v>937</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I324" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8924,16 +8910,16 @@
         <v>8</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>854</v>
+        <v>937</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E325" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="I325" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8941,7 +8927,7 @@
         <v>8</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>944</v>
@@ -8955,44 +8941,44 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>8</v>
+        <v>947</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E327" s="0" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="I327" s="0" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>8</v>
+        <v>947</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E328" s="0" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="I328" s="0" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>955</v>
@@ -9006,47 +8992,47 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>958</v>
       </c>
       <c r="E330" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="I330" s="0" t="s">
         <v>959</v>
-      </c>
-      <c r="I330" s="0" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C331" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="E331" s="0" t="s">
         <v>961</v>
       </c>
-      <c r="E331" s="0" t="s">
+      <c r="I331" s="0" t="s">
         <v>962</v>
-      </c>
-      <c r="I331" s="0" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E332" s="0" t="s">
         <v>964</v>
@@ -9057,10 +9043,10 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>966</v>
@@ -9068,47 +9054,47 @@
       <c r="E333" s="0" t="s">
         <v>967</v>
       </c>
-      <c r="I333" s="0" t="s">
-        <v>968</v>
-      </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C334" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="E334" s="0" t="s">
         <v>969</v>
       </c>
-      <c r="E334" s="0" t="s">
+      <c r="I334" s="0" t="s">
         <v>970</v>
-      </c>
-      <c r="I334" s="0" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C335" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="E335" s="0" t="s">
         <v>972</v>
       </c>
-      <c r="E335" s="0" t="s">
+      <c r="I335" s="0" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>974</v>
@@ -9122,10 +9108,10 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>977</v>
@@ -9139,10 +9125,10 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>980</v>
@@ -9156,10 +9142,10 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>983</v>
@@ -9173,10 +9159,10 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>986</v>
@@ -9190,61 +9176,61 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>989</v>
       </c>
       <c r="E341" s="0" t="s">
-        <v>990</v>
-      </c>
-      <c r="I341" s="0" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E342" s="0" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="I342" s="0" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>995</v>
+        <v>993</v>
+      </c>
+      <c r="I343" s="0" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E344" s="0" t="s">
         <v>996</v>
@@ -9255,10 +9241,10 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>998</v>

--- a/docs/invariant/translations.xlsx
+++ b/docs/invariant/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1007">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -2095,6 +2095,24 @@
     <t xml:space="preserve">Het verwijderen van bestanden (met [{0}] in de volledige bestandsnaam) uit Dropbox is mislukt. Een waarschijnlijke oorzaak: geen internetverbinding of een bestand is in gebruik. Learn8 zal het opnieuw proberen bij de volgende synchronisatie.</t>
   </si>
   <si>
+    <t xml:space="preserve">Sync_in_progress_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sync in progress...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synchronisatie bezig...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sync_finished_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sync finished.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synchronisatie voltooid.</t>
+  </si>
+  <si>
     <t xml:space="preserve">_LanguageResources\Settings</t>
   </si>
   <si>
@@ -3175,7 +3193,7 @@
     <t xml:space="preserve">Share a Learn8 package or share a link to another website</t>
   </si>
   <si>
-    <t xml:space="preserve">Een Learn8 pakketje of een link naar een andere website delen</t>
+    <t xml:space="preserve">Deel een Learn8 pakketje of een link naar een andere website</t>
   </si>
   <si>
     <t xml:space="preserve">Sharing_Info</t>
@@ -3289,7 +3307,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I345"/>
+  <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
@@ -7231,16 +7249,16 @@
         <v>8</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="E228" s="0" t="s">
         <v>644</v>
       </c>
-      <c r="E228" s="0" t="s">
+      <c r="I228" s="0" t="s">
         <v>645</v>
-      </c>
-      <c r="I228" s="0" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7248,16 +7266,16 @@
         <v>8</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>643</v>
+        <v>514</v>
       </c>
       <c r="C229" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E229" s="0" t="s">
         <v>647</v>
       </c>
-      <c r="E229" s="0" t="s">
+      <c r="I229" s="0" t="s">
         <v>648</v>
-      </c>
-      <c r="I229" s="0" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7265,7 +7283,7 @@
         <v>8</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>650</v>
@@ -7282,7 +7300,7 @@
         <v>8</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>653</v>
@@ -7299,7 +7317,7 @@
         <v>8</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>656</v>
@@ -7316,7 +7334,7 @@
         <v>8</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>659</v>
@@ -7324,14 +7342,8 @@
       <c r="E233" s="0" t="s">
         <v>660</v>
       </c>
-      <c r="F233" s="0" t="s">
+      <c r="I233" s="0" t="s">
         <v>661</v>
-      </c>
-      <c r="G233" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="I233" s="0" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7339,22 +7351,16 @@
         <v>8</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E234" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="I234" s="0" t="s">
         <v>664</v>
-      </c>
-      <c r="E234" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="F234" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="G234" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="I234" s="0" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7362,16 +7368,22 @@
         <v>8</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C235" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E235" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="F235" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="G235" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="E235" s="0" t="s">
+      <c r="I235" s="0" t="s">
         <v>669</v>
-      </c>
-      <c r="I235" s="0" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,22 +7391,22 @@
         <v>8</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C236" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="F236" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="E236" s="0" t="s">
+      <c r="G236" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="F236" s="0" t="s">
+      <c r="I236" s="0" t="s">
         <v>673</v>
-      </c>
-      <c r="G236" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="I236" s="0" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7402,16 +7414,16 @@
         <v>8</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="I237" s="0" t="s">
         <v>676</v>
-      </c>
-      <c r="E237" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="I237" s="0" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7419,12 +7431,18 @@
         <v>8</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="F238" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="E238" s="0" t="s">
+      <c r="G238" s="0" t="s">
         <v>680</v>
       </c>
       <c r="I238" s="0" t="s">
@@ -7436,7 +7454,7 @@
         <v>8</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>682</v>
@@ -7444,14 +7462,8 @@
       <c r="E239" s="0" t="s">
         <v>683</v>
       </c>
-      <c r="F239" s="0" t="s">
+      <c r="I239" s="0" t="s">
         <v>684</v>
-      </c>
-      <c r="G239" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="I239" s="0" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7459,19 +7471,16 @@
         <v>8</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C240" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="I240" s="0" t="s">
         <v>687</v>
-      </c>
-      <c r="E240" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="G240" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="I240" s="0" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7479,32 +7488,41 @@
         <v>8</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C241" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="F241" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="G241" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="E241" s="0" t="s">
+      <c r="I241" s="0" t="s">
         <v>692</v>
       </c>
-      <c r="I241" s="0" t="s">
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="242" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C242" s="1" t="s">
+      <c r="E242" s="0" t="s">
         <v>694</v>
       </c>
-      <c r="E242" s="2" t="s">
+      <c r="G242" s="0" t="s">
         <v>695</v>
       </c>
-      <c r="I242" s="2" t="s">
+      <c r="I242" s="0" t="s">
         <v>696</v>
       </c>
     </row>
@@ -7513,7 +7531,7 @@
         <v>8</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>697</v>
@@ -7525,88 +7543,88 @@
         <v>699</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="E244" s="0" t="s">
+      <c r="E244" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="I244" s="0" t="s">
+      <c r="I244" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="E245" s="2" t="s">
+      <c r="E245" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="I245" s="2" t="s">
+      <c r="I245" s="0" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E246" s="2" t="s">
+      <c r="E246" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="I246" s="2" t="s">
+      <c r="I246" s="0" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="E247" s="0" t="s">
+      <c r="E247" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="I247" s="0" t="s">
+      <c r="I247" s="2" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="E248" s="0" t="s">
+      <c r="E248" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="I248" s="0" t="s">
+      <c r="I248" s="2" t="s">
         <v>714</v>
       </c>
     </row>
@@ -7615,7 +7633,7 @@
         <v>8</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>715</v>
@@ -7632,7 +7650,7 @@
         <v>8</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>718</v>
@@ -7649,7 +7667,7 @@
         <v>8</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>721</v>
@@ -7666,7 +7684,7 @@
         <v>8</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>724</v>
@@ -7683,7 +7701,7 @@
         <v>8</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>727</v>
@@ -7700,7 +7718,7 @@
         <v>8</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>730</v>
@@ -7717,7 +7735,7 @@
         <v>8</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>733</v>
@@ -7734,7 +7752,7 @@
         <v>8</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>736</v>
@@ -7751,7 +7769,7 @@
         <v>8</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>739</v>
@@ -7768,7 +7786,7 @@
         <v>8</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>742</v>
@@ -7785,7 +7803,7 @@
         <v>8</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>745</v>
@@ -7802,7 +7820,7 @@
         <v>8</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>748</v>
@@ -7819,7 +7837,7 @@
         <v>8</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>751</v>
@@ -7836,7 +7854,7 @@
         <v>8</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>754</v>
@@ -7853,7 +7871,7 @@
         <v>8</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>757</v>
@@ -7862,7 +7880,7 @@
         <v>758</v>
       </c>
       <c r="I263" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7870,16 +7888,16 @@
         <v>8</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="I264" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7887,13 +7905,13 @@
         <v>8</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="I265" s="0" t="s">
         <v>764</v>
@@ -7904,7 +7922,7 @@
         <v>8</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>765</v>
@@ -7921,7 +7939,7 @@
         <v>8</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>768</v>
@@ -7938,7 +7956,7 @@
         <v>8</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>771</v>
@@ -7955,16 +7973,16 @@
         <v>8</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>153</v>
+        <v>774</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>153</v>
+        <v>775</v>
       </c>
       <c r="I269" s="0" t="s">
-        <v>154</v>
+        <v>776</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7972,19 +7990,16 @@
         <v>8</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="G270" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="I270" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7992,16 +8007,16 @@
         <v>8</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>778</v>
+        <v>649</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>779</v>
+        <v>153</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>780</v>
+        <v>153</v>
       </c>
       <c r="I271" s="0" t="s">
-        <v>781</v>
+        <v>154</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8009,16 +8024,19 @@
         <v>8</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>778</v>
+        <v>649</v>
       </c>
       <c r="C272" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E272" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="G272" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="E272" s="0" t="s">
+      <c r="I272" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="I272" s="0" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8026,7 +8044,7 @@
         <v>8</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>785</v>
@@ -8043,7 +8061,7 @@
         <v>8</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>788</v>
@@ -8060,7 +8078,7 @@
         <v>8</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>791</v>
@@ -8077,7 +8095,7 @@
         <v>8</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>794</v>
@@ -8094,7 +8112,7 @@
         <v>8</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>797</v>
@@ -8111,7 +8129,7 @@
         <v>8</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>800</v>
@@ -8128,7 +8146,7 @@
         <v>8</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>803</v>
@@ -8145,7 +8163,7 @@
         <v>8</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>806</v>
@@ -8162,7 +8180,7 @@
         <v>8</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>809</v>
@@ -8179,7 +8197,7 @@
         <v>8</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>812</v>
@@ -8196,7 +8214,7 @@
         <v>8</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>815</v>
@@ -8213,7 +8231,7 @@
         <v>8</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>818</v>
@@ -8230,7 +8248,7 @@
         <v>8</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>821</v>
@@ -8247,7 +8265,7 @@
         <v>8</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>824</v>
@@ -8264,7 +8282,7 @@
         <v>8</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>827</v>
@@ -8281,7 +8299,7 @@
         <v>8</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>830</v>
@@ -8298,7 +8316,7 @@
         <v>8</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>833</v>
@@ -8315,7 +8333,7 @@
         <v>8</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>836</v>
@@ -8332,7 +8350,7 @@
         <v>8</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>839</v>
@@ -8349,7 +8367,7 @@
         <v>8</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>842</v>
@@ -8366,7 +8384,7 @@
         <v>8</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>845</v>
@@ -8383,16 +8401,16 @@
         <v>8</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="E294" s="0" t="s">
         <v>849</v>
       </c>
-      <c r="E294" s="0" t="s">
+      <c r="I294" s="0" t="s">
         <v>850</v>
-      </c>
-      <c r="I294" s="0" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8400,16 +8418,16 @@
         <v>8</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>848</v>
+        <v>784</v>
       </c>
       <c r="C295" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E295" s="0" t="s">
         <v>852</v>
       </c>
-      <c r="E295" s="0" t="s">
+      <c r="I295" s="0" t="s">
         <v>853</v>
-      </c>
-      <c r="I295" s="0" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8417,16 +8435,16 @@
         <v>8</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>855</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="I296" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8434,16 +8452,16 @@
         <v>8</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="I297" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8451,10 +8469,10 @@
         <v>8</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E298" s="0" t="s">
         <v>861</v>
@@ -8468,7 +8486,7 @@
         <v>8</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>863</v>
@@ -8485,7 +8503,7 @@
         <v>8</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>866</v>
@@ -8502,7 +8520,7 @@
         <v>8</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>869</v>
@@ -8519,7 +8537,7 @@
         <v>8</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>872</v>
@@ -8536,7 +8554,7 @@
         <v>8</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>875</v>
@@ -8553,7 +8571,7 @@
         <v>8</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>878</v>
@@ -8570,7 +8588,7 @@
         <v>8</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>881</v>
@@ -8582,20 +8600,20 @@
         <v>883</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="E306" s="2" t="s">
+      <c r="E306" s="0" t="s">
         <v>885</v>
       </c>
-      <c r="I306" s="2" t="s">
+      <c r="I306" s="0" t="s">
         <v>886</v>
       </c>
     </row>
@@ -8604,7 +8622,7 @@
         <v>8</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>887</v>
@@ -8616,20 +8634,20 @@
         <v>889</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="E308" s="0" t="s">
+      <c r="E308" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="I308" s="0" t="s">
+      <c r="I308" s="2" t="s">
         <v>892</v>
       </c>
     </row>
@@ -8638,7 +8656,7 @@
         <v>8</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>893</v>
@@ -8647,7 +8665,7 @@
         <v>894</v>
       </c>
       <c r="I309" s="0" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8655,16 +8673,16 @@
         <v>8</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="I310" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8672,16 +8690,16 @@
         <v>8</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C311" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E311" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="I311" s="0" t="s">
         <v>898</v>
-      </c>
-      <c r="E311" s="0" t="s">
-        <v>899</v>
-      </c>
-      <c r="I311" s="0" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8689,7 +8707,7 @@
         <v>8</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>901</v>
@@ -8706,7 +8724,7 @@
         <v>8</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>904</v>
@@ -8723,7 +8741,7 @@
         <v>8</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>907</v>
@@ -8740,7 +8758,7 @@
         <v>8</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>910</v>
@@ -8757,7 +8775,7 @@
         <v>8</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>913</v>
@@ -8774,7 +8792,7 @@
         <v>8</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>916</v>
@@ -8791,7 +8809,7 @@
         <v>8</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>919</v>
@@ -8808,7 +8826,7 @@
         <v>8</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>922</v>
@@ -8825,7 +8843,7 @@
         <v>8</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>925</v>
@@ -8842,7 +8860,7 @@
         <v>8</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>928</v>
@@ -8859,7 +8877,7 @@
         <v>8</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>931</v>
@@ -8876,7 +8894,7 @@
         <v>8</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>934</v>
@@ -8893,16 +8911,16 @@
         <v>8</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="E324" s="0" t="s">
         <v>938</v>
       </c>
-      <c r="E324" s="0" t="s">
+      <c r="I324" s="0" t="s">
         <v>939</v>
-      </c>
-      <c r="I324" s="0" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8910,16 +8928,16 @@
         <v>8</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>937</v>
+        <v>854</v>
       </c>
       <c r="C325" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="E325" s="0" t="s">
         <v>941</v>
       </c>
-      <c r="E325" s="0" t="s">
+      <c r="I325" s="0" t="s">
         <v>942</v>
-      </c>
-      <c r="I325" s="0" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8927,7 +8945,7 @@
         <v>8</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>944</v>
@@ -8941,44 +8959,44 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="E327" s="0" t="s">
         <v>948</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="I327" s="0" t="s">
         <v>949</v>
-      </c>
-      <c r="E327" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="I327" s="0" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>947</v>
+        <v>8</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C328" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="E328" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="I328" s="0" t="s">
         <v>952</v>
-      </c>
-      <c r="E328" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="I328" s="0" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>955</v>
@@ -8992,47 +9010,47 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>958</v>
       </c>
       <c r="E330" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="I330" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="I331" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E332" s="0" t="s">
         <v>964</v>
@@ -9043,10 +9061,10 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>966</v>
@@ -9054,47 +9072,47 @@
       <c r="E333" s="0" t="s">
         <v>967</v>
       </c>
+      <c r="I333" s="0" t="s">
+        <v>968</v>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E334" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="I334" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>972</v>
-      </c>
-      <c r="I335" s="0" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>974</v>
@@ -9108,10 +9126,10 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>977</v>
@@ -9125,10 +9143,10 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>980</v>
@@ -9142,10 +9160,10 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>983</v>
@@ -9159,10 +9177,10 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>986</v>
@@ -9176,61 +9194,61 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>989</v>
       </c>
       <c r="E341" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
+      </c>
+      <c r="I341" s="0" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E342" s="0" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="I342" s="0" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>993</v>
-      </c>
-      <c r="I343" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E344" s="0" t="s">
         <v>996</v>
@@ -9241,10 +9259,10 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>998</v>
@@ -9254,6 +9272,40 @@
       </c>
       <c r="I345" s="0" t="s">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E346" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I346" s="0" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E347" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I347" s="0" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>

--- a/docs/invariant/translations.xlsx
+++ b/docs/invariant/translations.xlsx
@@ -2095,6 +2095,15 @@
     <t xml:space="preserve">Het verwijderen van bestanden (met [{0}] in de volledige bestandsnaam) uit Dropbox is mislukt. Een waarschijnlijke oorzaak: geen internetverbinding of een bestand is in gebruik. Learn8 zal het opnieuw proberen bij de volgende synchronisatie.</t>
   </si>
   <si>
+    <t xml:space="preserve">Sync_finished_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sync finished.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synchronisatie voltooid.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sync_in_progress_</t>
   </si>
   <si>
@@ -2102,15 +2111,6 @@
   </si>
   <si>
     <t xml:space="preserve">Synchronisatie bezig...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sync_finished_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sync finished.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synchronisatie voltooid.</t>
   </si>
   <si>
     <t xml:space="preserve">_LanguageResources\Settings</t>
@@ -3190,19 +3190,19 @@
     <t xml:space="preserve">Sharing_a_package_or_other_website</t>
   </si>
   <si>
-    <t xml:space="preserve">Share a Learn8 package or share a link to another website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deel een Learn8 pakketje of een link naar een andere website</t>
+    <t xml:space="preserve">Share Learn8 items or share a link to another website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deel Learn8 items of een link naar een andere website</t>
   </si>
   <si>
     <t xml:space="preserve">Sharing_Info</t>
   </si>
   <si>
-    <t xml:space="preserve">You may have created a package that is useful for others or you know about another website for sharing learn8 files. Nice!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je hebt misschien een pakketje gemaakt dat handig is voor anderen of je kent een website waar Learn8 pakketjes worden gedeeld. Gaaf!</t>
+    <t xml:space="preserve">You may have created Learn8 items that others may like or you know about another website for sharing Learn8 items. Nice!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je hebt misschien Learn8 items gemaakt die anderen ook zouden kunnen gebruiken of je kent een website waar Learn8 items worden gedeeld. Gaaf!</t>
   </si>
 </sst>
 </file>

--- a/docs/invariant/translations.xlsx
+++ b/docs/invariant/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="1053">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -70,6 +70,7 @@
 - For the display of math formulas, you can use LaTeX.
 - For generating questions and answers, you can use JavaScript.
 - For mobile devices, you can specify what type of virtual keyboard should be used for answering. For example: you may want to use a numeric keyboard for arithmetic.
+- A virtual math keyboard can be used on all devices.
 - On Windows, you can select a folder with images and easily create learn items for all those images (for example, for teachers that need to memorize faces).
 - Items that are created on a computer, can also be used on mobile devices and vice versa.</t>
   </si>
@@ -89,6 +90,7 @@
 - For the display of maths formulas, you can use LaTeX.
 - For generating questions and answers, you can use JavaScript.
 - For mobile devices, you can specify what type of virtual keyboard should be used for answering. For example: you may want to use a numeric keyboard for arithmetics.
+- A virtual maths keyboard can be used on all devices.
 - On Windows, you can select a folder with images and easily create learn items for all those images (for example, for teachers that need to memorise faces).
 - Items that are created on a computer, can also be used on mobile devices and vice versa.</t>
   </si>
@@ -104,7 +106,8 @@
 Technische details:
 - Voor de weergave van wiskundige formules kun je LaTeX gebruiken.
 - Voor het genereren van vragen en antwoorden kun je JavaScript gebruiken.
-- Voor mobiele apparaten kun je instellen welk type virtual keyboard gebruikt moet worden voor het invoeren van het antwoord. Voor rekenenen bijvoorbeeld, is waarschijnlijk een numeriek toetsenbord handig.
+- Voor mobiele apparaten kun je instellen welk type virtueel toetsenbord gebruikt moet worden voor het invoeren van het antwoord (bijvoorbeeld een numeriek toetsenbord voor rekenen).
+- Een virtueel wiskundig toetsenbord kan gebruikt worden op alle apparaten.
 - Op Windows is het mogelijk om een hele map met afbeeldingen in een keer snel te importeren als vragen (bijvoorbeeld, voor docenten die namen bij pasfoto's willen leren).
 - Items die via een computer zijn gemaakt, kunnen ook op mobiele apparaten gebruikt worden en andersom.</t>
   </si>
@@ -136,6 +139,60 @@
     <t xml:space="preserve">Leer 't op jouw manier.</t>
   </si>
   <si>
+    <t xml:space="preserve">LegalNoteDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn8 your way does not knowingly collect any data about its users, neither for itself nor for third parties. Concrete intentions:
+- If you create an account, your data is stored only on your device - not online.
+- The app will not connect to the internet by default (but if you choose to synchronize via Dropbox for example, a connection to the internet must be made and to Dropbox will store your data).
+However:
+- Even though Learn8 your way intends to provide safe software, remember that no method of transmission over the internet, or method of electronic storage is 100% secure and reliable, and Learn8 your way cannot guarantee its absolute security. Therefore, you should never use Learn8 your way for learning things that contain sensitive data. Learn8 your way cannot be held accountable for any form of data collection, data theft, or any form of damage, etcetera, by any party.
+- Even if you choose to share your learn items via a .learn8 file, the intention of Learn8 your way is to keep you anonymous - Learn8 your way does not knowingly add data to ".learn8 files for sharing" that can be traced back to you (unless you add it yourself or your means of distribution results in traceability). Despite this intention, mistakes can be made or bad design may yield unwanted results. If you choose to use the option to share data, you acknowledge this risk and you will not hold Learn8 your way accountable for it.
+- Although Learn8 your way intends to provide a stable learning environment with complete backwards compatibility, mistakes can be made or bad design may result in unwanted app behaviour or even intended breaking changes. Learn8 your way cannot be held accountable for any form of data loss, unusable data, or damage of any form, etcetera, for any party.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn8 your way verzamelt geen data over gebruikers voor zichzelf of voor derde partijen, althans niet bewust. Concrete intenties:
+- Als je een account aanmaakt, dan is je data alleen op jouw apparaat opgeslagen; niet online.
+- De app zal standaard geen verbinding maken met internet (maar als je er bijvoorbeeld voor kiest om te synchroniseren via Dropbox, dan zal er verbinding met internet gemaakt moeten worden en zal er wel data door Dropbox opgeslagen worden).
+Desondanks:
+- Hoewel Learn8 your way probeert om veilige software te leveren, onthoud dat geen enkele vorm van verbinden met internet of vorm van elektronische opslag 100% veilig en betrouwbaar is, en dat dus ook Learn8 your way geen absolute veiligheid kan garanderen. Gebruik Learn8 your way daarom niet voor het leren van iets dat gevoelige informatie bevat. Learn8 your way kan niet verantwoordelijk worden gehouden voor enige vorm van dataverzameling, data diefstal, of schade in enige vorm, etcetera, door welke partij dan ook.
+- Zelfs als je ervoor kiest om je learn8 items te delen via een .learn8 file, is de intentie van Learn8 your way om jou anoniem te laten; Learn8 your way voegt geen data toe aan ".learn8 files voor delen" die kan worden herleid tot jou (tenzij je dat er zelf bewust aan toevoegt of de wijze van distributie voor traceerbaarheid zorgt). Ondanks deze intentie kunnen fouten of slecht ontwerp resulteren in ongewenste werking; Learn8 your way kan privacy niet garanderen als je data deelt. Als je gebruikt maakt van de optie om data te delen, dan erken je het risico en zal je Learn8 your way daarvoor niet verantwoordelijk stellen.
+- Hoewel Learn8 your way probeert om een stabiele leeromgeving aan te bieden met volledige achterwaartse compatibiliteit, kunnen fouten of slecht ontwerp resulteren in ongewenste werking van de app of zelfs tot bewuste wijzigingen die compatibiliteitsproblemen kunnen geven. Learn8 your way kan niet verantwoordelijk worden gehouden voor enige vorm van dataverlies, onbruikbaarheid van data of schade in enige vorm, etcetera, voor welke partij dan ook.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App_descirption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beschrijving van de app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve_Learn8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve Learn8 your way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbeter Learn8 your way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal_note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juridische opmerking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versie</t>
+  </si>
+  <si>
     <t xml:space="preserve">_LanguageResources\ColorThemes</t>
   </si>
   <si>
@@ -488,6 +545,15 @@
   </si>
   <si>
     <t xml:space="preserve">Over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiskunde</t>
   </si>
   <si>
     <t xml:space="preserve">_LanguageResources\Installation</t>
@@ -771,24 +837,34 @@
 Add the line
 L8_KEYBOARD = NUMERIC
 if you'd like to use that type of virtual keyboard on mobile devices. It is useful especially for arithmetics. 
-Other L8_KEYBOARD-options for mobile devices: EMAIL, TELEPHONE.
 The line
 L8_KEYBOARD = LATEX
-works on all devices. It uses the default keyboard, but the mathematical formulas that correspond to what you've just typed are shown instantly. When LaTeX-answers are checked during a learning session, whitespace is ignored. This means for example that "x  +  1" is considered the same as "x+1".</t>
+works on all devices. A math keyboard will pop up, unless the user has chosen (via the Settings page) to type in pure LaTeX. When LaTeX answers are checked during a learning session, whitespace is ignored, as are the commands \left and \right. The commands \times and \cdot are considered equal.
+Other L8_KEYBOARD-options for mobile devices: EMAIL, TELEPHONE.</t>
   </si>
   <si>
     <t xml:space="preserve">This resx file is not complete. It only contains the entries that require deviation form the default en-US:
 arithmeticS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate answers by "[L8]&gt;". The user only needs to give one of the answers. The correct answer(s) are shown if the user's answer was not correct.
+Add the line
+L8_KEYBOARD = NUMERIC
+if you'd like to use that type of virtual keyboard on mobile devices. It is useful especially for arithmetics. 
+The line
+L8_KEYBOARD = LATEX
+works on all devices. A maths keyboard will pop up, unless the user has chosen (via the Settings page) to type in pure LaTeX. When LaTeX answers are checked during a learning session, whitespace is ignored, as are the commands \left and \right. The commands \times and \cdot are considered equal.
+Other L8_KEYBOARD-options for mobile devices: EMAIL, TELEPHONE.</t>
   </si>
   <si>
     <t xml:space="preserve">Meerdere antwoorden dienen gescheiden te worden via "[L8}&gt;". De gebruiker hoeft maar één van de antwoorden te geven. Als de gebruiker een fout antwoord geeft, dan worden ten minste de correcte antwoorden getoond als feedback.
 Voeg de regel
 L8_KEYBOARD = NUMERIC
 toe als je wil dat dat virtuele toetsenbord op apparaten-zonder-vast-toetsenbord gebruikt wordt. Dit is handig bijvoorbeeld voor rekenen.
-Andere L8_KEYBOARD-opties: EMAIL, TELEPHONE.
 De regel
 L8_KEYBOARD = LATEX
-werkt voor alle apparaten. De standaard invoermethode van het apparaat blijft gebruikt worden, maar de wiskundige formules die horen bij wat je hebt getypt, worden meteen getoond. Als LaTeX-antwoorden gecontroleerd worden tijdens een leersessie, dan wordt witruimte genegeerd. Daardoor worden bijvoorbeeld "x  +  1" en "x+1" als gelijk beschouwd.</t>
+werkt voor alle apparaten. Een wiskundig toetsenbord zal zichtbaar worden, tenzij de gebruiker ervoor heeft gekozen (via the pagina "Instellingen") om pure LaTeX in te typen. Bij het controleren van LaTeX antwoorden wordt witruimte genegeerd; hetzelfde geldt voor de commands \left en \right. De commands \times en \cdot worden als gelijk beschouwd.
+Andere L8_KEYBOARD-opties: EMAIL, TELEPHONE.</t>
   </si>
   <si>
     <t xml:space="preserve">Info_Feedback</t>
@@ -838,7 +914,7 @@
   </si>
   <si>
     <t xml:space="preserve">This text (optionally with images) or image without text asks the user to give an answer.
-For language learning, the Question will probably only be a word or "chunk". 
+For language learning, the Question will probably only be a word or a "chunk". 
 For math, you can use LaTeX like this:
 begin latex
 $$ \sin \frac{\pi}{x} = 1 $$
@@ -853,7 +929,7 @@
   </si>
   <si>
     <t xml:space="preserve">This text (optionally with images) or image without text asks the user to give an answer.
-For language learning, the Question will probably only be a word or "chunk".
+For language learning, the Question will probably only be a word or a "chunk".
 For maths, you can use LaTeX like this:
 begin latex
 $$ \sin \frac{\pi}{x} = 1 $$
@@ -865,12 +941,12 @@
   </si>
   <si>
     <t xml:space="preserve">Deze text (eventueel met afbeeldingen) of afbeelding zonder text vraagt de gebruiker om antwoord te geven.
-Voor het leren van talen zal de Vraag waarschijnlijk alleen een woord of woordcombinaties ("chunks").
+Voor het leren van talen is de Vraag waarschijnlijk alleen een woord of een woordcombinatie (een "chunk").
 Voor wiskunde kan LaTeX op de volgende manier gebruikt worden:
 begin latex
 $$ \sin \frac{\pi}{x} = 1 $$
 end latex
-Gebruik $formula$ of \(formula\) voor wiskundige tekens in de tekstregel; $$formula$$ en \[formula\] zetten wiskundige tekens op een speciale regel.
+Gebruik $formule$ of \(formule\) voor wiskundige tekens in de tekstregel; $$formule$$ en \[formule\] zetten wiskundige tekens op een speciale regel.
 Als de Vraag na (bijvoorbeeld) 1 seconde dient te verdwijnen, voeg dan de volgende regel toe:
 L8_MILLISECONDS = 1000
 De gebruiker kan na die tijd nog wel een antwoord invoeren.</t>
@@ -1185,7 +1261,7 @@
   <si>
     <t xml:space="preserve">Dit is bedoeld voor kortetermijn-/(werk)geheugentaken en die elke keer anders zijn. Hiervoor zijn 'JavaScript vervangingen' nodig.
 De gebruiker kan pas antwoorden als de Vraag zichtbaar is. Als de gebruiker in staat is om antwoord te geven met alle informatie die in de Geheugentaak gegeven wordt - omdat de Vraag geen noodzakelijke aanvullende informatie bevat - overweeg dan om alleen een Vraag te gebruiken met een tijdslimiet (zonder Geheugentaak vooraf).
-Zodra een gebruiker verder is gegaan naar de Vraag, mag de gebruiker niet meer terug naar de geheugentaak - totdat de gebruiker antwoord heeft gegeven.
+Zodra een gebruiker verder is gegaan naar de Vraag, mag de gebruiker niet meer terug naar de Geheugentaak - totdat de gebruiker antwoord heeft gegeven.
 Als de beschikbare tijd beperkt moet worden naar (bijvoorbeeld) 1 seconde, typ dan de volgende regel:
 L8_MILLISECONDS = 1000</t>
   </si>
@@ -2320,7 +2396,7 @@
   </si>
   <si>
     <t xml:space="preserve">How many devices would you like to use for this account? (Uploads are deleted as soon as they have been imported by this number of devices.)
-Hint: if you would like to use Dropbox for having a backup of this account, type in a great number like '999'.</t>
+Hint: if you would like to use Dropbox for having a backup of this account, type in a large number like '999'.</t>
   </si>
   <si>
     <t xml:space="preserve">Op hoeveel apparaten wil je dit account gebruiken?  (Uploads worden verwijderd zodra ze zijn geïmporteerd door dit aantal apparaten.)
@@ -2534,6 +2610,79 @@
     <t xml:space="preserve">nl-NL</t>
   </si>
   <si>
+    <t xml:space="preserve">DecimalSeparatorOptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The decimal separator (display decimal numbers as 3.14 or 3,14) depends on your cultural preference. This setting only changes the keyboard - it does not change questions or correct answers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het scheidingsteken voor decimale getallen (bijvoorbeeld 3.14 of 3,14) hangt af van culturele voorkeur. De instelling wijzigt alleen het toetsenbord; het verandert niets aan vragen of correcte antwoorden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DecimalSeparator_Comma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimal comma (this is the LaTeX command "{,}").</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimale komma (dit is het LaTeX command "{,}").</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DecimalSeparator_Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimal point (this is ".").</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimale punt (dit is ".").</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaTeXInputOptionButton_MathKeyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use a virtual math keyboard. The multiplication sign adapts automatically to the question - if the maker of the question uses \cdot instead of \times, then the math keyboard will automatically give \cdot as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use a virtual maths keyboard. The multiplication sign adapts automatically to the question - if the maker of the question uses \cdot instead of \times, then the maths keyboard will automatically give \cdot as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebruik een virtueel wiskundig toetsenbord. Het vermenigvuldigingsteken past zicht automatisch aan de vraag aan; als de maker van de vraag \cdot gebruikt in plaats van \times, dan zal het wiskundig toetsenbord automatisch ook \cdot geven.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaTeXInputOptionButton_Pure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type in LaTeX commands using the default keyboard. (A command like "\frac{1}{x^2}" is displayed as a fraction immediatly after typing, while the "pure LaTeX" is also still visible.)
+At answer checking, \times and \cdot are considered equal, whitespace is ignored and \left and \right are ignored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geef LaTeX commands via het standaard toetsenbord. (Een command zoals "\frac{1}{x^2}" wordt meteen na het typen afgebeeld als een breuk, terwijl de "pure LaTeX" ook zichtbaar blijft.) Bij antwoordcontrole worden \cdot en \times als gelijk beschouwd, wordt witruimte genegeerd en worden \left en \right genegeerd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaTeX_input_options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaTeX input options:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaTeX invoermogelijkeheden:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhyscialKeyboardQuestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When using the virtual math keyboard, you can - for example - make a fraction by just typing "/" on the physical keyboard. (Note: if this setting is turned on while not having a physical keyboard attached, then two virtual keyboards might appear.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wanneer je het virtuele wiskundige toetsenbord gebruikt, kun je bijvoorbeeld via het intypen van "/" een breuk maken. (Let op: als je deze instelling aan hebt staan terwijl er geen fysiek toetsenbord is aangesloten, dan kunnen er twee virtuele toetsenborden verschijnen.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhyscialKeyboard_Allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When using the virtual maths keyboard, you can - for example - make a fraction by just typing "/" on the physical keyboard. (Note: if this setting is turned on while not having a physical keyboard attached, then two virtual keyboards might appear.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">_LanguageResources\Tags</t>
   </si>
   <si>
@@ -3203,6 +3352,18 @@
   </si>
   <si>
     <t xml:space="preserve">Je hebt misschien Learn8 items gemaakt die anderen ook zouden kunnen gebruiken of je kent een website waar Learn8 items worden gedeeld. Gaaf!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read_more_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read more...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meer lezen...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download</t>
   </si>
 </sst>
 </file>
@@ -3307,10 +3468,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I347"/>
+  <dimension ref="A1:I363"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3345,7 +3506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3420,21 +3581,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="I5" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,16 +3603,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3459,16 +3620,16 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3476,10 +3637,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>35</v>
@@ -3493,16 +3654,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,10 +3671,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>41</v>
@@ -3527,16 +3688,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,16 +3705,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,16 +3722,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3578,16 +3739,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,16 +3756,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,16 +3773,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,16 +3790,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3646,16 +3807,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,16 +3824,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,16 +3841,16 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,16 +3858,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,16 +3875,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3731,16 +3892,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3748,16 +3909,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,16 +3926,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,16 +3943,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3799,10 +3960,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>81</v>
@@ -3816,16 +3977,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3833,10 +3994,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>86</v>
@@ -3850,16 +4011,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,16 +4028,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3884,16 +4045,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,16 +4062,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3918,16 +4079,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,10 +4096,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>102</v>
@@ -3952,7 +4113,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>104</v>
@@ -3969,16 +4130,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E37" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,16 +4147,16 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="I38" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4003,10 +4164,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>113</v>
@@ -4020,7 +4181,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>115</v>
@@ -4029,7 +4190,7 @@
         <v>116</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,16 +4198,16 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,22 +4215,16 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,16 +4232,16 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,10 +4249,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>127</v>
@@ -4111,7 +4266,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>129</v>
@@ -4120,7 +4275,7 @@
         <v>130</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,16 +4283,16 @@
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>132</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4145,13 +4300,19 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="F47" s="0" t="s">
         <v>135</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>136</v>
@@ -4162,16 +4323,16 @@
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4179,16 +4340,16 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4196,16 +4357,16 @@
         <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4213,16 +4374,16 @@
         <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4230,32 +4391,32 @@
         <v>8</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="E53" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" s="0" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4264,7 +4425,7 @@
         <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>153</v>
@@ -4281,16 +4442,16 @@
         <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>155</v>
       </c>
       <c r="E55" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I55" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4298,16 +4459,19 @@
         <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G56" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="I56" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4315,7 +4479,7 @@
         <v>8</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>161</v>
@@ -4332,7 +4496,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>164</v>
@@ -4344,20 +4508,20 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I59" s="0" t="s">
+      <c r="I59" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4366,16 +4530,16 @@
         <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I60" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4383,13 +4547,13 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>174</v>
@@ -4400,16 +4564,16 @@
         <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>175</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4417,16 +4581,16 @@
         <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4434,16 +4598,16 @@
         <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4451,16 +4615,16 @@
         <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4468,16 +4632,16 @@
         <v>8</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,16 +4649,16 @@
         <v>8</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4502,16 +4666,16 @@
         <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4519,16 +4683,16 @@
         <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>194</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4536,16 +4700,16 @@
         <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E70" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="I70" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4553,16 +4717,16 @@
         <v>8</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E71" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="I71" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4570,16 +4734,16 @@
         <v>8</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="I72" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4587,16 +4751,16 @@
         <v>8</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E73" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="I73" s="0" t="s">
         <v>206</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4604,16 +4768,16 @@
         <v>8</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E74" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="I74" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,33 +4785,33 @@
         <v>8</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E75" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="I75" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="I75" s="0" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="E76" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="I76" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4655,22 +4819,16 @@
         <v>8</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E77" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="I77" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4678,181 +4836,181 @@
         <v>8</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E79" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="I78" s="0" t="s">
+      <c r="I79" s="0" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C79" s="1" t="s">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E80" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I80" s="0" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" s="1" t="s">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E81" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="I81" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I80" s="2" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="E82" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="I81" s="2" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="E83" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="F83" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="I82" s="0" t="s">
+      <c r="G83" s="0" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="I83" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="E83" s="2" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="E84" s="0" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="I84" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="E84" s="2" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="E85" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I84" s="2" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="E86" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="I86" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E86" s="0" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="I86" s="0" t="s">
+      <c r="E87" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="I87" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4860,66 +5018,72 @@
         <v>8</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="I88" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="E88" s="0" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I88" s="0" t="s">
+      <c r="E89" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="I89" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E89" s="0" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="I89" s="0" t="s">
+      <c r="E90" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="F90" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="G90" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I90" s="0" t="s">
+      <c r="I90" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I91" s="0" t="s">
+      <c r="I91" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4928,7 +5092,7 @@
         <v>8</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>267</v>
@@ -4940,20 +5104,20 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I93" s="0" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4962,7 +5126,7 @@
         <v>8</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>273</v>
@@ -4979,7 +5143,7 @@
         <v>8</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>276</v>
@@ -4996,16 +5160,16 @@
         <v>8</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>279</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5013,16 +5177,16 @@
         <v>8</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5030,33 +5194,33 @@
         <v>8</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E99" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="I99" s="0" t="s">
         <v>288</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,16 +5228,16 @@
         <v>8</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5081,16 +5245,16 @@
         <v>8</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5098,16 +5262,16 @@
         <v>8</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E102" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="I102" s="0" t="s">
         <v>296</v>
-      </c>
-      <c r="I102" s="0" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,7 +5279,7 @@
         <v>8</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>298</v>
@@ -5132,7 +5296,7 @@
         <v>8</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>301</v>
@@ -5149,7 +5313,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>304</v>
@@ -5166,7 +5330,7 @@
         <v>8</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>307</v>
@@ -5183,7 +5347,7 @@
         <v>8</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>310</v>
@@ -5200,16 +5364,16 @@
         <v>8</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5217,16 +5381,16 @@
         <v>8</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5234,50 +5398,50 @@
         <v>8</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E111" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="E111" s="0" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I111" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E112" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="E112" s="0" t="s">
         <v>326</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5285,16 +5449,16 @@
         <v>8</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5302,10 +5466,10 @@
         <v>8</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E114" s="0" t="s">
         <v>331</v>
@@ -5319,7 +5483,7 @@
         <v>8</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>333</v>
@@ -5336,55 +5500,49 @@
         <v>8</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F117" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="G117" s="2" t="s">
         <v>340</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I118" s="0" t="s">
+      <c r="I118" s="2" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5393,7 +5551,7 @@
         <v>8</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>345</v>
@@ -5410,7 +5568,7 @@
         <v>8</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>348</v>
@@ -5427,16 +5585,16 @@
         <v>8</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="E121" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="I121" s="0" t="s">
         <v>353</v>
-      </c>
-      <c r="I121" s="0" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5444,32 +5602,38 @@
         <v>8</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>351</v>
+        <v>187</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E122" s="0" t="s">
+      <c r="E123" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="I122" s="0" t="s">
+      <c r="F123" s="0" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="G123" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E123" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="I123" s="0" t="s">
+      <c r="I123" s="2" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5478,7 +5642,7 @@
         <v>8</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>351</v>
+        <v>187</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>360</v>
@@ -5495,7 +5659,7 @@
         <v>8</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>351</v>
+        <v>187</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>363</v>
@@ -5512,16 +5676,16 @@
         <v>8</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>351</v>
+        <v>187</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5529,16 +5693,16 @@
         <v>8</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5546,16 +5710,16 @@
         <v>8</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5563,16 +5727,16 @@
         <v>8</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5580,16 +5744,16 @@
         <v>8</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5597,16 +5761,16 @@
         <v>8</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5614,16 +5778,16 @@
         <v>8</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5631,16 +5795,16 @@
         <v>8</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5648,16 +5812,16 @@
         <v>8</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5665,16 +5829,16 @@
         <v>8</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5682,16 +5846,16 @@
         <v>8</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5699,16 +5863,16 @@
         <v>8</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5716,16 +5880,16 @@
         <v>8</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5733,16 +5897,16 @@
         <v>8</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5750,16 +5914,16 @@
         <v>8</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5767,16 +5931,16 @@
         <v>8</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5784,16 +5948,16 @@
         <v>8</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5801,16 +5965,16 @@
         <v>8</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5818,16 +5982,16 @@
         <v>8</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5835,16 +5999,16 @@
         <v>8</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5852,16 +6016,16 @@
         <v>8</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5869,16 +6033,16 @@
         <v>8</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5886,16 +6050,16 @@
         <v>8</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,16 +6067,16 @@
         <v>8</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,16 +6084,16 @@
         <v>8</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5937,16 +6101,16 @@
         <v>8</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5954,16 +6118,16 @@
         <v>8</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5971,16 +6135,16 @@
         <v>8</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5988,16 +6152,16 @@
         <v>8</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6005,16 +6169,16 @@
         <v>8</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6022,16 +6186,16 @@
         <v>8</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6039,16 +6203,16 @@
         <v>8</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6056,16 +6220,16 @@
         <v>8</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6073,16 +6237,16 @@
         <v>8</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6090,10 +6254,10 @@
         <v>8</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E160" s="0" t="s">
         <v>451</v>
@@ -6107,16 +6271,16 @@
         <v>8</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>453</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>45</v>
+        <v>454</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6124,16 +6288,16 @@
         <v>8</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6141,16 +6305,16 @@
         <v>8</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6158,16 +6322,16 @@
         <v>8</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6175,16 +6339,16 @@
         <v>8</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6192,16 +6356,16 @@
         <v>8</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6209,16 +6373,16 @@
         <v>8</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>468</v>
+        <v>59</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>469</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6226,16 +6390,16 @@
         <v>8</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6243,16 +6407,16 @@
         <v>8</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6260,16 +6424,16 @@
         <v>8</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>127</v>
+        <v>478</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>128</v>
+        <v>479</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,16 +6441,16 @@
         <v>8</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6294,16 +6458,16 @@
         <v>8</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6311,16 +6475,16 @@
         <v>8</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6328,16 +6492,16 @@
         <v>8</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6345,16 +6509,16 @@
         <v>8</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6362,16 +6526,16 @@
         <v>8</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>491</v>
+        <v>141</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>492</v>
+        <v>142</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6379,16 +6543,16 @@
         <v>8</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6396,16 +6560,16 @@
         <v>8</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6413,13 +6577,13 @@
         <v>8</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I179" s="0" t="s">
         <v>500</v>
@@ -6430,7 +6594,7 @@
         <v>8</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>501</v>
@@ -6447,7 +6611,7 @@
         <v>8</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>504</v>
@@ -6464,16 +6628,16 @@
         <v>8</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6481,16 +6645,16 @@
         <v>8</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6498,16 +6662,16 @@
         <v>8</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6515,16 +6679,16 @@
         <v>8</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6532,16 +6696,16 @@
         <v>8</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6549,16 +6713,16 @@
         <v>8</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6566,16 +6730,16 @@
         <v>8</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E188" s="0" t="s">
         <v>525</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6583,16 +6747,16 @@
         <v>8</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C189" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E189" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="E189" s="0" t="s">
+      <c r="I189" s="0" t="s">
         <v>528</v>
-      </c>
-      <c r="I189" s="0" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6600,16 +6764,16 @@
         <v>8</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C190" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E190" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="E190" s="0" t="s">
+      <c r="I190" s="0" t="s">
         <v>531</v>
-      </c>
-      <c r="I190" s="0" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6617,7 +6781,7 @@
         <v>8</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>533</v>
@@ -6634,7 +6798,7 @@
         <v>8</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>536</v>
@@ -6651,7 +6815,7 @@
         <v>8</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>539</v>
@@ -6668,7 +6832,7 @@
         <v>8</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>542</v>
@@ -6685,7 +6849,7 @@
         <v>8</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>545</v>
@@ -6702,7 +6866,7 @@
         <v>8</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>548</v>
@@ -6719,7 +6883,7 @@
         <v>8</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>551</v>
@@ -6736,7 +6900,7 @@
         <v>8</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>554</v>
@@ -6753,7 +6917,7 @@
         <v>8</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>557</v>
@@ -6770,7 +6934,7 @@
         <v>8</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>560</v>
@@ -6787,7 +6951,7 @@
         <v>8</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>563</v>
@@ -6804,7 +6968,7 @@
         <v>8</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>566</v>
@@ -6821,7 +6985,7 @@
         <v>8</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>569</v>
@@ -6838,7 +7002,7 @@
         <v>8</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>572</v>
@@ -6855,7 +7019,7 @@
         <v>8</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>575</v>
@@ -6872,7 +7036,7 @@
         <v>8</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>578</v>
@@ -6889,7 +7053,7 @@
         <v>8</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>581</v>
@@ -6906,7 +7070,7 @@
         <v>8</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>584</v>
@@ -6923,7 +7087,7 @@
         <v>8</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>587</v>
@@ -6940,7 +7104,7 @@
         <v>8</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>590</v>
@@ -6957,16 +7121,16 @@
         <v>8</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>101</v>
+        <v>593</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6974,16 +7138,16 @@
         <v>8</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6991,16 +7155,16 @@
         <v>8</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7008,16 +7172,16 @@
         <v>8</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7025,16 +7189,16 @@
         <v>8</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7042,16 +7206,16 @@
         <v>8</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7059,16 +7223,16 @@
         <v>8</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>609</v>
+        <v>115</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7076,10 +7240,10 @@
         <v>8</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E218" s="0" t="s">
         <v>613</v>
@@ -7088,20 +7252,20 @@
         <v>614</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E219" s="2" t="s">
+      <c r="E219" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="I219" s="2" t="s">
+      <c r="I219" s="0" t="s">
         <v>617</v>
       </c>
     </row>
@@ -7110,7 +7274,7 @@
         <v>8</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>618</v>
@@ -7127,7 +7291,7 @@
         <v>8</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>621</v>
@@ -7144,7 +7308,7 @@
         <v>8</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>624</v>
@@ -7161,7 +7325,7 @@
         <v>8</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>627</v>
@@ -7178,7 +7342,7 @@
         <v>8</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>630</v>
@@ -7190,20 +7354,20 @@
         <v>632</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="E225" s="0" t="s">
+      <c r="E225" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="I225" s="0" t="s">
+      <c r="I225" s="2" t="s">
         <v>635</v>
       </c>
     </row>
@@ -7212,7 +7376,7 @@
         <v>8</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>636</v>
@@ -7229,7 +7393,7 @@
         <v>8</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>639</v>
@@ -7237,11 +7401,8 @@
       <c r="E227" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="G227" s="0" t="s">
+      <c r="I227" s="0" t="s">
         <v>641</v>
-      </c>
-      <c r="I227" s="0" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7249,16 +7410,16 @@
         <v>8</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C228" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E228" s="0" t="s">
         <v>643</v>
       </c>
-      <c r="E228" s="0" t="s">
+      <c r="I228" s="0" t="s">
         <v>644</v>
-      </c>
-      <c r="I228" s="0" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7266,16 +7427,16 @@
         <v>8</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C229" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E229" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="E229" s="0" t="s">
+      <c r="I229" s="0" t="s">
         <v>647</v>
-      </c>
-      <c r="I229" s="0" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7283,16 +7444,16 @@
         <v>8</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E230" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="I230" s="0" t="s">
         <v>650</v>
-      </c>
-      <c r="E230" s="0" t="s">
-        <v>651</v>
-      </c>
-      <c r="I230" s="0" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7300,16 +7461,16 @@
         <v>8</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>649</v>
+        <v>532</v>
       </c>
       <c r="C231" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="I231" s="0" t="s">
         <v>653</v>
-      </c>
-      <c r="E231" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="I231" s="0" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7317,16 +7478,16 @@
         <v>8</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>649</v>
+        <v>532</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="I232" s="0" t="s">
         <v>656</v>
-      </c>
-      <c r="E232" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="I232" s="0" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7334,16 +7495,19 @@
         <v>8</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>649</v>
+        <v>532</v>
       </c>
       <c r="C233" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="G233" s="0" t="s">
         <v>659</v>
       </c>
-      <c r="E233" s="0" t="s">
+      <c r="I233" s="0" t="s">
         <v>660</v>
-      </c>
-      <c r="I233" s="0" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7351,16 +7515,16 @@
         <v>8</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>649</v>
+        <v>532</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E234" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="E234" s="0" t="s">
+      <c r="I234" s="0" t="s">
         <v>663</v>
-      </c>
-      <c r="I234" s="0" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7368,22 +7532,16 @@
         <v>8</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>649</v>
+        <v>532</v>
       </c>
       <c r="C235" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E235" s="0" t="s">
         <v>665</v>
       </c>
-      <c r="E235" s="0" t="s">
+      <c r="I235" s="0" t="s">
         <v>666</v>
-      </c>
-      <c r="F235" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="G235" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="I235" s="0" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7391,22 +7549,16 @@
         <v>8</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C236" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="I236" s="0" t="s">
         <v>670</v>
-      </c>
-      <c r="E236" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="F236" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="G236" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="I236" s="0" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7414,16 +7566,16 @@
         <v>8</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7431,22 +7583,16 @@
         <v>8</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="F238" s="0" t="s">
-        <v>679</v>
-      </c>
-      <c r="G238" s="0" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7454,16 +7600,16 @@
         <v>8</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7471,16 +7617,16 @@
         <v>8</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7488,22 +7634,22 @@
         <v>8</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7511,19 +7657,22 @@
         <v>8</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>694</v>
+        <v>688</v>
+      </c>
+      <c r="F242" s="0" t="s">
+        <v>689</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7531,33 +7680,39 @@
         <v>8</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C243" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="I243" s="0" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E244" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="F244" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="E243" s="0" t="s">
+      <c r="G244" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="I243" s="0" t="s">
+      <c r="I244" s="0" t="s">
         <v>699</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="I244" s="2" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7565,16 +7720,16 @@
         <v>8</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I245" s="0" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7582,49 +7737,58 @@
         <v>8</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C246" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="I246" s="0" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E246" s="0" t="s">
+      <c r="E247" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="I246" s="0" t="s">
+      <c r="F247" s="0" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="247" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C247" s="1" t="s">
+      <c r="G247" s="0" t="s">
         <v>709</v>
       </c>
-      <c r="E247" s="2" t="s">
+      <c r="I247" s="0" t="s">
         <v>710</v>
       </c>
-      <c r="I247" s="2" t="s">
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="248" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C248" s="1" t="s">
+      <c r="E248" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="E248" s="2" t="s">
+      <c r="G248" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="I248" s="2" t="s">
+      <c r="I248" s="0" t="s">
         <v>714</v>
       </c>
     </row>
@@ -7633,7 +7797,7 @@
         <v>8</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>715</v>
@@ -7645,20 +7809,20 @@
         <v>717</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="E250" s="0" t="s">
+      <c r="E250" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="I250" s="0" t="s">
+      <c r="I250" s="2" t="s">
         <v>720</v>
       </c>
     </row>
@@ -7667,7 +7831,7 @@
         <v>8</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>721</v>
@@ -7684,7 +7848,7 @@
         <v>8</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>724</v>
@@ -7696,37 +7860,37 @@
         <v>726</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="E253" s="0" t="s">
+      <c r="E253" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="I253" s="0" t="s">
+      <c r="I253" s="2" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="E254" s="0" t="s">
+      <c r="E254" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="I254" s="0" t="s">
+      <c r="I254" s="2" t="s">
         <v>732</v>
       </c>
     </row>
@@ -7735,7 +7899,7 @@
         <v>8</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>733</v>
@@ -7752,7 +7916,7 @@
         <v>8</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>736</v>
@@ -7769,7 +7933,7 @@
         <v>8</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>739</v>
@@ -7786,7 +7950,7 @@
         <v>8</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>742</v>
@@ -7803,7 +7967,7 @@
         <v>8</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>745</v>
@@ -7820,7 +7984,7 @@
         <v>8</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>748</v>
@@ -7837,7 +8001,7 @@
         <v>8</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>751</v>
@@ -7854,7 +8018,7 @@
         <v>8</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>754</v>
@@ -7871,7 +8035,7 @@
         <v>8</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>757</v>
@@ -7888,7 +8052,7 @@
         <v>8</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>760</v>
@@ -7905,7 +8069,7 @@
         <v>8</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>763</v>
@@ -7914,7 +8078,7 @@
         <v>764</v>
       </c>
       <c r="I265" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7922,16 +8086,16 @@
         <v>8</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="I266" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7939,16 +8103,16 @@
         <v>8</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I267" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7956,16 +8120,16 @@
         <v>8</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I268" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7973,16 +8137,16 @@
         <v>8</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="I269" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7990,16 +8154,16 @@
         <v>8</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="I270" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8007,16 +8171,16 @@
         <v>8</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>153</v>
+        <v>781</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>153</v>
+        <v>782</v>
       </c>
       <c r="I271" s="0" t="s">
-        <v>154</v>
+        <v>782</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8024,19 +8188,16 @@
         <v>8</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="G272" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="I272" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8044,16 +8205,16 @@
         <v>8</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>784</v>
+        <v>667</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="I273" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8061,16 +8222,16 @@
         <v>8</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>784</v>
+        <v>667</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="I274" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8078,16 +8239,16 @@
         <v>8</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>784</v>
+        <v>667</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I275" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8095,16 +8256,16 @@
         <v>8</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>784</v>
+        <v>667</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I276" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8112,16 +8273,16 @@
         <v>8</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>784</v>
+        <v>667</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>797</v>
+        <v>170</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>798</v>
+        <v>170</v>
       </c>
       <c r="I277" s="0" t="s">
-        <v>799</v>
+        <v>171</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8129,16 +8290,19 @@
         <v>8</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>784</v>
+        <v>667</v>
       </c>
       <c r="C278" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E278" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="G278" s="0" t="s">
         <v>800</v>
       </c>
-      <c r="E278" s="0" t="s">
+      <c r="I278" s="0" t="s">
         <v>801</v>
-      </c>
-      <c r="I278" s="0" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8146,16 +8310,16 @@
         <v>8</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>784</v>
+        <v>667</v>
       </c>
       <c r="C279" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E279" s="0" t="s">
         <v>803</v>
       </c>
-      <c r="E279" s="0" t="s">
+      <c r="I279" s="0" t="s">
         <v>804</v>
-      </c>
-      <c r="I279" s="0" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8163,16 +8327,16 @@
         <v>8</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>784</v>
+        <v>667</v>
       </c>
       <c r="C280" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E280" s="0" t="s">
         <v>806</v>
       </c>
-      <c r="E280" s="0" t="s">
+      <c r="I280" s="0" t="s">
         <v>807</v>
-      </c>
-      <c r="I280" s="0" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8180,16 +8344,16 @@
         <v>8</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>784</v>
+        <v>667</v>
       </c>
       <c r="C281" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E281" s="0" t="s">
         <v>809</v>
       </c>
-      <c r="E281" s="0" t="s">
+      <c r="I281" s="0" t="s">
         <v>810</v>
-      </c>
-      <c r="I281" s="0" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8197,29 +8361,32 @@
         <v>8</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>784</v>
+        <v>667</v>
       </c>
       <c r="C282" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E282" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="E282" s="0" t="s">
+      <c r="G282" s="0" t="s">
         <v>813</v>
       </c>
       <c r="I282" s="0" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>784</v>
+        <v>667</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="E283" s="0" t="s">
+      <c r="E283" s="2" t="s">
         <v>816</v>
       </c>
       <c r="I283" s="0" t="s">
@@ -8231,7 +8398,7 @@
         <v>8</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>784</v>
+        <v>667</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>818</v>
@@ -8248,7 +8415,7 @@
         <v>8</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>784</v>
+        <v>667</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>821</v>
@@ -8265,16 +8432,13 @@
         <v>8</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>784</v>
+        <v>667</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="E286" s="0" t="s">
+      <c r="G286" s="0" t="s">
         <v>825</v>
-      </c>
-      <c r="I286" s="0" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8282,7 +8446,7 @@
         <v>8</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>827</v>
@@ -8299,7 +8463,7 @@
         <v>8</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>830</v>
@@ -8316,7 +8480,7 @@
         <v>8</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>833</v>
@@ -8333,7 +8497,7 @@
         <v>8</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>836</v>
@@ -8350,7 +8514,7 @@
         <v>8</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>839</v>
@@ -8367,7 +8531,7 @@
         <v>8</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>842</v>
@@ -8384,7 +8548,7 @@
         <v>8</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>845</v>
@@ -8401,7 +8565,7 @@
         <v>8</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>848</v>
@@ -8418,7 +8582,7 @@
         <v>8</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>851</v>
@@ -8435,16 +8599,16 @@
         <v>8</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="E296" s="0" t="s">
         <v>855</v>
       </c>
-      <c r="E296" s="0" t="s">
+      <c r="I296" s="0" t="s">
         <v>856</v>
-      </c>
-      <c r="I296" s="0" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8452,16 +8616,16 @@
         <v>8</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="C297" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="E297" s="0" t="s">
         <v>858</v>
       </c>
-      <c r="E297" s="0" t="s">
+      <c r="I297" s="0" t="s">
         <v>859</v>
-      </c>
-      <c r="I297" s="0" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8469,10 +8633,10 @@
         <v>8</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E298" s="0" t="s">
         <v>861</v>
@@ -8486,7 +8650,7 @@
         <v>8</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>863</v>
@@ -8503,7 +8667,7 @@
         <v>8</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>866</v>
@@ -8520,7 +8684,7 @@
         <v>8</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>869</v>
@@ -8537,7 +8701,7 @@
         <v>8</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>872</v>
@@ -8554,7 +8718,7 @@
         <v>8</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>875</v>
@@ -8571,7 +8735,7 @@
         <v>8</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>878</v>
@@ -8588,7 +8752,7 @@
         <v>8</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>881</v>
@@ -8605,7 +8769,7 @@
         <v>8</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>884</v>
@@ -8622,7 +8786,7 @@
         <v>8</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>887</v>
@@ -8634,20 +8798,20 @@
         <v>889</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="E308" s="2" t="s">
+      <c r="E308" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="I308" s="2" t="s">
+      <c r="I308" s="0" t="s">
         <v>892</v>
       </c>
     </row>
@@ -8656,7 +8820,7 @@
         <v>8</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>893</v>
@@ -8673,16 +8837,16 @@
         <v>8</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I310" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8690,16 +8854,16 @@
         <v>8</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I311" s="0" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8707,16 +8871,16 @@
         <v>8</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I312" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8724,16 +8888,16 @@
         <v>8</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I313" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8741,16 +8905,16 @@
         <v>8</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="I314" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8758,16 +8922,16 @@
         <v>8</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I315" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8775,16 +8939,16 @@
         <v>8</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="I316" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8792,16 +8956,16 @@
         <v>8</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="I317" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8809,16 +8973,16 @@
         <v>8</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="I318" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8826,16 +8990,16 @@
         <v>8</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I319" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8843,16 +9007,16 @@
         <v>8</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I320" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8860,33 +9024,33 @@
         <v>8</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I321" s="0" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="E322" s="0" t="s">
         <v>932</v>
       </c>
-      <c r="I322" s="0" t="s">
+      <c r="E322" s="2" t="s">
         <v>933</v>
+      </c>
+      <c r="I322" s="2" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8894,16 +9058,16 @@
         <v>8</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="I323" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8911,16 +9075,16 @@
         <v>8</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I324" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8928,16 +9092,16 @@
         <v>8</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C325" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="E325" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="I325" s="0" t="s">
         <v>940</v>
-      </c>
-      <c r="E325" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="I325" s="0" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8945,16 +9109,16 @@
         <v>8</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="E326" s="0" t="s">
         <v>944</v>
       </c>
-      <c r="E326" s="0" t="s">
+      <c r="I326" s="0" t="s">
         <v>945</v>
-      </c>
-      <c r="I326" s="0" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8962,16 +9126,16 @@
         <v>8</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>943</v>
+        <v>896</v>
       </c>
       <c r="C327" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="E327" s="0" t="s">
         <v>947</v>
       </c>
-      <c r="E327" s="0" t="s">
+      <c r="I327" s="0" t="s">
         <v>948</v>
-      </c>
-      <c r="I327" s="0" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8979,208 +9143,211 @@
         <v>8</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>943</v>
+        <v>896</v>
       </c>
       <c r="C328" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E328" s="0" t="s">
         <v>950</v>
       </c>
-      <c r="E328" s="0" t="s">
+      <c r="I328" s="0" t="s">
         <v>951</v>
-      </c>
-      <c r="I328" s="0" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="E329" s="0" t="s">
         <v>953</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="I329" s="0" t="s">
         <v>954</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="E329" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="I329" s="0" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>953</v>
+        <v>8</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>954</v>
+        <v>896</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E330" s="0" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="I330" s="0" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>953</v>
+        <v>8</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>954</v>
+        <v>896</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="I331" s="0" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>953</v>
+        <v>8</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>954</v>
+        <v>896</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="I332" s="0" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>953</v>
+        <v>8</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>954</v>
+        <v>896</v>
       </c>
       <c r="C333" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="E333" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="I333" s="0" t="s">
         <v>966</v>
-      </c>
-      <c r="E333" s="0" t="s">
-        <v>967</v>
-      </c>
-      <c r="I333" s="0" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>953</v>
+        <v>8</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>954</v>
+        <v>896</v>
       </c>
       <c r="C334" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E334" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="I334" s="0" t="s">
         <v>969</v>
-      </c>
-      <c r="E334" s="0" t="s">
-        <v>970</v>
-      </c>
-      <c r="I334" s="0" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>953</v>
+        <v>8</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>954</v>
+        <v>896</v>
       </c>
       <c r="C335" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="E335" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="I335" s="0" t="s">
         <v>972</v>
-      </c>
-      <c r="E335" s="0" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>953</v>
+        <v>8</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>954</v>
+        <v>896</v>
       </c>
       <c r="C336" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E336" s="0" t="s">
         <v>974</v>
       </c>
-      <c r="E336" s="0" t="s">
+      <c r="I336" s="0" t="s">
         <v>975</v>
-      </c>
-      <c r="I336" s="0" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>953</v>
+        <v>8</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>954</v>
+        <v>896</v>
       </c>
       <c r="C337" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="E337" s="0" t="s">
         <v>977</v>
       </c>
-      <c r="E337" s="0" t="s">
+      <c r="I337" s="0" t="s">
         <v>978</v>
-      </c>
-      <c r="I337" s="0" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>953</v>
+        <v>8</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>954</v>
+        <v>896</v>
       </c>
       <c r="C338" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E338" s="0" t="s">
         <v>980</v>
       </c>
-      <c r="E338" s="0" t="s">
+      <c r="I338" s="0" t="s">
         <v>981</v>
-      </c>
-      <c r="I338" s="0" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>953</v>
+        <v>8</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>954</v>
+        <v>896</v>
       </c>
       <c r="C339" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E339" s="0" t="s">
         <v>983</v>
       </c>
-      <c r="E339" s="0" t="s">
+      <c r="I339" s="0" t="s">
         <v>984</v>
-      </c>
-      <c r="I339" s="0" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>953</v>
+        <v>8</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>954</v>
+        <v>985</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>986</v>
@@ -9194,10 +9361,10 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>953</v>
+        <v>8</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>954</v>
+        <v>985</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>989</v>
@@ -9211,10 +9378,10 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>953</v>
+        <v>8</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>954</v>
+        <v>985</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>992</v>
@@ -9228,84 +9395,350 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>953</v>
+        <v>995</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>954</v>
+        <v>996</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>995</v>
+        <v>998</v>
+      </c>
+      <c r="I343" s="0" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>953</v>
+        <v>995</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>954</v>
+        <v>996</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="E344" s="0" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="I344" s="0" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>953</v>
+        <v>995</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>954</v>
+        <v>996</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="I345" s="0" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>953</v>
+        <v>995</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>954</v>
+        <v>996</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="E346" s="0" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="I346" s="0" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>953</v>
+        <v>995</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>954</v>
+        <v>996</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="I347" s="0" t="s">
-        <v>1006</v>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E348" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I348" s="0" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E349" s="0" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E350" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I350" s="0" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E351" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I351" s="0" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E352" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I352" s="0" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E353" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I353" s="0" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E354" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I354" s="0" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E355" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I355" s="0" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E356" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I356" s="0" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E357" s="0" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E358" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I358" s="0" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E359" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I359" s="0" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E360" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I360" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E361" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I361" s="0" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E362" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I362" s="0" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E363" s="0" t="s">
+        <v>1052</v>
       </c>
     </row>
   </sheetData>

--- a/docs/invariant/translations.xlsx
+++ b/docs/invariant/translations.xlsx
@@ -144,7 +144,7 @@
   <si>
     <t xml:space="preserve">Learn8 your way does not knowingly collect any data about its users, neither for itself nor for third parties. Concrete intentions:
 - If you create an account, your data is stored only on your device - not online.
-- The app will not connect to the internet by default (but if you choose to synchronize via Dropbox for example, a connection to the internet must be made and to Dropbox will store your data).
+- The app will not connect to the internet by default (but if you choose to synchronize via Dropbox for example, a connection to the internet must be made and Dropbox will store your data).
 However:
 - Even though Learn8 your way intends to provide safe software, remember that no method of transmission over the internet, or method of electronic storage is 100% secure and reliable, and Learn8 your way cannot guarantee its absolute security. Therefore, you should never use Learn8 your way for learning things that contain sensitive data. Learn8 your way cannot be held accountable for any form of data collection, data theft, or any form of damage, etcetera, by any party.
 - Even if you choose to share your learn items via a .learn8 file, the intention of Learn8 your way is to keep you anonymous - Learn8 your way does not knowingly add data to ".learn8 files for sharing" that can be traced back to you (unless you add it yourself or your means of distribution results in traceability). Despite this intention, mistakes can be made or bad design may yield unwanted results. If you choose to use the option to share data, you acknowledge this risk and you will not hold Learn8 your way accountable for it.
@@ -156,7 +156,7 @@
 - De app zal standaard geen verbinding maken met internet (maar als je er bijvoorbeeld voor kiest om te synchroniseren via Dropbox, dan zal er verbinding met internet gemaakt moeten worden en zal er wel data door Dropbox opgeslagen worden).
 Desondanks:
 - Hoewel Learn8 your way probeert om veilige software te leveren, onthoud dat geen enkele vorm van verbinden met internet of vorm van elektronische opslag 100% veilig en betrouwbaar is, en dat dus ook Learn8 your way geen absolute veiligheid kan garanderen. Gebruik Learn8 your way daarom niet voor het leren van iets dat gevoelige informatie bevat. Learn8 your way kan niet verantwoordelijk worden gehouden voor enige vorm van dataverzameling, data diefstal, of schade in enige vorm, etcetera, door welke partij dan ook.
-- Zelfs als je ervoor kiest om je learn8 items te delen via een .learn8 file, is de intentie van Learn8 your way om jou anoniem te laten; Learn8 your way voegt geen data toe aan ".learn8 files voor delen" die kan worden herleid tot jou (tenzij je dat er zelf bewust aan toevoegt of de wijze van distributie voor traceerbaarheid zorgt). Ondanks deze intentie kunnen fouten of slecht ontwerp resulteren in ongewenste werking; Learn8 your way kan privacy niet garanderen als je data deelt. Als je gebruikt maakt van de optie om data te delen, dan erken je het risico en zal je Learn8 your way daarvoor niet verantwoordelijk stellen.
+- Zelfs als je ervoor kiest om je learn8 items te delen via een .learn8 file, is de intentie van Learn8 your way om jou anoniem te laten; Learn8 your way voegt geen data toe aan ".learn8 files voor delen" die kan worden herleid tot jou (tenzij je dat er zelf bewust aan toevoegt of de wijze van distributie voor traceerbaarheid zorgt). Ondanks deze intentie kunnen fouten of slecht ontwerp resulteren in ongewenste werking; Learn8 your way kan privacy niet garanderen als je data deelt. Als je gebruik maakt van de optie om data te delen, dan erken je het risico en zal je Learn8 your way daarvoor niet verantwoordelijk stellen.
 - Hoewel Learn8 your way probeert om een stabiele leeromgeving aan te bieden met volledige achterwaartse compatibiliteit, kunnen fouten of slecht ontwerp resulteren in ongewenste werking van de app of zelfs tot bewuste wijzigingen die compatibiliteitsproblemen kunnen geven. Learn8 your way kan niet verantwoordelijk worden gehouden voor enige vorm van dataverlies, onbruikbaarheid van data of schade in enige vorm, etcetera, voor welke partij dan ook.</t>
   </si>
   <si>
@@ -2671,16 +2671,16 @@
     <t xml:space="preserve">PhyscialKeyboardQuestion</t>
   </si>
   <si>
-    <t xml:space="preserve">When using the virtual math keyboard, you can - for example - make a fraction by just typing "/" on the physical keyboard. (Note: if this setting is turned on while not having a physical keyboard attached, then two virtual keyboards might appear.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wanneer je het virtuele wiskundige toetsenbord gebruikt, kun je bijvoorbeeld via het intypen van "/" een breuk maken. (Let op: als je deze instelling aan hebt staan terwijl er geen fysiek toetsenbord is aangesloten, dan kunnen er twee virtuele toetsenborden verschijnen.)</t>
+    <t xml:space="preserve">When using the virtual math keyboard, you can still use a physical keyboard and - for example - make a fraction by just pressing "/". (Note: if this setting is turned on while not having a physical keyboard attached, then two virtual keyboards might appear.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wanneer je het virtuele wiskundige toetsenbord gebruikt, kun je nog steeds een fysiek toetsenbord gebruiken en bijvoorbeeld via het intypen van "/" een breuk maken. (Let op: als je deze instelling aan hebt staan terwijl er geen fysiek toetsenbord is aangesloten, dan kunnen er twee virtuele toetsenborden verschijnen.)</t>
   </si>
   <si>
     <t xml:space="preserve">PhyscialKeyboard_Allowed</t>
   </si>
   <si>
-    <t xml:space="preserve">When using the virtual maths keyboard, you can - for example - make a fraction by just typing "/" on the physical keyboard. (Note: if this setting is turned on while not having a physical keyboard attached, then two virtual keyboards might appear.)</t>
+    <t xml:space="preserve">When using the virtual maths keyboard, you can still use a physical keyboard and - for example - make a fraction by just pressing "/". (Note: if this setting is turned on while not having a physical keyboard attached, then two virtual keyboards might appear.)</t>
   </si>
   <si>
     <t xml:space="preserve">_LanguageResources\Tags</t>
@@ -3471,7 +3471,7 @@
   <dimension ref="A1:I363"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/docs/invariant/translations.xlsx
+++ b/docs/invariant/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="1070">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -556,6 +556,12 @@
     <t xml:space="preserve">Wiskunde</t>
   </si>
   <si>
+    <t xml:space="preserve">Hmmm__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmmm...</t>
+  </si>
+  <si>
     <t xml:space="preserve">_LanguageResources\Installation</t>
   </si>
   <si>
@@ -914,42 +920,54 @@
   </si>
   <si>
     <t xml:space="preserve">This text (optionally with images) or image without text asks the user to give an answer.
-For language learning, the Question will probably only be a word or a "chunk". 
+If the Question should be visible only 1 second (for example), type the following line:
+L8_MILLISECONDS = 1000
+The user can still type an answer into the textbox after that time.
+For language learning, the Question will probably only be a word or a "chunk".
+If you'd like to use HTML and CSS, use:
+begin html
+For learning vocabulary via sentences, you may like to &lt;span style="text-decoration: underline"&gt;underline&lt;/span&gt; text and use ______ (underscores).
+end html
 For math, you can use LaTeX like this:
 begin latex
 $$ \sin \frac{\pi}{x} = 1 $$
 end latex
-You can use $formula$ and \(formula\) for inline math and $$formula$$ and \[formula\] for display math.
+You can use $formula$ and \(formula\) for inline math and $$formula$$ and \[formula\] for display math.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..., mathS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This text (optionally with images) or image without text asks the user to give an answer.
 If the Question should be visible only 1 second (for example), type the following line:
 L8_MILLISECONDS = 1000
-The user can still type an answer into the textbox after that time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..., mathS,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This text (optionally with images) or image without text asks the user to give an answer.
+The user can still type an answer into the textbox after that time.
 For language learning, the Question will probably only be a word or a "chunk".
+If you'd like to use HTML and CSS, use:
+begin html
+For learning vocabulary via sentences, you may like to &lt;span style="text-decoration: underline"&gt;underline&lt;/span&gt; text and use ______ (underscores).
+end html
 For maths, you can use LaTeX like this:
 begin latex
 $$ \sin \frac{\pi}{x} = 1 $$
 end latex
-You can use $formula$ and \(formula\) for inline math and $$formula$$ and \[formula\] for display math.
-If the Question should be visible only 1 second (for example), type the following line:
+You can use $formula$ and \(formula\) for inline math and $$formula$$ and \[formula\] for display math.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deze text (eventueel met afbeeldingen) of afbeelding zonder text vraagt de gebruiker om antwoord te geven.
+Als de Vraag na (bijvoorbeeld) 1 seconde dient te verdwijnen, voeg dan de volgende regel toe:
 L8_MILLISECONDS = 1000
-The user can still type an answer into the textbox after that time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deze text (eventueel met afbeeldingen) of afbeelding zonder text vraagt de gebruiker om antwoord te geven.
+De gebruiker kan na die tijd nog wel een antwoord invoeren.
 Voor het leren van talen is de Vraag waarschijnlijk alleen een woord of een woordcombinatie (een "chunk").
+Als je HTML en CSS wil gebruiken:
+begin html
+Voor het leren van woordjes in zinsverband wil je misschien woorden &lt;span style="text-decoration: underline"&gt;onderstrepen&lt;/span&gt; en ______ (laagstreepsjes) gebruiken.
+end html
 Voor wiskunde kan LaTeX op de volgende manier gebruikt worden:
 begin latex
 $$ \sin \frac{\pi}{x} = 1 $$
 end latex
-Gebruik $formule$ of \(formule\) voor wiskundige tekens in de tekstregel; $$formule$$ en \[formule\] zetten wiskundige tekens op een speciale regel.
-Als de Vraag na (bijvoorbeeld) 1 seconde dient te verdwijnen, voeg dan de volgende regel toe:
-L8_MILLISECONDS = 1000
-De gebruiker kan na die tijd nog wel een antwoord invoeren.</t>
+Gebruik $formule$ of \(formule\) voor wiskundige tekens in de tekstregel; $$formule$$ en \[formule\] zetten wiskundige tekens op een speciale regel.</t>
   </si>
   <si>
     <t xml:space="preserve">Info_Tags</t>
@@ -2677,6 +2695,42 @@
     <t xml:space="preserve">Wanneer je het virtuele wiskundige toetsenbord gebruikt, kun je nog steeds een fysiek toetsenbord gebruiken en bijvoorbeeld via het intypen van "/" een breuk maken. (Let op: als je deze instelling aan hebt staan terwijl er geen fysiek toetsenbord is aangesloten, dan kunnen er twee virtuele toetsenborden verschijnen.)</t>
   </si>
   <si>
+    <t xml:space="preserve">Eq_MyAnswerIsTheSame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But... my answer is the same!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maar... mijn antwoord is hetzelfde!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eqs_Should_the_following_symbols_be_considered_equal_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should the following symbols be considered equal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zouden de volgende symbolen als gelijk beschouwd moeten worden?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eqs_If_your_answer_is_X_then_RedirectToSettings_UnicodeMaySurprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(If your answer is '{0}' then you will be redirected to the settings page, so that you can save these symbols should be considered equal. They are different according to Unicode.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Als je antwoord '{0}' is, dan wordt je doorverwezen naar de instellingenpagina, zodat je daar kan opslaan dat deze symbolen als gelijk kunnen worden beschouwd. Deze symbolen zijn verschillend volgens Unicode.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eqs_Which_of_the_following_answers_should_match_X_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following answers should match {0}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welk van de volgende antwoorden komt overeen met {0}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">PhyscialKeyboard_Allowed</t>
   </si>
   <si>
@@ -3168,7 +3222,7 @@
     <t xml:space="preserve">Development_Introduction</t>
   </si>
   <si>
-    <t xml:space="preserve">Learn8 your way is still in development. There are several ways you can help!</t>
+    <t xml:space="preserve">Learn8 your way keeps developing. There are several ways you can help!</t>
   </si>
   <si>
     <t xml:space="preserve">Learn8 your way is steeds in ontwikkeling. Als je wil meehelpen, dan kan dat!</t>
@@ -3190,6 +3244,15 @@
   </si>
   <si>
     <t xml:space="preserve">Bezoek {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You_may_have_found_a_bug_Please_report_it_via_X_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may have found a bug in this app. Please report it via {0}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je hebt misschien een fout in deze app ontdekt. Je kunt deze fout melden via {0}.</t>
   </si>
   <si>
     <t xml:space="preserve">learn8yourway.com</t>
@@ -3468,10 +3531,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I363"/>
+  <dimension ref="A1:I369"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4479,16 +4542,13 @@
         <v>8</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="E57" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,49 +4556,49 @@
         <v>8</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="I58" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="I58" s="0" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="I59" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="I59" s="2" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="I60" s="0" t="s">
+      <c r="I60" s="2" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4547,16 +4607,16 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>172</v>
       </c>
       <c r="E61" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I61" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4564,16 +4624,16 @@
         <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="I62" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,16 +4641,16 @@
         <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="I63" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4598,16 +4658,16 @@
         <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="I64" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4615,16 +4675,16 @@
         <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="I65" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,16 +4692,16 @@
         <v>8</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="I66" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4649,16 +4709,16 @@
         <v>8</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>191</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4666,13 +4726,13 @@
         <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I68" s="0" t="s">
         <v>193</v>
@@ -4683,7 +4743,7 @@
         <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>194</v>
@@ -4692,7 +4752,7 @@
         <v>194</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4700,16 +4760,16 @@
         <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>196</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4717,16 +4777,16 @@
         <v>8</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="I71" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,16 +4794,16 @@
         <v>8</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="I72" s="0" t="s">
         <v>202</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4751,16 +4811,16 @@
         <v>8</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="I73" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,16 +4828,16 @@
         <v>8</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E74" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="I74" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4785,16 +4845,16 @@
         <v>8</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E75" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="I75" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4802,16 +4862,16 @@
         <v>8</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E76" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="I76" s="0" t="s">
         <v>214</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4819,16 +4879,16 @@
         <v>8</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E77" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="I77" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4836,16 +4896,16 @@
         <v>8</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E78" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="I78" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,16 +4913,16 @@
         <v>8</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="I79" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,16 +4930,16 @@
         <v>8</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E80" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="I80" s="0" t="s">
         <v>226</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4887,56 +4947,50 @@
         <v>8</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E81" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="I81" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="I81" s="0" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="E82" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="I82" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="I82" s="2" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="E83" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="I83" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,164 +4998,170 @@
         <v>8</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="G84" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="I84" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="I84" s="0" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="E85" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="I85" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="I85" s="2" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="E86" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F86" s="2" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="G87" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I87" s="2" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="E88" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="I88" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="I88" s="0" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="E89" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="I89" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="I89" s="2" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="E90" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F90" s="0" t="s">
+    </row>
+    <row r="91" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="F91" s="0" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="G91" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I91" s="2" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="E92" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="I92" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5109,16 +5169,16 @@
         <v>8</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E93" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="I93" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5126,16 +5186,16 @@
         <v>8</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E94" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="I94" s="0" t="s">
         <v>274</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,16 +5203,16 @@
         <v>8</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E95" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="I95" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="I95" s="0" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,16 +5220,16 @@
         <v>8</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E96" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="I96" s="0" t="s">
         <v>280</v>
-      </c>
-      <c r="I96" s="0" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5177,16 +5237,16 @@
         <v>8</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E97" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="I97" s="0" t="s">
         <v>283</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5194,50 +5254,50 @@
         <v>8</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E98" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="I98" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="I98" s="0" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="E99" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="I99" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="I99" s="2" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="E100" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="I100" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I100" s="0" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,16 +5305,16 @@
         <v>8</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E101" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="I101" s="0" t="s">
         <v>295</v>
-      </c>
-      <c r="I101" s="0" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,16 +5322,16 @@
         <v>8</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E102" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="E102" s="0" t="s">
-        <v>295</v>
-      </c>
       <c r="I102" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,16 +5339,16 @@
         <v>8</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="I103" s="0" t="s">
         <v>298</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="I103" s="0" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5296,16 +5356,16 @@
         <v>8</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E104" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="I104" s="0" t="s">
         <v>302</v>
-      </c>
-      <c r="I104" s="0" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5313,16 +5373,16 @@
         <v>8</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E105" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="I105" s="0" t="s">
         <v>305</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5330,16 +5390,16 @@
         <v>8</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E106" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="I106" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="I106" s="0" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,16 +5407,16 @@
         <v>8</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E107" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="I107" s="0" t="s">
         <v>311</v>
-      </c>
-      <c r="I107" s="0" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5364,16 +5424,16 @@
         <v>8</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="I108" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="I108" s="0" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5381,16 +5441,16 @@
         <v>8</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E109" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="I109" s="0" t="s">
         <v>317</v>
-      </c>
-      <c r="I109" s="0" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5398,16 +5458,16 @@
         <v>8</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E110" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="I110" s="0" t="s">
         <v>320</v>
-      </c>
-      <c r="I110" s="0" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5415,16 +5475,16 @@
         <v>8</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E111" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="I111" s="0" t="s">
         <v>323</v>
-      </c>
-      <c r="I111" s="0" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,16 +5492,16 @@
         <v>8</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E112" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="I112" s="0" t="s">
         <v>326</v>
-      </c>
-      <c r="I112" s="0" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5449,16 +5509,16 @@
         <v>8</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E113" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="I113" s="0" t="s">
         <v>329</v>
-      </c>
-      <c r="I113" s="0" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5466,10 +5526,10 @@
         <v>8</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E114" s="0" t="s">
         <v>331</v>
@@ -5483,16 +5543,16 @@
         <v>8</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E115" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="I115" s="0" t="s">
         <v>334</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5500,67 +5560,67 @@
         <v>8</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E116" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="I116" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="I116" s="0" t="s">
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="E117" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="I117" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="I117" s="2" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="E118" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I118" s="2" t="s">
+    </row>
+    <row r="119" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="E119" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="I119" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5568,16 +5628,16 @@
         <v>8</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E120" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="E120" s="0" t="s">
+      <c r="I120" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="I120" s="0" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5585,16 +5645,16 @@
         <v>8</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E121" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="I121" s="0" t="s">
         <v>352</v>
-      </c>
-      <c r="I121" s="0" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5602,56 +5662,56 @@
         <v>8</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>354</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E123" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F123" s="0" t="s">
+      <c r="E123" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="F124" s="0" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="G124" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E124" s="0" t="s">
+      <c r="I124" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="I124" s="0" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5659,16 +5719,16 @@
         <v>8</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E125" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="E125" s="0" t="s">
+      <c r="I125" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5676,16 +5736,16 @@
         <v>8</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E126" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="E126" s="0" t="s">
+      <c r="I126" s="0" t="s">
         <v>367</v>
-      </c>
-      <c r="I126" s="0" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5693,16 +5753,16 @@
         <v>8</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E127" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="I127" s="0" t="s">
         <v>370</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="I127" s="0" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5710,16 +5770,16 @@
         <v>8</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E128" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="E128" s="0" t="s">
+      <c r="I128" s="0" t="s">
         <v>374</v>
-      </c>
-      <c r="I128" s="0" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,10 +5787,10 @@
         <v>8</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>376</v>
@@ -5744,16 +5804,16 @@
         <v>8</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E130" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="I130" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="I130" s="0" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5761,16 +5821,16 @@
         <v>8</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E131" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="I131" s="0" t="s">
         <v>382</v>
-      </c>
-      <c r="I131" s="0" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,10 +5838,10 @@
         <v>8</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E132" s="0" t="s">
         <v>384</v>
@@ -5795,7 +5855,7 @@
         <v>8</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>386</v>
@@ -5812,7 +5872,7 @@
         <v>8</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>388</v>
@@ -5829,7 +5889,7 @@
         <v>8</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>390</v>
@@ -5838,7 +5898,7 @@
         <v>390</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,16 +5906,16 @@
         <v>8</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E136" s="0" t="s">
         <v>392</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5863,10 +5923,10 @@
         <v>8</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E137" s="0" t="s">
         <v>394</v>
@@ -5880,16 +5940,16 @@
         <v>8</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>396</v>
       </c>
       <c r="E138" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="I138" s="0" t="s">
         <v>397</v>
-      </c>
-      <c r="I138" s="0" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5897,16 +5957,16 @@
         <v>8</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C139" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E139" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="E139" s="0" t="s">
+      <c r="I139" s="0" t="s">
         <v>400</v>
-      </c>
-      <c r="I139" s="0" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5914,16 +5974,16 @@
         <v>8</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E140" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="E140" s="0" t="s">
+      <c r="I140" s="0" t="s">
         <v>403</v>
-      </c>
-      <c r="I140" s="0" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5931,10 +5991,10 @@
         <v>8</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E141" s="0" t="s">
         <v>405</v>
@@ -5948,7 +6008,7 @@
         <v>8</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>407</v>
@@ -5965,16 +6025,16 @@
         <v>8</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>409</v>
       </c>
       <c r="E143" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="I143" s="0" t="s">
         <v>410</v>
-      </c>
-      <c r="I143" s="0" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5982,16 +6042,16 @@
         <v>8</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E144" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="E144" s="0" t="s">
+      <c r="I144" s="0" t="s">
         <v>413</v>
-      </c>
-      <c r="I144" s="0" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5999,16 +6059,16 @@
         <v>8</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E145" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="E145" s="0" t="s">
+      <c r="I145" s="0" t="s">
         <v>416</v>
-      </c>
-      <c r="I145" s="0" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,10 +6076,10 @@
         <v>8</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E146" s="0" t="s">
         <v>418</v>
@@ -6033,7 +6093,7 @@
         <v>8</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>420</v>
@@ -6050,16 +6110,16 @@
         <v>8</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>422</v>
       </c>
       <c r="E148" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="I148" s="0" t="s">
         <v>423</v>
-      </c>
-      <c r="I148" s="0" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6067,16 +6127,16 @@
         <v>8</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E149" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="E149" s="0" t="s">
+      <c r="I149" s="0" t="s">
         <v>426</v>
-      </c>
-      <c r="I149" s="0" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,16 +6144,16 @@
         <v>8</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C150" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E150" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="E150" s="0" t="s">
+      <c r="I150" s="0" t="s">
         <v>429</v>
-      </c>
-      <c r="I150" s="0" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6101,10 +6161,10 @@
         <v>8</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E151" s="0" t="s">
         <v>431</v>
@@ -6118,16 +6178,16 @@
         <v>8</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>433</v>
       </c>
       <c r="E152" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="I152" s="0" t="s">
         <v>434</v>
-      </c>
-      <c r="I152" s="0" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6135,16 +6195,16 @@
         <v>8</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E153" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="E153" s="0" t="s">
+      <c r="I153" s="0" t="s">
         <v>437</v>
-      </c>
-      <c r="I153" s="0" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6152,16 +6212,16 @@
         <v>8</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E154" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="E154" s="0" t="s">
+      <c r="I154" s="0" t="s">
         <v>440</v>
-      </c>
-      <c r="I154" s="0" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6169,16 +6229,16 @@
         <v>8</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E155" s="0" t="s">
         <v>442</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6186,16 +6246,16 @@
         <v>8</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6203,16 +6263,16 @@
         <v>8</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E157" s="0" t="s">
         <v>445</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6220,16 +6280,16 @@
         <v>8</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E158" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="E158" s="0" t="s">
+      <c r="I158" s="0" t="s">
         <v>448</v>
-      </c>
-      <c r="I158" s="0" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6237,16 +6297,16 @@
         <v>8</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E159" s="0" t="s">
         <v>450</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6254,13 +6314,13 @@
         <v>8</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I160" s="0" t="s">
         <v>452</v>
@@ -6271,7 +6331,7 @@
         <v>8</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>453</v>
@@ -6288,16 +6348,16 @@
         <v>8</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>455</v>
       </c>
       <c r="E162" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="I162" s="0" t="s">
         <v>456</v>
-      </c>
-      <c r="I162" s="0" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6305,16 +6365,16 @@
         <v>8</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E163" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="E163" s="0" t="s">
+      <c r="I163" s="0" t="s">
         <v>459</v>
-      </c>
-      <c r="I163" s="0" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6322,16 +6382,16 @@
         <v>8</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E164" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="E164" s="0" t="s">
+      <c r="I164" s="0" t="s">
         <v>462</v>
-      </c>
-      <c r="I164" s="0" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6339,16 +6399,16 @@
         <v>8</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E165" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="I165" s="0" t="s">
         <v>465</v>
-      </c>
-      <c r="E165" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="I165" s="0" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6356,16 +6416,16 @@
         <v>8</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E166" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="E166" s="0" t="s">
+      <c r="I166" s="0" t="s">
         <v>469</v>
-      </c>
-      <c r="I166" s="0" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6373,16 +6433,16 @@
         <v>8</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E167" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="E167" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="I167" s="0" t="s">
-        <v>59</v>
+        <v>472</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6390,16 +6450,16 @@
         <v>8</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>473</v>
+        <v>59</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>473</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6407,7 +6467,7 @@
         <v>8</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>474</v>
@@ -6416,7 +6476,7 @@
         <v>475</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6424,16 +6484,16 @@
         <v>8</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C170" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E170" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="E170" s="0" t="s">
+      <c r="I170" s="0" t="s">
         <v>478</v>
-      </c>
-      <c r="I170" s="0" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6441,16 +6501,16 @@
         <v>8</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C171" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E171" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="E171" s="0" t="s">
+      <c r="I171" s="0" t="s">
         <v>481</v>
-      </c>
-      <c r="I171" s="0" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6458,13 +6518,13 @@
         <v>8</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E172" s="0" t="s">
         <v>483</v>
-      </c>
-      <c r="E172" s="0" t="s">
-        <v>484</v>
       </c>
       <c r="I172" s="0" t="s">
         <v>484</v>
@@ -6475,7 +6535,7 @@
         <v>8</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>485</v>
@@ -6484,7 +6544,7 @@
         <v>486</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6492,10 +6552,10 @@
         <v>8</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E174" s="0" t="s">
         <v>488</v>
@@ -6509,16 +6569,16 @@
         <v>8</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>490</v>
       </c>
       <c r="E175" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="I175" s="0" t="s">
         <v>491</v>
-      </c>
-      <c r="I175" s="0" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6526,16 +6586,16 @@
         <v>8</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E176" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="E176" s="0" t="s">
-        <v>141</v>
-      </c>
       <c r="I176" s="0" t="s">
-        <v>142</v>
+        <v>494</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6543,16 +6603,16 @@
         <v>8</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>495</v>
+        <v>141</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>496</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6560,16 +6620,16 @@
         <v>8</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E178" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="E178" s="0" t="s">
+      <c r="I178" s="0" t="s">
         <v>498</v>
-      </c>
-      <c r="I178" s="0" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6577,16 +6637,16 @@
         <v>8</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E179" s="0" t="s">
         <v>500</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6594,16 +6654,16 @@
         <v>8</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E180" s="0" t="s">
         <v>502</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6611,16 +6671,16 @@
         <v>8</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E181" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="E181" s="0" t="s">
+      <c r="I181" s="0" t="s">
         <v>505</v>
-      </c>
-      <c r="I181" s="0" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6628,16 +6688,16 @@
         <v>8</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E182" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="I182" s="0" t="s">
         <v>508</v>
-      </c>
-      <c r="E182" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="I182" s="0" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,16 +6705,16 @@
         <v>8</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E183" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="E183" s="0" t="s">
+      <c r="I183" s="0" t="s">
         <v>512</v>
-      </c>
-      <c r="I183" s="0" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6662,16 +6722,16 @@
         <v>8</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E184" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="E184" s="0" t="s">
+      <c r="I184" s="0" t="s">
         <v>515</v>
-      </c>
-      <c r="I184" s="0" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6679,10 +6739,10 @@
         <v>8</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E185" s="0" t="s">
         <v>517</v>
@@ -6696,16 +6756,16 @@
         <v>8</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>519</v>
       </c>
       <c r="E186" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="I186" s="0" t="s">
         <v>520</v>
-      </c>
-      <c r="I186" s="0" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,16 +6773,16 @@
         <v>8</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C187" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E187" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="E187" s="0" t="s">
+      <c r="I187" s="0" t="s">
         <v>523</v>
-      </c>
-      <c r="I187" s="0" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6730,16 +6790,16 @@
         <v>8</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E188" s="0" t="s">
         <v>525</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6747,16 +6807,16 @@
         <v>8</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E189" s="0" t="s">
         <v>527</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6764,16 +6824,16 @@
         <v>8</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C190" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E190" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="E190" s="0" t="s">
+      <c r="I190" s="0" t="s">
         <v>530</v>
-      </c>
-      <c r="I190" s="0" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6781,16 +6841,16 @@
         <v>8</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E191" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="I191" s="0" t="s">
         <v>533</v>
-      </c>
-      <c r="E191" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="I191" s="0" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6798,16 +6858,16 @@
         <v>8</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E192" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="E192" s="0" t="s">
+      <c r="I192" s="0" t="s">
         <v>537</v>
-      </c>
-      <c r="I192" s="0" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6815,16 +6875,16 @@
         <v>8</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E193" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="E193" s="0" t="s">
+      <c r="I193" s="0" t="s">
         <v>540</v>
-      </c>
-      <c r="I193" s="0" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6832,16 +6892,16 @@
         <v>8</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C194" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E194" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="E194" s="0" t="s">
+      <c r="I194" s="0" t="s">
         <v>543</v>
-      </c>
-      <c r="I194" s="0" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6849,16 +6909,16 @@
         <v>8</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C195" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E195" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="E195" s="0" t="s">
+      <c r="I195" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="I195" s="0" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6866,16 +6926,16 @@
         <v>8</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E196" s="0" t="s">
         <v>548</v>
       </c>
-      <c r="E196" s="0" t="s">
+      <c r="I196" s="0" t="s">
         <v>549</v>
-      </c>
-      <c r="I196" s="0" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6883,16 +6943,16 @@
         <v>8</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C197" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E197" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="E197" s="0" t="s">
+      <c r="I197" s="0" t="s">
         <v>552</v>
-      </c>
-      <c r="I197" s="0" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6900,16 +6960,16 @@
         <v>8</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E198" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="E198" s="0" t="s">
+      <c r="I198" s="0" t="s">
         <v>555</v>
-      </c>
-      <c r="I198" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6917,16 +6977,16 @@
         <v>8</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C199" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E199" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="E199" s="0" t="s">
+      <c r="I199" s="0" t="s">
         <v>558</v>
-      </c>
-      <c r="I199" s="0" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6934,16 +6994,16 @@
         <v>8</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C200" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E200" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="E200" s="0" t="s">
+      <c r="I200" s="0" t="s">
         <v>561</v>
-      </c>
-      <c r="I200" s="0" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6951,16 +7011,16 @@
         <v>8</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C201" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E201" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="E201" s="0" t="s">
+      <c r="I201" s="0" t="s">
         <v>564</v>
-      </c>
-      <c r="I201" s="0" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6968,16 +7028,16 @@
         <v>8</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C202" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E202" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="E202" s="0" t="s">
+      <c r="I202" s="0" t="s">
         <v>567</v>
-      </c>
-      <c r="I202" s="0" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6985,16 +7045,16 @@
         <v>8</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C203" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E203" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="E203" s="0" t="s">
+      <c r="I203" s="0" t="s">
         <v>570</v>
-      </c>
-      <c r="I203" s="0" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7002,16 +7062,16 @@
         <v>8</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C204" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E204" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="E204" s="0" t="s">
+      <c r="I204" s="0" t="s">
         <v>573</v>
-      </c>
-      <c r="I204" s="0" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7019,16 +7079,16 @@
         <v>8</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C205" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E205" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="E205" s="0" t="s">
+      <c r="I205" s="0" t="s">
         <v>576</v>
-      </c>
-      <c r="I205" s="0" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7036,16 +7096,16 @@
         <v>8</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C206" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E206" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="E206" s="0" t="s">
+      <c r="I206" s="0" t="s">
         <v>579</v>
-      </c>
-      <c r="I206" s="0" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7053,16 +7113,16 @@
         <v>8</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C207" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E207" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="E207" s="0" t="s">
+      <c r="I207" s="0" t="s">
         <v>582</v>
-      </c>
-      <c r="I207" s="0" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7070,16 +7130,16 @@
         <v>8</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C208" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E208" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="E208" s="0" t="s">
+      <c r="I208" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="I208" s="0" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7087,16 +7147,16 @@
         <v>8</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C209" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E209" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="E209" s="0" t="s">
+      <c r="I209" s="0" t="s">
         <v>588</v>
-      </c>
-      <c r="I209" s="0" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,16 +7164,16 @@
         <v>8</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E210" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="E210" s="0" t="s">
+      <c r="I210" s="0" t="s">
         <v>591</v>
-      </c>
-      <c r="I210" s="0" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7121,16 +7181,16 @@
         <v>8</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C211" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E211" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="E211" s="0" t="s">
+      <c r="I211" s="0" t="s">
         <v>594</v>
-      </c>
-      <c r="I211" s="0" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7138,16 +7198,16 @@
         <v>8</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C212" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E212" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="E212" s="0" t="s">
+      <c r="I212" s="0" t="s">
         <v>597</v>
-      </c>
-      <c r="I212" s="0" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7155,16 +7215,16 @@
         <v>8</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C213" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E213" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="E213" s="0" t="s">
+      <c r="I213" s="0" t="s">
         <v>600</v>
-      </c>
-      <c r="I213" s="0" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7172,16 +7232,16 @@
         <v>8</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C214" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E214" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="E214" s="0" t="s">
+      <c r="I214" s="0" t="s">
         <v>603</v>
-      </c>
-      <c r="I214" s="0" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7189,16 +7249,16 @@
         <v>8</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C215" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E215" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="E215" s="0" t="s">
+      <c r="I215" s="0" t="s">
         <v>606</v>
-      </c>
-      <c r="I215" s="0" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7206,16 +7266,16 @@
         <v>8</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E216" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="E216" s="0" t="s">
+      <c r="I216" s="0" t="s">
         <v>609</v>
-      </c>
-      <c r="I216" s="0" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7223,10 +7283,10 @@
         <v>8</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>115</v>
+        <v>610</v>
       </c>
       <c r="E217" s="0" t="s">
         <v>611</v>
@@ -7240,10 +7300,10 @@
         <v>8</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>613</v>
+        <v>115</v>
       </c>
       <c r="E218" s="0" t="s">
         <v>613</v>
@@ -7257,16 +7317,16 @@
         <v>8</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>615</v>
       </c>
       <c r="E219" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="I219" s="0" t="s">
         <v>616</v>
-      </c>
-      <c r="I219" s="0" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7274,16 +7334,16 @@
         <v>8</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C220" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E220" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="E220" s="0" t="s">
+      <c r="I220" s="0" t="s">
         <v>619</v>
-      </c>
-      <c r="I220" s="0" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7291,16 +7351,16 @@
         <v>8</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C221" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E221" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="E221" s="0" t="s">
+      <c r="I221" s="0" t="s">
         <v>622</v>
-      </c>
-      <c r="I221" s="0" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7308,16 +7368,16 @@
         <v>8</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E222" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="E222" s="0" t="s">
+      <c r="I222" s="0" t="s">
         <v>625</v>
-      </c>
-      <c r="I222" s="0" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7325,16 +7385,16 @@
         <v>8</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C223" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E223" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="E223" s="0" t="s">
+      <c r="I223" s="0" t="s">
         <v>628</v>
-      </c>
-      <c r="I223" s="0" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7342,50 +7402,50 @@
         <v>8</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C224" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E224" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="E224" s="0" t="s">
+      <c r="I224" s="0" t="s">
         <v>631</v>
       </c>
-      <c r="I224" s="0" t="s">
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="225" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C225" s="1" t="s">
+      <c r="E225" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="I225" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="I225" s="2" t="s">
+    </row>
+    <row r="226" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C226" s="1" t="s">
+      <c r="E226" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E226" s="0" t="s">
+      <c r="I226" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="I226" s="0" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7393,16 +7453,16 @@
         <v>8</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C227" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E227" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="E227" s="0" t="s">
+      <c r="I227" s="0" t="s">
         <v>640</v>
-      </c>
-      <c r="I227" s="0" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7410,16 +7470,16 @@
         <v>8</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C228" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E228" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="E228" s="0" t="s">
+      <c r="I228" s="0" t="s">
         <v>643</v>
-      </c>
-      <c r="I228" s="0" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7427,16 +7487,16 @@
         <v>8</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C229" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E229" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="E229" s="0" t="s">
+      <c r="I229" s="0" t="s">
         <v>646</v>
-      </c>
-      <c r="I229" s="0" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7444,16 +7504,16 @@
         <v>8</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E230" s="0" t="s">
         <v>648</v>
       </c>
-      <c r="E230" s="0" t="s">
+      <c r="I230" s="0" t="s">
         <v>649</v>
-      </c>
-      <c r="I230" s="0" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7461,16 +7521,16 @@
         <v>8</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C231" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E231" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="E231" s="0" t="s">
+      <c r="I231" s="0" t="s">
         <v>652</v>
-      </c>
-      <c r="I231" s="0" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7478,16 +7538,16 @@
         <v>8</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E232" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="E232" s="0" t="s">
+      <c r="I232" s="0" t="s">
         <v>655</v>
-      </c>
-      <c r="I232" s="0" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7495,19 +7555,16 @@
         <v>8</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C233" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E233" s="0" t="s">
         <v>657</v>
       </c>
-      <c r="E233" s="0" t="s">
+      <c r="I233" s="0" t="s">
         <v>658</v>
-      </c>
-      <c r="G233" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="I233" s="0" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7515,16 +7572,19 @@
         <v>8</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E234" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="G234" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="E234" s="0" t="s">
+      <c r="I234" s="0" t="s">
         <v>662</v>
-      </c>
-      <c r="I234" s="0" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7532,16 +7592,16 @@
         <v>8</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C235" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E235" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="E235" s="0" t="s">
+      <c r="I235" s="0" t="s">
         <v>665</v>
-      </c>
-      <c r="I235" s="0" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7549,16 +7609,16 @@
         <v>8</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E236" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="I236" s="0" t="s">
         <v>668</v>
-      </c>
-      <c r="E236" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="I236" s="0" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7566,16 +7626,16 @@
         <v>8</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E237" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="E237" s="0" t="s">
+      <c r="I237" s="0" t="s">
         <v>672</v>
-      </c>
-      <c r="I237" s="0" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7583,16 +7643,16 @@
         <v>8</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E238" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="E238" s="0" t="s">
+      <c r="I238" s="0" t="s">
         <v>675</v>
-      </c>
-      <c r="I238" s="0" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7600,16 +7660,16 @@
         <v>8</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C239" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E239" s="0" t="s">
         <v>677</v>
       </c>
-      <c r="E239" s="0" t="s">
+      <c r="I239" s="0" t="s">
         <v>678</v>
-      </c>
-      <c r="I239" s="0" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7617,16 +7677,16 @@
         <v>8</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C240" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E240" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="E240" s="0" t="s">
+      <c r="I240" s="0" t="s">
         <v>681</v>
-      </c>
-      <c r="I240" s="0" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7634,22 +7694,16 @@
         <v>8</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C241" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E241" s="0" t="s">
         <v>683</v>
       </c>
-      <c r="E241" s="0" t="s">
+      <c r="I241" s="0" t="s">
         <v>684</v>
-      </c>
-      <c r="F241" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="G241" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="I241" s="0" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7657,22 +7711,22 @@
         <v>8</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C242" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="F242" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="G242" s="0" t="s">
         <v>688</v>
       </c>
-      <c r="E242" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="F242" s="0" t="s">
+      <c r="I242" s="0" t="s">
         <v>689</v>
-      </c>
-      <c r="G242" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="I242" s="0" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7680,16 +7734,22 @@
         <v>8</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C243" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="F243" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="G243" s="0" t="s">
         <v>692</v>
       </c>
-      <c r="E243" s="0" t="s">
+      <c r="I243" s="0" t="s">
         <v>693</v>
-      </c>
-      <c r="I243" s="0" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7697,22 +7757,16 @@
         <v>8</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C244" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E244" s="0" t="s">
         <v>695</v>
       </c>
-      <c r="E244" s="0" t="s">
+      <c r="I244" s="0" t="s">
         <v>696</v>
-      </c>
-      <c r="F244" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="G244" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="I244" s="0" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7720,16 +7774,22 @@
         <v>8</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C245" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="F245" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="G245" s="0" t="s">
         <v>700</v>
       </c>
-      <c r="E245" s="0" t="s">
+      <c r="I245" s="0" t="s">
         <v>701</v>
-      </c>
-      <c r="I245" s="0" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7737,16 +7797,16 @@
         <v>8</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C246" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E246" s="0" t="s">
         <v>703</v>
       </c>
-      <c r="E246" s="0" t="s">
+      <c r="I246" s="0" t="s">
         <v>704</v>
-      </c>
-      <c r="I246" s="0" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7754,22 +7814,16 @@
         <v>8</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C247" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="E247" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="E247" s="0" t="s">
+      <c r="I247" s="0" t="s">
         <v>707</v>
-      </c>
-      <c r="F247" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="G247" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="I247" s="0" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7777,19 +7831,22 @@
         <v>8</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C248" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="F248" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="G248" s="0" t="s">
         <v>711</v>
       </c>
-      <c r="E248" s="0" t="s">
+      <c r="I248" s="0" t="s">
         <v>712</v>
-      </c>
-      <c r="G248" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="I248" s="0" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7797,50 +7854,53 @@
         <v>8</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C249" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="G249" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="E249" s="0" t="s">
+      <c r="I249" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="I249" s="0" t="s">
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="250" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C250" s="1" t="s">
+      <c r="E250" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="E250" s="2" t="s">
+      <c r="I250" s="0" t="s">
         <v>719</v>
       </c>
-      <c r="I250" s="2" t="s">
+    </row>
+    <row r="251" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C251" s="1" t="s">
+      <c r="E251" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="E251" s="0" t="s">
+      <c r="I251" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="I251" s="0" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7848,67 +7908,67 @@
         <v>8</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C252" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E252" s="0" t="s">
         <v>724</v>
       </c>
-      <c r="E252" s="0" t="s">
+      <c r="I252" s="0" t="s">
         <v>725</v>
       </c>
-      <c r="I252" s="0" t="s">
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="253" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C253" s="1" t="s">
+      <c r="E253" s="0" t="s">
         <v>727</v>
       </c>
-      <c r="E253" s="2" t="s">
+      <c r="I253" s="0" t="s">
         <v>728</v>
       </c>
-      <c r="I253" s="2" t="s">
+    </row>
+    <row r="254" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="254" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C254" s="1" t="s">
+      <c r="E254" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="E254" s="2" t="s">
+      <c r="I254" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="I254" s="2" t="s">
+    </row>
+    <row r="255" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C255" s="1" t="s">
+      <c r="E255" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="E255" s="0" t="s">
+      <c r="I255" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="I255" s="0" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7916,16 +7976,16 @@
         <v>8</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C256" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E256" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="E256" s="0" t="s">
+      <c r="I256" s="0" t="s">
         <v>737</v>
-      </c>
-      <c r="I256" s="0" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7933,16 +7993,16 @@
         <v>8</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C257" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E257" s="0" t="s">
         <v>739</v>
       </c>
-      <c r="E257" s="0" t="s">
+      <c r="I257" s="0" t="s">
         <v>740</v>
-      </c>
-      <c r="I257" s="0" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7950,16 +8010,16 @@
         <v>8</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C258" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E258" s="0" t="s">
         <v>742</v>
       </c>
-      <c r="E258" s="0" t="s">
+      <c r="I258" s="0" t="s">
         <v>743</v>
-      </c>
-      <c r="I258" s="0" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7967,16 +8027,16 @@
         <v>8</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C259" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E259" s="0" t="s">
         <v>745</v>
       </c>
-      <c r="E259" s="0" t="s">
+      <c r="I259" s="0" t="s">
         <v>746</v>
-      </c>
-      <c r="I259" s="0" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7984,16 +8044,16 @@
         <v>8</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C260" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E260" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="E260" s="0" t="s">
+      <c r="I260" s="0" t="s">
         <v>749</v>
-      </c>
-      <c r="I260" s="0" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8001,16 +8061,16 @@
         <v>8</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C261" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E261" s="0" t="s">
         <v>751</v>
       </c>
-      <c r="E261" s="0" t="s">
+      <c r="I261" s="0" t="s">
         <v>752</v>
-      </c>
-      <c r="I261" s="0" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8018,16 +8078,16 @@
         <v>8</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C262" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E262" s="0" t="s">
         <v>754</v>
       </c>
-      <c r="E262" s="0" t="s">
+      <c r="I262" s="0" t="s">
         <v>755</v>
-      </c>
-      <c r="I262" s="0" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8035,16 +8095,16 @@
         <v>8</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C263" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E263" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="E263" s="0" t="s">
+      <c r="I263" s="0" t="s">
         <v>758</v>
-      </c>
-      <c r="I263" s="0" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8052,16 +8112,16 @@
         <v>8</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C264" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E264" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="E264" s="0" t="s">
+      <c r="I264" s="0" t="s">
         <v>761</v>
-      </c>
-      <c r="I264" s="0" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8069,16 +8129,16 @@
         <v>8</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C265" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E265" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="E265" s="0" t="s">
+      <c r="I265" s="0" t="s">
         <v>764</v>
-      </c>
-      <c r="I265" s="0" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8086,16 +8146,16 @@
         <v>8</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C266" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E266" s="0" t="s">
         <v>766</v>
       </c>
-      <c r="E266" s="0" t="s">
+      <c r="I266" s="0" t="s">
         <v>767</v>
-      </c>
-      <c r="I266" s="0" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8103,16 +8163,16 @@
         <v>8</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C267" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E267" s="0" t="s">
         <v>769</v>
       </c>
-      <c r="E267" s="0" t="s">
+      <c r="I267" s="0" t="s">
         <v>770</v>
-      </c>
-      <c r="I267" s="0" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8120,16 +8180,16 @@
         <v>8</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C268" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E268" s="0" t="s">
         <v>772</v>
       </c>
-      <c r="E268" s="0" t="s">
+      <c r="I268" s="0" t="s">
         <v>773</v>
-      </c>
-      <c r="I268" s="0" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8137,16 +8197,16 @@
         <v>8</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C269" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E269" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="E269" s="0" t="s">
+      <c r="I269" s="0" t="s">
         <v>776</v>
-      </c>
-      <c r="I269" s="0" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8154,16 +8214,16 @@
         <v>8</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C270" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E270" s="0" t="s">
         <v>778</v>
       </c>
-      <c r="E270" s="0" t="s">
+      <c r="I270" s="0" t="s">
         <v>779</v>
-      </c>
-      <c r="I270" s="0" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8171,13 +8231,13 @@
         <v>8</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C271" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E271" s="0" t="s">
         <v>781</v>
-      </c>
-      <c r="E271" s="0" t="s">
-        <v>782</v>
       </c>
       <c r="I271" s="0" t="s">
         <v>782</v>
@@ -8188,7 +8248,7 @@
         <v>8</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>783</v>
@@ -8197,7 +8257,7 @@
         <v>784</v>
       </c>
       <c r="I272" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8205,16 +8265,16 @@
         <v>8</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C273" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E273" s="0" t="s">
         <v>786</v>
       </c>
-      <c r="E273" s="0" t="s">
+      <c r="I273" s="0" t="s">
         <v>787</v>
-      </c>
-      <c r="I273" s="0" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8222,16 +8282,16 @@
         <v>8</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C274" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E274" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="E274" s="0" t="s">
+      <c r="I274" s="0" t="s">
         <v>790</v>
-      </c>
-      <c r="I274" s="0" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8239,16 +8299,16 @@
         <v>8</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C275" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E275" s="0" t="s">
         <v>792</v>
       </c>
-      <c r="E275" s="0" t="s">
+      <c r="I275" s="0" t="s">
         <v>793</v>
-      </c>
-      <c r="I275" s="0" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8256,16 +8316,16 @@
         <v>8</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C276" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E276" s="0" t="s">
         <v>795</v>
       </c>
-      <c r="E276" s="0" t="s">
+      <c r="I276" s="0" t="s">
         <v>796</v>
-      </c>
-      <c r="I276" s="0" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8273,16 +8333,16 @@
         <v>8</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>170</v>
+        <v>797</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>170</v>
+        <v>798</v>
       </c>
       <c r="I277" s="0" t="s">
-        <v>171</v>
+        <v>799</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8290,19 +8350,16 @@
         <v>8</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>798</v>
+        <v>172</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="G278" s="0" t="s">
-        <v>800</v>
+        <v>172</v>
       </c>
       <c r="I278" s="0" t="s">
-        <v>801</v>
+        <v>173</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8310,16 +8367,19 @@
         <v>8</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C279" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E279" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="G279" s="0" t="s">
         <v>802</v>
       </c>
-      <c r="E279" s="0" t="s">
+      <c r="I279" s="0" t="s">
         <v>803</v>
-      </c>
-      <c r="I279" s="0" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8327,16 +8387,16 @@
         <v>8</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C280" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E280" s="0" t="s">
         <v>805</v>
       </c>
-      <c r="E280" s="0" t="s">
+      <c r="I280" s="0" t="s">
         <v>806</v>
-      </c>
-      <c r="I280" s="0" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8344,16 +8404,16 @@
         <v>8</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C281" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E281" s="0" t="s">
         <v>808</v>
       </c>
-      <c r="E281" s="0" t="s">
+      <c r="I281" s="0" t="s">
         <v>809</v>
-      </c>
-      <c r="I281" s="0" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8361,53 +8421,53 @@
         <v>8</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C282" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E282" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="E282" s="0" t="s">
+      <c r="I282" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="G282" s="0" t="s">
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="I282" s="0" t="s">
+      <c r="E283" s="0" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="283" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C283" s="1" t="s">
+      <c r="G283" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="E283" s="2" t="s">
+      <c r="I283" s="0" t="s">
         <v>816</v>
       </c>
-      <c r="I283" s="0" t="s">
+    </row>
+    <row r="284" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C284" s="1" t="s">
+      <c r="E284" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="E284" s="0" t="s">
+      <c r="I284" s="0" t="s">
         <v>819</v>
-      </c>
-      <c r="I284" s="0" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8415,16 +8475,16 @@
         <v>8</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C285" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E285" s="0" t="s">
         <v>821</v>
       </c>
-      <c r="E285" s="0" t="s">
+      <c r="I285" s="0" t="s">
         <v>822</v>
-      </c>
-      <c r="I285" s="0" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8432,12 +8492,15 @@
         <v>8</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C286" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E286" s="0" t="s">
         <v>824</v>
       </c>
-      <c r="G286" s="0" t="s">
+      <c r="I286" s="0" t="s">
         <v>825</v>
       </c>
     </row>
@@ -8446,16 +8509,16 @@
         <v>8</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="E287" s="0" t="s">
         <v>827</v>
       </c>
-      <c r="E287" s="0" t="s">
+      <c r="I287" s="0" t="s">
         <v>828</v>
-      </c>
-      <c r="I287" s="0" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8463,16 +8526,16 @@
         <v>8</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>826</v>
+        <v>669</v>
       </c>
       <c r="C288" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E288" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="E288" s="0" t="s">
+      <c r="I288" s="0" t="s">
         <v>831</v>
-      </c>
-      <c r="I288" s="0" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8480,16 +8543,16 @@
         <v>8</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>826</v>
+        <v>669</v>
       </c>
       <c r="C289" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E289" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="E289" s="0" t="s">
+      <c r="I289" s="0" t="s">
         <v>834</v>
-      </c>
-      <c r="I289" s="0" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8497,16 +8560,16 @@
         <v>8</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>826</v>
+        <v>669</v>
       </c>
       <c r="C290" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="E290" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="E290" s="0" t="s">
+      <c r="I290" s="0" t="s">
         <v>837</v>
-      </c>
-      <c r="I290" s="0" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8514,16 +8577,13 @@
         <v>8</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>826</v>
+        <v>669</v>
       </c>
       <c r="C291" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="G291" s="0" t="s">
         <v>839</v>
-      </c>
-      <c r="E291" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="I291" s="0" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8531,16 +8591,16 @@
         <v>8</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C292" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E292" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="E292" s="0" t="s">
+      <c r="I292" s="0" t="s">
         <v>843</v>
-      </c>
-      <c r="I292" s="0" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8548,16 +8608,16 @@
         <v>8</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C293" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E293" s="0" t="s">
         <v>845</v>
       </c>
-      <c r="E293" s="0" t="s">
+      <c r="I293" s="0" t="s">
         <v>846</v>
-      </c>
-      <c r="I293" s="0" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8565,16 +8625,16 @@
         <v>8</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C294" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E294" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="E294" s="0" t="s">
+      <c r="I294" s="0" t="s">
         <v>849</v>
-      </c>
-      <c r="I294" s="0" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8582,16 +8642,16 @@
         <v>8</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C295" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="E295" s="0" t="s">
         <v>851</v>
       </c>
-      <c r="E295" s="0" t="s">
+      <c r="I295" s="0" t="s">
         <v>852</v>
-      </c>
-      <c r="I295" s="0" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8599,16 +8659,16 @@
         <v>8</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C296" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E296" s="0" t="s">
         <v>854</v>
       </c>
-      <c r="E296" s="0" t="s">
+      <c r="I296" s="0" t="s">
         <v>855</v>
-      </c>
-      <c r="I296" s="0" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8616,16 +8676,16 @@
         <v>8</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C297" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E297" s="0" t="s">
         <v>857</v>
       </c>
-      <c r="E297" s="0" t="s">
+      <c r="I297" s="0" t="s">
         <v>858</v>
-      </c>
-      <c r="I297" s="0" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8633,16 +8693,16 @@
         <v>8</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C298" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E298" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="E298" s="0" t="s">
+      <c r="I298" s="0" t="s">
         <v>861</v>
-      </c>
-      <c r="I298" s="0" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8650,16 +8710,16 @@
         <v>8</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C299" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E299" s="0" t="s">
         <v>863</v>
       </c>
-      <c r="E299" s="0" t="s">
+      <c r="I299" s="0" t="s">
         <v>864</v>
-      </c>
-      <c r="I299" s="0" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8667,16 +8727,16 @@
         <v>8</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C300" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E300" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="E300" s="0" t="s">
+      <c r="I300" s="0" t="s">
         <v>867</v>
-      </c>
-      <c r="I300" s="0" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8684,16 +8744,16 @@
         <v>8</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C301" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="E301" s="0" t="s">
         <v>869</v>
       </c>
-      <c r="E301" s="0" t="s">
+      <c r="I301" s="0" t="s">
         <v>870</v>
-      </c>
-      <c r="I301" s="0" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8701,16 +8761,16 @@
         <v>8</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C302" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="E302" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="E302" s="0" t="s">
+      <c r="I302" s="0" t="s">
         <v>873</v>
-      </c>
-      <c r="I302" s="0" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8718,16 +8778,16 @@
         <v>8</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C303" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="E303" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="E303" s="0" t="s">
+      <c r="I303" s="0" t="s">
         <v>876</v>
-      </c>
-      <c r="I303" s="0" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8735,16 +8795,16 @@
         <v>8</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C304" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="E304" s="0" t="s">
         <v>878</v>
       </c>
-      <c r="E304" s="0" t="s">
+      <c r="I304" s="0" t="s">
         <v>879</v>
-      </c>
-      <c r="I304" s="0" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8752,16 +8812,16 @@
         <v>8</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C305" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E305" s="0" t="s">
         <v>881</v>
       </c>
-      <c r="E305" s="0" t="s">
+      <c r="I305" s="0" t="s">
         <v>882</v>
-      </c>
-      <c r="I305" s="0" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8769,16 +8829,16 @@
         <v>8</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C306" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E306" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="E306" s="0" t="s">
+      <c r="I306" s="0" t="s">
         <v>885</v>
-      </c>
-      <c r="I306" s="0" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8786,16 +8846,16 @@
         <v>8</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C307" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E307" s="0" t="s">
         <v>887</v>
       </c>
-      <c r="E307" s="0" t="s">
+      <c r="I307" s="0" t="s">
         <v>888</v>
-      </c>
-      <c r="I307" s="0" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8803,16 +8863,16 @@
         <v>8</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C308" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E308" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="E308" s="0" t="s">
+      <c r="I308" s="0" t="s">
         <v>891</v>
-      </c>
-      <c r="I308" s="0" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8820,16 +8880,16 @@
         <v>8</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C309" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E309" s="0" t="s">
         <v>893</v>
       </c>
-      <c r="E309" s="0" t="s">
+      <c r="I309" s="0" t="s">
         <v>894</v>
-      </c>
-      <c r="I309" s="0" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8837,16 +8897,16 @@
         <v>8</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E310" s="0" t="s">
         <v>896</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="I310" s="0" t="s">
         <v>897</v>
-      </c>
-      <c r="E310" s="0" t="s">
-        <v>898</v>
-      </c>
-      <c r="I310" s="0" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8854,16 +8914,16 @@
         <v>8</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>896</v>
+        <v>840</v>
       </c>
       <c r="C311" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E311" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="I311" s="0" t="s">
         <v>900</v>
-      </c>
-      <c r="E311" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="I311" s="0" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8871,16 +8931,16 @@
         <v>8</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>896</v>
+        <v>840</v>
       </c>
       <c r="C312" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="E312" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="I312" s="0" t="s">
         <v>903</v>
-      </c>
-      <c r="E312" s="0" t="s">
-        <v>903</v>
-      </c>
-      <c r="I312" s="0" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8888,16 +8948,16 @@
         <v>8</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>896</v>
+        <v>840</v>
       </c>
       <c r="C313" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="E313" s="0" t="s">
         <v>905</v>
       </c>
-      <c r="E313" s="0" t="s">
+      <c r="I313" s="0" t="s">
         <v>906</v>
-      </c>
-      <c r="I313" s="0" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8905,16 +8965,16 @@
         <v>8</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>896</v>
+        <v>840</v>
       </c>
       <c r="C314" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E314" s="0" t="s">
         <v>908</v>
       </c>
-      <c r="E314" s="0" t="s">
+      <c r="I314" s="0" t="s">
         <v>909</v>
-      </c>
-      <c r="I314" s="0" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8922,7 +8982,7 @@
         <v>8</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>911</v>
@@ -8939,7 +8999,7 @@
         <v>8</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>914</v>
@@ -8956,16 +9016,16 @@
         <v>8</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>917</v>
       </c>
       <c r="E317" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="I317" s="0" t="s">
         <v>918</v>
-      </c>
-      <c r="I317" s="0" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8973,16 +9033,16 @@
         <v>8</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C318" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E318" s="0" t="s">
         <v>920</v>
       </c>
-      <c r="E318" s="0" t="s">
+      <c r="I318" s="0" t="s">
         <v>921</v>
-      </c>
-      <c r="I318" s="0" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8990,16 +9050,16 @@
         <v>8</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C319" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="E319" s="0" t="s">
         <v>923</v>
       </c>
-      <c r="E319" s="0" t="s">
+      <c r="I319" s="0" t="s">
         <v>924</v>
-      </c>
-      <c r="I319" s="0" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9007,16 +9067,16 @@
         <v>8</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C320" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="E320" s="0" t="s">
         <v>926</v>
       </c>
-      <c r="E320" s="0" t="s">
+      <c r="I320" s="0" t="s">
         <v>927</v>
-      </c>
-      <c r="I320" s="0" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9024,33 +9084,33 @@
         <v>8</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C321" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="E321" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="E321" s="0" t="s">
+      <c r="I321" s="0" t="s">
         <v>930</v>
       </c>
-      <c r="I321" s="0" t="s">
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="322" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="C322" s="1" t="s">
+      <c r="E322" s="0" t="s">
         <v>932</v>
       </c>
-      <c r="E322" s="2" t="s">
+      <c r="I322" s="0" t="s">
         <v>933</v>
-      </c>
-      <c r="I322" s="2" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9058,16 +9118,16 @@
         <v>8</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C323" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="E323" s="0" t="s">
         <v>935</v>
       </c>
-      <c r="E323" s="0" t="s">
+      <c r="I323" s="0" t="s">
         <v>936</v>
-      </c>
-      <c r="I323" s="0" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9075,16 +9135,16 @@
         <v>8</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C324" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="E324" s="0" t="s">
         <v>938</v>
       </c>
-      <c r="E324" s="0" t="s">
+      <c r="I324" s="0" t="s">
         <v>939</v>
-      </c>
-      <c r="I324" s="0" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9092,16 +9152,16 @@
         <v>8</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C325" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="E325" s="0" t="s">
         <v>941</v>
       </c>
-      <c r="E325" s="0" t="s">
+      <c r="I325" s="0" t="s">
         <v>942</v>
-      </c>
-      <c r="I325" s="0" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9109,7 +9169,7 @@
         <v>8</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>943</v>
@@ -9121,20 +9181,20 @@
         <v>945</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="E327" s="0" t="s">
+      <c r="E327" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="I327" s="0" t="s">
+      <c r="I327" s="2" t="s">
         <v>948</v>
       </c>
     </row>
@@ -9143,7 +9203,7 @@
         <v>8</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>949</v>
@@ -9160,7 +9220,7 @@
         <v>8</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>952</v>
@@ -9177,7 +9237,7 @@
         <v>8</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>955</v>
@@ -9186,7 +9246,7 @@
         <v>956</v>
       </c>
       <c r="I330" s="0" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9194,16 +9254,16 @@
         <v>8</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C331" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="E331" s="0" t="s">
         <v>958</v>
       </c>
-      <c r="E331" s="0" t="s">
+      <c r="I331" s="0" t="s">
         <v>959</v>
-      </c>
-      <c r="I331" s="0" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9211,16 +9271,16 @@
         <v>8</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C332" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="E332" s="0" t="s">
         <v>961</v>
       </c>
-      <c r="E332" s="0" t="s">
+      <c r="I332" s="0" t="s">
         <v>962</v>
-      </c>
-      <c r="I332" s="0" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9228,16 +9288,16 @@
         <v>8</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C333" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E333" s="0" t="s">
         <v>964</v>
       </c>
-      <c r="E333" s="0" t="s">
+      <c r="I333" s="0" t="s">
         <v>965</v>
-      </c>
-      <c r="I333" s="0" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9245,16 +9305,16 @@
         <v>8</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C334" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="E334" s="0" t="s">
         <v>967</v>
       </c>
-      <c r="E334" s="0" t="s">
+      <c r="I334" s="0" t="s">
         <v>968</v>
-      </c>
-      <c r="I334" s="0" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9262,16 +9322,16 @@
         <v>8</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C335" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E335" s="0" t="s">
         <v>970</v>
       </c>
-      <c r="E335" s="0" t="s">
+      <c r="I335" s="0" t="s">
         <v>971</v>
-      </c>
-      <c r="I335" s="0" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9279,16 +9339,16 @@
         <v>8</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C336" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="E336" s="0" t="s">
         <v>973</v>
       </c>
-      <c r="E336" s="0" t="s">
+      <c r="I336" s="0" t="s">
         <v>974</v>
-      </c>
-      <c r="I336" s="0" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9296,16 +9356,16 @@
         <v>8</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C337" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E337" s="0" t="s">
         <v>976</v>
       </c>
-      <c r="E337" s="0" t="s">
+      <c r="I337" s="0" t="s">
         <v>977</v>
-      </c>
-      <c r="I337" s="0" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9313,16 +9373,16 @@
         <v>8</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C338" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E338" s="0" t="s">
         <v>979</v>
       </c>
-      <c r="E338" s="0" t="s">
+      <c r="I338" s="0" t="s">
         <v>980</v>
-      </c>
-      <c r="I338" s="0" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9330,16 +9390,16 @@
         <v>8</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C339" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E339" s="0" t="s">
         <v>982</v>
       </c>
-      <c r="E339" s="0" t="s">
+      <c r="I339" s="0" t="s">
         <v>983</v>
-      </c>
-      <c r="I339" s="0" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9347,16 +9407,16 @@
         <v>8</v>
       </c>
       <c r="B340" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E340" s="0" t="s">
         <v>985</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="I340" s="0" t="s">
         <v>986</v>
-      </c>
-      <c r="E340" s="0" t="s">
-        <v>987</v>
-      </c>
-      <c r="I340" s="0" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9364,16 +9424,16 @@
         <v>8</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>985</v>
+        <v>910</v>
       </c>
       <c r="C341" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="E341" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="I341" s="0" t="s">
         <v>989</v>
-      </c>
-      <c r="E341" s="0" t="s">
-        <v>990</v>
-      </c>
-      <c r="I341" s="0" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9381,126 +9441,126 @@
         <v>8</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>985</v>
+        <v>910</v>
       </c>
       <c r="C342" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E342" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="I342" s="0" t="s">
         <v>992</v>
-      </c>
-      <c r="E342" s="0" t="s">
-        <v>993</v>
-      </c>
-      <c r="I342" s="0" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E343" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="I343" s="0" t="s">
         <v>995</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="E343" s="0" t="s">
-        <v>998</v>
-      </c>
-      <c r="I343" s="0" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>995</v>
+        <v>8</v>
       </c>
       <c r="B344" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="C344" s="1" t="s">
-        <v>1000</v>
-      </c>
       <c r="E344" s="0" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="I344" s="0" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>995</v>
+        <v>8</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="I345" s="0" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>995</v>
+        <v>8</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E346" s="0" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I346" s="0" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>995</v>
+        <v>8</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C347" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E347" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I347" s="0" t="s">
         <v>1008</v>
-      </c>
-      <c r="E347" s="0" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I347" s="0" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>995</v>
+        <v>8</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C348" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E348" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I348" s="0" t="s">
         <v>1011</v>
-      </c>
-      <c r="E348" s="0" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I348" s="0" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>1014</v>
@@ -9508,50 +9568,53 @@
       <c r="E349" s="0" t="s">
         <v>1015</v>
       </c>
+      <c r="I349" s="0" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E350" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="I350" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E351" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="I351" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E352" s="0" t="s">
         <v>1023</v>
@@ -9562,10 +9625,10 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>1025</v>
@@ -9579,10 +9642,10 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>1028</v>
@@ -9596,10 +9659,10 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>1031</v>
@@ -9607,138 +9670,237 @@
       <c r="E355" s="0" t="s">
         <v>1032</v>
       </c>
-      <c r="I355" s="0" t="s">
-        <v>1033</v>
-      </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="C356" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E356" s="0" t="s">
         <v>1034</v>
       </c>
-      <c r="E356" s="0" t="s">
+      <c r="I356" s="0" t="s">
         <v>1035</v>
-      </c>
-      <c r="I356" s="0" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E357" s="0" t="s">
         <v>1037</v>
       </c>
+      <c r="I357" s="0" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="I358" s="0" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E359" s="0" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="I359" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="E360" s="0" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="I360" s="0" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E361" s="0" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="I361" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E362" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="I362" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E363" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E364" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I364" s="0" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E365" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I365" s="0" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E366" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I366" s="0" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E367" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I367" s="0" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E368" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I368" s="0" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E369" s="0" t="s">
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
